--- a/CE-RG-27. Cronograma de proyectos integradores. Rev. 04.xlsx
+++ b/CE-RG-27. Cronograma de proyectos integradores. Rev. 04.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aide_\Documents\GitHub\Integrador\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB94AFE-A3A8-4BE1-9AEA-B8606CBF0468}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="2580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="2580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -13,16 +19,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$BQ$73</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="32">
   <si>
     <t>L</t>
   </si>
@@ -45,18 +46,6 @@
     <t>No. De Actividades.</t>
   </si>
   <si>
-    <t>Cuatrimestre:</t>
-  </si>
-  <si>
-    <t>Nombre del proyecto:</t>
-  </si>
-  <si>
-    <t>Carrera:</t>
-  </si>
-  <si>
-    <t>Academia(s):</t>
-  </si>
-  <si>
     <t>ACTIVIDADES REALIZADAS</t>
   </si>
   <si>
@@ -75,12 +64,6 @@
     <t xml:space="preserve"> DE SER UN PROYECTO FACTIBLE DE SER INCUBADO LLENAR LA SIGUIENTE INFORMACIÓN</t>
   </si>
   <si>
-    <t>Tutor o Tutora:</t>
-  </si>
-  <si>
-    <t>Asesor o Asesora:</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -89,11 +72,59 @@
   <si>
     <t>ALUMNOS Y/O ALUMNAS  QUE INTEGRAN EL PROYECTO (Nombre, Carrera)</t>
   </si>
+  <si>
+    <t>Carrera: Ing. Telemática</t>
+  </si>
+  <si>
+    <t>Cuatrimestre: Septimo</t>
+  </si>
+  <si>
+    <t>Nombre del proyecto: Tech-Tuin</t>
+  </si>
+  <si>
+    <t>Academia(s): ITE</t>
+  </si>
+  <si>
+    <t>Tutor o Tutora: Victor Lauro Perez Gracía</t>
+  </si>
+  <si>
+    <t>Asesor o Asesora: Luis Rey Lara González</t>
+  </si>
+  <si>
+    <t>José Martín Nieto Leon, ITE</t>
+  </si>
+  <si>
+    <t>Cristian Muñiz Mendoza, ITE</t>
+  </si>
+  <si>
+    <t>Elías Abraham Ramirez Rivera, ITE</t>
+  </si>
+  <si>
+    <t>Victor Alfonso Humareda Barbosa, ITE</t>
+  </si>
+  <si>
+    <t>Aide Pizano Escalante, ITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimizacion de programacion de sensores </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Desarrollo de base de datos</t>
+  </si>
+  <si>
+    <t>Desarrollo de página web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan de negocios </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -377,15 +408,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -646,6 +675,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -694,7 +726,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="29 CuadroTexto"/>
+        <xdr:cNvPr id="30" name="29 CuadroTexto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -749,7 +787,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="30 CuadroTexto"/>
+        <xdr:cNvPr id="31" name="30 CuadroTexto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -822,7 +866,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="31 CuadroTexto"/>
+        <xdr:cNvPr id="32" name="31 CuadroTexto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -968,7 +1018,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="12 Conector recto"/>
+        <xdr:cNvPr id="13" name="12 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1017,7 +1073,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="19 Conector recto"/>
+        <xdr:cNvPr id="20" name="19 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1066,7 +1128,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="2 Imagen"/>
+        <xdr:cNvPr id="9" name="2 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1420,11 +1488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BQ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:J63"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1436,1103 +1504,1103 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="81"/>
-      <c r="BD1" s="81"/>
-      <c r="BE1" s="81"/>
-      <c r="BF1" s="81"/>
-      <c r="BG1" s="81"/>
-      <c r="BH1" s="81"/>
-      <c r="BI1" s="81"/>
-      <c r="BJ1" s="81"/>
-      <c r="BK1" s="81"/>
-      <c r="BL1" s="81"/>
-      <c r="BM1" s="81"/>
-      <c r="BN1" s="81"/>
-      <c r="BO1" s="81"/>
-      <c r="BP1" s="81"/>
-      <c r="BQ1" s="82"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="79"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="79"/>
+      <c r="BD1" s="79"/>
+      <c r="BE1" s="79"/>
+      <c r="BF1" s="79"/>
+      <c r="BG1" s="79"/>
+      <c r="BH1" s="79"/>
+      <c r="BI1" s="79"/>
+      <c r="BJ1" s="79"/>
+      <c r="BK1" s="79"/>
+      <c r="BL1" s="79"/>
+      <c r="BM1" s="79"/>
+      <c r="BN1" s="79"/>
+      <c r="BO1" s="79"/>
+      <c r="BP1" s="79"/>
+      <c r="BQ1" s="80"/>
     </row>
     <row r="2" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="84"/>
-      <c r="BC2" s="84"/>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="84"/>
-      <c r="BG2" s="84"/>
-      <c r="BH2" s="84"/>
-      <c r="BI2" s="84"/>
-      <c r="BJ2" s="84"/>
-      <c r="BK2" s="84"/>
-      <c r="BL2" s="84"/>
-      <c r="BM2" s="84"/>
-      <c r="BN2" s="84"/>
-      <c r="BO2" s="84"/>
-      <c r="BP2" s="84"/>
-      <c r="BQ2" s="85"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="82"/>
+      <c r="BC2" s="82"/>
+      <c r="BD2" s="82"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="82"/>
+      <c r="BG2" s="82"/>
+      <c r="BH2" s="82"/>
+      <c r="BI2" s="82"/>
+      <c r="BJ2" s="82"/>
+      <c r="BK2" s="82"/>
+      <c r="BL2" s="82"/>
+      <c r="BM2" s="82"/>
+      <c r="BN2" s="82"/>
+      <c r="BO2" s="82"/>
+      <c r="BP2" s="82"/>
+      <c r="BQ2" s="83"/>
     </row>
     <row r="3" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="84"/>
-      <c r="AU3" s="84"/>
-      <c r="AV3" s="84"/>
-      <c r="AW3" s="84"/>
-      <c r="AX3" s="84"/>
-      <c r="AY3" s="84"/>
-      <c r="AZ3" s="84"/>
-      <c r="BA3" s="84"/>
-      <c r="BB3" s="84"/>
-      <c r="BC3" s="84"/>
-      <c r="BD3" s="84"/>
-      <c r="BE3" s="84"/>
-      <c r="BF3" s="84"/>
-      <c r="BG3" s="84"/>
-      <c r="BH3" s="84"/>
-      <c r="BI3" s="84"/>
-      <c r="BJ3" s="84"/>
-      <c r="BK3" s="84"/>
-      <c r="BL3" s="84"/>
-      <c r="BM3" s="84"/>
-      <c r="BN3" s="84"/>
-      <c r="BO3" s="84"/>
-      <c r="BP3" s="84"/>
-      <c r="BQ3" s="85"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="82"/>
+      <c r="AM3" s="82"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="82"/>
+      <c r="AR3" s="82"/>
+      <c r="AS3" s="82"/>
+      <c r="AT3" s="82"/>
+      <c r="AU3" s="82"/>
+      <c r="AV3" s="82"/>
+      <c r="AW3" s="82"/>
+      <c r="AX3" s="82"/>
+      <c r="AY3" s="82"/>
+      <c r="AZ3" s="82"/>
+      <c r="BA3" s="82"/>
+      <c r="BB3" s="82"/>
+      <c r="BC3" s="82"/>
+      <c r="BD3" s="82"/>
+      <c r="BE3" s="82"/>
+      <c r="BF3" s="82"/>
+      <c r="BG3" s="82"/>
+      <c r="BH3" s="82"/>
+      <c r="BI3" s="82"/>
+      <c r="BJ3" s="82"/>
+      <c r="BK3" s="82"/>
+      <c r="BL3" s="82"/>
+      <c r="BM3" s="82"/>
+      <c r="BN3" s="82"/>
+      <c r="BO3" s="82"/>
+      <c r="BP3" s="82"/>
+      <c r="BQ3" s="83"/>
     </row>
     <row r="4" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B4" s="83"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="84"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="84"/>
-      <c r="AY4" s="84"/>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
-      <c r="BC4" s="84"/>
-      <c r="BD4" s="84"/>
-      <c r="BE4" s="84"/>
-      <c r="BF4" s="84"/>
-      <c r="BG4" s="84"/>
-      <c r="BH4" s="84"/>
-      <c r="BI4" s="84"/>
-      <c r="BJ4" s="84"/>
-      <c r="BK4" s="84"/>
-      <c r="BL4" s="84"/>
-      <c r="BM4" s="84"/>
-      <c r="BN4" s="84"/>
-      <c r="BO4" s="84"/>
-      <c r="BP4" s="84"/>
-      <c r="BQ4" s="85"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="82"/>
+      <c r="AL4" s="82"/>
+      <c r="AM4" s="82"/>
+      <c r="AN4" s="82"/>
+      <c r="AO4" s="82"/>
+      <c r="AP4" s="82"/>
+      <c r="AQ4" s="82"/>
+      <c r="AR4" s="82"/>
+      <c r="AS4" s="82"/>
+      <c r="AT4" s="82"/>
+      <c r="AU4" s="82"/>
+      <c r="AV4" s="82"/>
+      <c r="AW4" s="82"/>
+      <c r="AX4" s="82"/>
+      <c r="AY4" s="82"/>
+      <c r="AZ4" s="82"/>
+      <c r="BA4" s="82"/>
+      <c r="BB4" s="82"/>
+      <c r="BC4" s="82"/>
+      <c r="BD4" s="82"/>
+      <c r="BE4" s="82"/>
+      <c r="BF4" s="82"/>
+      <c r="BG4" s="82"/>
+      <c r="BH4" s="82"/>
+      <c r="BI4" s="82"/>
+      <c r="BJ4" s="82"/>
+      <c r="BK4" s="82"/>
+      <c r="BL4" s="82"/>
+      <c r="BM4" s="82"/>
+      <c r="BN4" s="82"/>
+      <c r="BO4" s="82"/>
+      <c r="BP4" s="82"/>
+      <c r="BQ4" s="83"/>
     </row>
     <row r="5" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B5" s="83"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
-      <c r="AF5" s="84"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="84"/>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="84"/>
-      <c r="AM5" s="84"/>
-      <c r="AN5" s="84"/>
-      <c r="AO5" s="84"/>
-      <c r="AP5" s="84"/>
-      <c r="AQ5" s="84"/>
-      <c r="AR5" s="84"/>
-      <c r="AS5" s="84"/>
-      <c r="AT5" s="84"/>
-      <c r="AU5" s="84"/>
-      <c r="AV5" s="84"/>
-      <c r="AW5" s="84"/>
-      <c r="AX5" s="84"/>
-      <c r="AY5" s="84"/>
-      <c r="AZ5" s="84"/>
-      <c r="BA5" s="84"/>
-      <c r="BB5" s="84"/>
-      <c r="BC5" s="84"/>
-      <c r="BD5" s="84"/>
-      <c r="BE5" s="84"/>
-      <c r="BF5" s="84"/>
-      <c r="BG5" s="84"/>
-      <c r="BH5" s="84"/>
-      <c r="BI5" s="84"/>
-      <c r="BJ5" s="84"/>
-      <c r="BK5" s="84"/>
-      <c r="BL5" s="84"/>
-      <c r="BM5" s="84"/>
-      <c r="BN5" s="84"/>
-      <c r="BO5" s="84"/>
-      <c r="BP5" s="84"/>
-      <c r="BQ5" s="85"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="82"/>
+      <c r="AL5" s="82"/>
+      <c r="AM5" s="82"/>
+      <c r="AN5" s="82"/>
+      <c r="AO5" s="82"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="82"/>
+      <c r="AT5" s="82"/>
+      <c r="AU5" s="82"/>
+      <c r="AV5" s="82"/>
+      <c r="AW5" s="82"/>
+      <c r="AX5" s="82"/>
+      <c r="AY5" s="82"/>
+      <c r="AZ5" s="82"/>
+      <c r="BA5" s="82"/>
+      <c r="BB5" s="82"/>
+      <c r="BC5" s="82"/>
+      <c r="BD5" s="82"/>
+      <c r="BE5" s="82"/>
+      <c r="BF5" s="82"/>
+      <c r="BG5" s="82"/>
+      <c r="BH5" s="82"/>
+      <c r="BI5" s="82"/>
+      <c r="BJ5" s="82"/>
+      <c r="BK5" s="82"/>
+      <c r="BL5" s="82"/>
+      <c r="BM5" s="82"/>
+      <c r="BN5" s="82"/>
+      <c r="BO5" s="82"/>
+      <c r="BP5" s="82"/>
+      <c r="BQ5" s="83"/>
     </row>
     <row r="6" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B6" s="83"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="84"/>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="84"/>
-      <c r="AK6" s="84"/>
-      <c r="AL6" s="84"/>
-      <c r="AM6" s="84"/>
-      <c r="AN6" s="84"/>
-      <c r="AO6" s="84"/>
-      <c r="AP6" s="84"/>
-      <c r="AQ6" s="84"/>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="84"/>
-      <c r="AT6" s="84"/>
-      <c r="AU6" s="84"/>
-      <c r="AV6" s="84"/>
-      <c r="AW6" s="84"/>
-      <c r="AX6" s="84"/>
-      <c r="AY6" s="84"/>
-      <c r="AZ6" s="84"/>
-      <c r="BA6" s="84"/>
-      <c r="BB6" s="84"/>
-      <c r="BC6" s="84"/>
-      <c r="BD6" s="84"/>
-      <c r="BE6" s="84"/>
-      <c r="BF6" s="84"/>
-      <c r="BG6" s="84"/>
-      <c r="BH6" s="84"/>
-      <c r="BI6" s="84"/>
-      <c r="BJ6" s="84"/>
-      <c r="BK6" s="84"/>
-      <c r="BL6" s="84"/>
-      <c r="BM6" s="84"/>
-      <c r="BN6" s="84"/>
-      <c r="BO6" s="84"/>
-      <c r="BP6" s="84"/>
-      <c r="BQ6" s="85"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="82"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="82"/>
+      <c r="AJ6" s="82"/>
+      <c r="AK6" s="82"/>
+      <c r="AL6" s="82"/>
+      <c r="AM6" s="82"/>
+      <c r="AN6" s="82"/>
+      <c r="AO6" s="82"/>
+      <c r="AP6" s="82"/>
+      <c r="AQ6" s="82"/>
+      <c r="AR6" s="82"/>
+      <c r="AS6" s="82"/>
+      <c r="AT6" s="82"/>
+      <c r="AU6" s="82"/>
+      <c r="AV6" s="82"/>
+      <c r="AW6" s="82"/>
+      <c r="AX6" s="82"/>
+      <c r="AY6" s="82"/>
+      <c r="AZ6" s="82"/>
+      <c r="BA6" s="82"/>
+      <c r="BB6" s="82"/>
+      <c r="BC6" s="82"/>
+      <c r="BD6" s="82"/>
+      <c r="BE6" s="82"/>
+      <c r="BF6" s="82"/>
+      <c r="BG6" s="82"/>
+      <c r="BH6" s="82"/>
+      <c r="BI6" s="82"/>
+      <c r="BJ6" s="82"/>
+      <c r="BK6" s="82"/>
+      <c r="BL6" s="82"/>
+      <c r="BM6" s="82"/>
+      <c r="BN6" s="82"/>
+      <c r="BO6" s="82"/>
+      <c r="BP6" s="82"/>
+      <c r="BQ6" s="83"/>
     </row>
     <row r="7" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B7" s="86"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="87"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="87"/>
-      <c r="AF7" s="87"/>
-      <c r="AG7" s="87"/>
-      <c r="AH7" s="87"/>
-      <c r="AI7" s="87"/>
-      <c r="AJ7" s="87"/>
-      <c r="AK7" s="87"/>
-      <c r="AL7" s="87"/>
-      <c r="AM7" s="87"/>
-      <c r="AN7" s="87"/>
-      <c r="AO7" s="87"/>
-      <c r="AP7" s="87"/>
-      <c r="AQ7" s="87"/>
-      <c r="AR7" s="87"/>
-      <c r="AS7" s="87"/>
-      <c r="AT7" s="87"/>
-      <c r="AU7" s="87"/>
-      <c r="AV7" s="87"/>
-      <c r="AW7" s="87"/>
-      <c r="AX7" s="87"/>
-      <c r="AY7" s="87"/>
-      <c r="AZ7" s="87"/>
-      <c r="BA7" s="87"/>
-      <c r="BB7" s="87"/>
-      <c r="BC7" s="87"/>
-      <c r="BD7" s="87"/>
-      <c r="BE7" s="87"/>
-      <c r="BF7" s="87"/>
-      <c r="BG7" s="87"/>
-      <c r="BH7" s="87"/>
-      <c r="BI7" s="87"/>
-      <c r="BJ7" s="87"/>
-      <c r="BK7" s="87"/>
-      <c r="BL7" s="87"/>
-      <c r="BM7" s="87"/>
-      <c r="BN7" s="87"/>
-      <c r="BO7" s="87"/>
-      <c r="BP7" s="87"/>
-      <c r="BQ7" s="88"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="85"/>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="85"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="85"/>
+      <c r="AB7" s="85"/>
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="85"/>
+      <c r="AE7" s="85"/>
+      <c r="AF7" s="85"/>
+      <c r="AG7" s="85"/>
+      <c r="AH7" s="85"/>
+      <c r="AI7" s="85"/>
+      <c r="AJ7" s="85"/>
+      <c r="AK7" s="85"/>
+      <c r="AL7" s="85"/>
+      <c r="AM7" s="85"/>
+      <c r="AN7" s="85"/>
+      <c r="AO7" s="85"/>
+      <c r="AP7" s="85"/>
+      <c r="AQ7" s="85"/>
+      <c r="AR7" s="85"/>
+      <c r="AS7" s="85"/>
+      <c r="AT7" s="85"/>
+      <c r="AU7" s="85"/>
+      <c r="AV7" s="85"/>
+      <c r="AW7" s="85"/>
+      <c r="AX7" s="85"/>
+      <c r="AY7" s="85"/>
+      <c r="AZ7" s="85"/>
+      <c r="BA7" s="85"/>
+      <c r="BB7" s="85"/>
+      <c r="BC7" s="85"/>
+      <c r="BD7" s="85"/>
+      <c r="BE7" s="85"/>
+      <c r="BF7" s="85"/>
+      <c r="BG7" s="85"/>
+      <c r="BH7" s="85"/>
+      <c r="BI7" s="85"/>
+      <c r="BJ7" s="85"/>
+      <c r="BK7" s="85"/>
+      <c r="BL7" s="85"/>
+      <c r="BM7" s="85"/>
+      <c r="BN7" s="85"/>
+      <c r="BO7" s="85"/>
+      <c r="BP7" s="85"/>
+      <c r="BQ7" s="86"/>
     </row>
     <row r="8" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="51" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="52"/>
-      <c r="AL8" s="52"/>
-      <c r="AM8" s="52"/>
-      <c r="AN8" s="52"/>
-      <c r="AO8" s="52"/>
-      <c r="AP8" s="52"/>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="52"/>
-      <c r="AT8" s="52"/>
-      <c r="AU8" s="52"/>
-      <c r="AV8" s="52"/>
-      <c r="AW8" s="52"/>
-      <c r="AX8" s="52"/>
-      <c r="AY8" s="52"/>
-      <c r="AZ8" s="52"/>
-      <c r="BA8" s="52"/>
-      <c r="BB8" s="52"/>
-      <c r="BC8" s="52"/>
-      <c r="BD8" s="52"/>
-      <c r="BE8" s="52"/>
-      <c r="BF8" s="52"/>
-      <c r="BG8" s="52"/>
-      <c r="BH8" s="52"/>
-      <c r="BI8" s="52"/>
-      <c r="BJ8" s="52"/>
-      <c r="BK8" s="52"/>
-      <c r="BL8" s="52"/>
-      <c r="BM8" s="52"/>
-      <c r="BN8" s="52"/>
-      <c r="BO8" s="52"/>
-      <c r="BP8" s="52"/>
-      <c r="BQ8" s="53"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="50"/>
+      <c r="AJ8" s="50"/>
+      <c r="AK8" s="50"/>
+      <c r="AL8" s="50"/>
+      <c r="AM8" s="50"/>
+      <c r="AN8" s="50"/>
+      <c r="AO8" s="50"/>
+      <c r="AP8" s="50"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
+      <c r="AT8" s="50"/>
+      <c r="AU8" s="50"/>
+      <c r="AV8" s="50"/>
+      <c r="AW8" s="50"/>
+      <c r="AX8" s="50"/>
+      <c r="AY8" s="50"/>
+      <c r="AZ8" s="50"/>
+      <c r="BA8" s="50"/>
+      <c r="BB8" s="50"/>
+      <c r="BC8" s="50"/>
+      <c r="BD8" s="50"/>
+      <c r="BE8" s="50"/>
+      <c r="BF8" s="50"/>
+      <c r="BG8" s="50"/>
+      <c r="BH8" s="50"/>
+      <c r="BI8" s="50"/>
+      <c r="BJ8" s="50"/>
+      <c r="BK8" s="50"/>
+      <c r="BL8" s="50"/>
+      <c r="BM8" s="50"/>
+      <c r="BN8" s="50"/>
+      <c r="BO8" s="50"/>
+      <c r="BP8" s="50"/>
+      <c r="BQ8" s="51"/>
     </row>
     <row r="9" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="55"/>
-      <c r="AO9" s="55"/>
-      <c r="AP9" s="55"/>
-      <c r="AQ9" s="55"/>
-      <c r="AR9" s="55"/>
-      <c r="AS9" s="55"/>
-      <c r="AT9" s="55"/>
-      <c r="AU9" s="55"/>
-      <c r="AV9" s="55"/>
-      <c r="AW9" s="55"/>
-      <c r="AX9" s="55"/>
-      <c r="AY9" s="55"/>
-      <c r="AZ9" s="55"/>
-      <c r="BA9" s="55"/>
-      <c r="BB9" s="55"/>
-      <c r="BC9" s="55"/>
-      <c r="BD9" s="55"/>
-      <c r="BE9" s="55"/>
-      <c r="BF9" s="55"/>
-      <c r="BG9" s="55"/>
-      <c r="BH9" s="55"/>
-      <c r="BI9" s="55"/>
-      <c r="BJ9" s="55"/>
-      <c r="BK9" s="55"/>
-      <c r="BL9" s="55"/>
-      <c r="BM9" s="55"/>
-      <c r="BN9" s="55"/>
-      <c r="BO9" s="55"/>
-      <c r="BP9" s="55"/>
-      <c r="BQ9" s="56"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="53"/>
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="53"/>
+      <c r="AS9" s="53"/>
+      <c r="AT9" s="53"/>
+      <c r="AU9" s="53"/>
+      <c r="AV9" s="53"/>
+      <c r="AW9" s="53"/>
+      <c r="AX9" s="53"/>
+      <c r="AY9" s="53"/>
+      <c r="AZ9" s="53"/>
+      <c r="BA9" s="53"/>
+      <c r="BB9" s="53"/>
+      <c r="BC9" s="53"/>
+      <c r="BD9" s="53"/>
+      <c r="BE9" s="53"/>
+      <c r="BF9" s="53"/>
+      <c r="BG9" s="53"/>
+      <c r="BH9" s="53"/>
+      <c r="BI9" s="53"/>
+      <c r="BJ9" s="53"/>
+      <c r="BK9" s="53"/>
+      <c r="BL9" s="53"/>
+      <c r="BM9" s="53"/>
+      <c r="BN9" s="53"/>
+      <c r="BO9" s="53"/>
+      <c r="BP9" s="53"/>
+      <c r="BQ9" s="54"/>
     </row>
     <row r="10" spans="2:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="60" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="88"/>
+      <c r="AQ10" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="87"/>
+      <c r="AZ10" s="87"/>
+      <c r="BA10" s="87"/>
+      <c r="BB10" s="87"/>
+      <c r="BC10" s="87"/>
+      <c r="BD10" s="87"/>
+      <c r="BE10" s="87"/>
+      <c r="BF10" s="87"/>
+      <c r="BG10" s="87"/>
+      <c r="BH10" s="87"/>
+      <c r="BI10" s="87"/>
+      <c r="BJ10" s="87"/>
+      <c r="BK10" s="87"/>
+      <c r="BL10" s="87"/>
+      <c r="BM10" s="87"/>
+      <c r="BN10" s="87"/>
+      <c r="BO10" s="87"/>
+      <c r="BP10" s="87"/>
+      <c r="BQ10" s="88"/>
+    </row>
+    <row r="11" spans="2:69" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="90"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="90"/>
+      <c r="AL11" s="90"/>
+      <c r="AM11" s="90"/>
+      <c r="AN11" s="90"/>
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="91"/>
+      <c r="AQ11" s="89"/>
+      <c r="AR11" s="90"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="90"/>
+      <c r="AV11" s="90"/>
+      <c r="AW11" s="90"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="90"/>
+      <c r="BA11" s="90"/>
+      <c r="BB11" s="90"/>
+      <c r="BC11" s="90"/>
+      <c r="BD11" s="90"/>
+      <c r="BE11" s="90"/>
+      <c r="BF11" s="90"/>
+      <c r="BG11" s="90"/>
+      <c r="BH11" s="90"/>
+      <c r="BI11" s="90"/>
+      <c r="BJ11" s="90"/>
+      <c r="BK11" s="90"/>
+      <c r="BL11" s="90"/>
+      <c r="BM11" s="90"/>
+      <c r="BN11" s="90"/>
+      <c r="BO11" s="90"/>
+      <c r="BP11" s="90"/>
+      <c r="BQ11" s="91"/>
+    </row>
+    <row r="12" spans="2:69" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="64"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="64"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="64"/>
+      <c r="AM12" s="64"/>
+      <c r="AN12" s="64"/>
+      <c r="AO12" s="64"/>
+      <c r="AP12" s="65"/>
+      <c r="AQ12" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR12" s="64"/>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="64"/>
+      <c r="AU12" s="64"/>
+      <c r="AV12" s="64"/>
+      <c r="AW12" s="64"/>
+      <c r="AX12" s="64"/>
+      <c r="AY12" s="64"/>
+      <c r="AZ12" s="64"/>
+      <c r="BA12" s="64"/>
+      <c r="BB12" s="64"/>
+      <c r="BC12" s="64"/>
+      <c r="BD12" s="64"/>
+      <c r="BE12" s="64"/>
+      <c r="BF12" s="64"/>
+      <c r="BG12" s="64"/>
+      <c r="BH12" s="64"/>
+      <c r="BI12" s="64"/>
+      <c r="BJ12" s="64"/>
+      <c r="BK12" s="64"/>
+      <c r="BL12" s="64"/>
+      <c r="BM12" s="64"/>
+      <c r="BN12" s="64"/>
+      <c r="BO12" s="64"/>
+      <c r="BP12" s="64"/>
+      <c r="BQ12" s="65"/>
+    </row>
+    <row r="13" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="67"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="67"/>
+      <c r="AH13" s="67"/>
+      <c r="AI13" s="67"/>
+      <c r="AJ13" s="67"/>
+      <c r="AK13" s="67"/>
+      <c r="AL13" s="67"/>
+      <c r="AM13" s="67"/>
+      <c r="AN13" s="67"/>
+      <c r="AO13" s="67"/>
+      <c r="AP13" s="68"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="67"/>
+      <c r="AS13" s="67"/>
+      <c r="AT13" s="67"/>
+      <c r="AU13" s="67"/>
+      <c r="AV13" s="67"/>
+      <c r="AW13" s="67"/>
+      <c r="AX13" s="67"/>
+      <c r="AY13" s="67"/>
+      <c r="AZ13" s="67"/>
+      <c r="BA13" s="67"/>
+      <c r="BB13" s="67"/>
+      <c r="BC13" s="67"/>
+      <c r="BD13" s="67"/>
+      <c r="BE13" s="67"/>
+      <c r="BF13" s="67"/>
+      <c r="BG13" s="67"/>
+      <c r="BH13" s="67"/>
+      <c r="BI13" s="67"/>
+      <c r="BJ13" s="67"/>
+      <c r="BK13" s="67"/>
+      <c r="BL13" s="67"/>
+      <c r="BM13" s="67"/>
+      <c r="BN13" s="67"/>
+      <c r="BO13" s="67"/>
+      <c r="BP13" s="67"/>
+      <c r="BQ13" s="68"/>
+    </row>
+    <row r="14" spans="2:69" ht="33" x14ac:dyDescent="0.45">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="56"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="56"/>
+      <c r="AR14" s="56"/>
+      <c r="AS14" s="56"/>
+      <c r="AT14" s="56"/>
+      <c r="AU14" s="56"/>
+      <c r="AV14" s="56"/>
+      <c r="AW14" s="56"/>
+      <c r="AX14" s="56"/>
+      <c r="AY14" s="56"/>
+      <c r="AZ14" s="56"/>
+      <c r="BA14" s="56"/>
+      <c r="BB14" s="56"/>
+      <c r="BC14" s="56"/>
+      <c r="BD14" s="56"/>
+      <c r="BE14" s="56"/>
+      <c r="BF14" s="56"/>
+      <c r="BG14" s="56"/>
+      <c r="BH14" s="56"/>
+      <c r="BI14" s="56"/>
+      <c r="BJ14" s="56"/>
+      <c r="BK14" s="56"/>
+      <c r="BL14" s="56"/>
+      <c r="BM14" s="56"/>
+      <c r="BN14" s="56"/>
+      <c r="BO14" s="56"/>
+      <c r="BP14" s="56"/>
+      <c r="BQ14" s="57"/>
+    </row>
+    <row r="15" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="48">
+        <v>1</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48">
+        <v>2</v>
+      </c>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48">
+        <v>3</v>
+      </c>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48">
+        <v>4</v>
+      </c>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48">
+        <v>6</v>
+      </c>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="48">
+        <v>7</v>
+      </c>
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="48">
+        <v>8</v>
+      </c>
+      <c r="AO15" s="48"/>
+      <c r="AP15" s="48"/>
+      <c r="AQ15" s="48"/>
+      <c r="AR15" s="48"/>
+      <c r="AS15" s="48">
         <v>9</v>
       </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="89"/>
-      <c r="AN10" s="89"/>
-      <c r="AO10" s="89"/>
-      <c r="AP10" s="90"/>
-      <c r="AQ10" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR10" s="89"/>
-      <c r="AS10" s="89"/>
-      <c r="AT10" s="89"/>
-      <c r="AU10" s="89"/>
-      <c r="AV10" s="89"/>
-      <c r="AW10" s="89"/>
-      <c r="AX10" s="89"/>
-      <c r="AY10" s="89"/>
-      <c r="AZ10" s="89"/>
-      <c r="BA10" s="89"/>
-      <c r="BB10" s="89"/>
-      <c r="BC10" s="89"/>
-      <c r="BD10" s="89"/>
-      <c r="BE10" s="89"/>
-      <c r="BF10" s="89"/>
-      <c r="BG10" s="89"/>
-      <c r="BH10" s="89"/>
-      <c r="BI10" s="89"/>
-      <c r="BJ10" s="89"/>
-      <c r="BK10" s="89"/>
-      <c r="BL10" s="89"/>
-      <c r="BM10" s="89"/>
-      <c r="BN10" s="89"/>
-      <c r="BO10" s="89"/>
-      <c r="BP10" s="89"/>
-      <c r="BQ10" s="90"/>
-    </row>
-    <row r="11" spans="2:69" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="91"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="92"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="93"/>
-      <c r="AQ11" s="91"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="92"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="92"/>
-      <c r="BD11" s="92"/>
-      <c r="BE11" s="92"/>
-      <c r="BF11" s="92"/>
-      <c r="BG11" s="92"/>
-      <c r="BH11" s="92"/>
-      <c r="BI11" s="92"/>
-      <c r="BJ11" s="92"/>
-      <c r="BK11" s="92"/>
-      <c r="BL11" s="92"/>
-      <c r="BM11" s="92"/>
-      <c r="BN11" s="92"/>
-      <c r="BO11" s="92"/>
-      <c r="BP11" s="92"/>
-      <c r="BQ11" s="93"/>
-    </row>
-    <row r="12" spans="2:69" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="60" t="s">
+      <c r="AT15" s="48"/>
+      <c r="AU15" s="48"/>
+      <c r="AV15" s="48"/>
+      <c r="AW15" s="48"/>
+      <c r="AX15" s="48">
         <v>10</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="66"/>
-      <c r="AM12" s="66"/>
-      <c r="AN12" s="66"/>
-      <c r="AO12" s="66"/>
-      <c r="AP12" s="67"/>
-      <c r="AQ12" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR12" s="66"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="66"/>
-      <c r="AV12" s="66"/>
-      <c r="AW12" s="66"/>
-      <c r="AX12" s="66"/>
-      <c r="AY12" s="66"/>
-      <c r="AZ12" s="66"/>
-      <c r="BA12" s="66"/>
-      <c r="BB12" s="66"/>
-      <c r="BC12" s="66"/>
-      <c r="BD12" s="66"/>
-      <c r="BE12" s="66"/>
-      <c r="BF12" s="66"/>
-      <c r="BG12" s="66"/>
-      <c r="BH12" s="66"/>
-      <c r="BI12" s="66"/>
-      <c r="BJ12" s="66"/>
-      <c r="BK12" s="66"/>
-      <c r="BL12" s="66"/>
-      <c r="BM12" s="66"/>
-      <c r="BN12" s="66"/>
-      <c r="BO12" s="66"/>
-      <c r="BP12" s="66"/>
-      <c r="BQ12" s="67"/>
-    </row>
-    <row r="13" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="69"/>
-      <c r="AM13" s="69"/>
-      <c r="AN13" s="69"/>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="70"/>
-      <c r="AQ13" s="68"/>
-      <c r="AR13" s="69"/>
-      <c r="AS13" s="69"/>
-      <c r="AT13" s="69"/>
-      <c r="AU13" s="69"/>
-      <c r="AV13" s="69"/>
-      <c r="AW13" s="69"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="69"/>
-      <c r="AZ13" s="69"/>
-      <c r="BA13" s="69"/>
-      <c r="BB13" s="69"/>
-      <c r="BC13" s="69"/>
-      <c r="BD13" s="69"/>
-      <c r="BE13" s="69"/>
-      <c r="BF13" s="69"/>
-      <c r="BG13" s="69"/>
-      <c r="BH13" s="69"/>
-      <c r="BI13" s="69"/>
-      <c r="BJ13" s="69"/>
-      <c r="BK13" s="69"/>
-      <c r="BL13" s="69"/>
-      <c r="BM13" s="69"/>
-      <c r="BN13" s="69"/>
-      <c r="BO13" s="69"/>
-      <c r="BP13" s="69"/>
-      <c r="BQ13" s="70"/>
-    </row>
-    <row r="14" spans="2:69" ht="33" x14ac:dyDescent="0.45">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="58"/>
-      <c r="AM14" s="58"/>
-      <c r="AN14" s="58"/>
-      <c r="AO14" s="58"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="58"/>
-      <c r="AS14" s="58"/>
-      <c r="AT14" s="58"/>
-      <c r="AU14" s="58"/>
-      <c r="AV14" s="58"/>
-      <c r="AW14" s="58"/>
-      <c r="AX14" s="58"/>
-      <c r="AY14" s="58"/>
-      <c r="AZ14" s="58"/>
-      <c r="BA14" s="58"/>
-      <c r="BB14" s="58"/>
-      <c r="BC14" s="58"/>
-      <c r="BD14" s="58"/>
-      <c r="BE14" s="58"/>
-      <c r="BF14" s="58"/>
-      <c r="BG14" s="58"/>
-      <c r="BH14" s="58"/>
-      <c r="BI14" s="58"/>
-      <c r="BJ14" s="58"/>
-      <c r="BK14" s="58"/>
-      <c r="BL14" s="58"/>
-      <c r="BM14" s="58"/>
-      <c r="BN14" s="58"/>
-      <c r="BO14" s="58"/>
-      <c r="BP14" s="58"/>
-      <c r="BQ14" s="59"/>
-    </row>
-    <row r="15" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="50">
-        <v>1</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50">
-        <v>2</v>
-      </c>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50">
-        <v>3</v>
-      </c>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50">
-        <v>4</v>
-      </c>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50">
-        <v>6</v>
-      </c>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="50"/>
-      <c r="AI15" s="50">
-        <v>7</v>
-      </c>
-      <c r="AJ15" s="50"/>
-      <c r="AK15" s="50"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="50"/>
-      <c r="AN15" s="50">
-        <v>8</v>
-      </c>
-      <c r="AO15" s="50"/>
-      <c r="AP15" s="50"/>
-      <c r="AQ15" s="50"/>
-      <c r="AR15" s="50"/>
-      <c r="AS15" s="50">
-        <v>9</v>
-      </c>
-      <c r="AT15" s="50"/>
-      <c r="AU15" s="50"/>
-      <c r="AV15" s="50"/>
-      <c r="AW15" s="50"/>
-      <c r="AX15" s="50">
-        <v>10</v>
-      </c>
-      <c r="AY15" s="50"/>
-      <c r="AZ15" s="50"/>
-      <c r="BA15" s="50"/>
-      <c r="BB15" s="50"/>
-      <c r="BC15" s="50">
+      <c r="AY15" s="48"/>
+      <c r="AZ15" s="48"/>
+      <c r="BA15" s="48"/>
+      <c r="BB15" s="48"/>
+      <c r="BC15" s="48">
         <v>11</v>
       </c>
-      <c r="BD15" s="50"/>
-      <c r="BE15" s="50"/>
-      <c r="BF15" s="50"/>
-      <c r="BG15" s="50"/>
-      <c r="BH15" s="50">
+      <c r="BD15" s="48"/>
+      <c r="BE15" s="48"/>
+      <c r="BF15" s="48"/>
+      <c r="BG15" s="48"/>
+      <c r="BH15" s="48">
         <v>12</v>
       </c>
-      <c r="BI15" s="50"/>
-      <c r="BJ15" s="50"/>
-      <c r="BK15" s="50"/>
-      <c r="BL15" s="50"/>
-      <c r="BM15" s="50">
+      <c r="BI15" s="48"/>
+      <c r="BJ15" s="48"/>
+      <c r="BK15" s="48"/>
+      <c r="BL15" s="48"/>
+      <c r="BM15" s="48">
         <v>13</v>
       </c>
-      <c r="BN15" s="50"/>
-      <c r="BO15" s="50"/>
-      <c r="BP15" s="50"/>
-      <c r="BQ15" s="50"/>
+      <c r="BN15" s="48"/>
+      <c r="BO15" s="48"/>
+      <c r="BP15" s="48"/>
+      <c r="BQ15" s="48"/>
     </row>
     <row r="16" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="2" t="s">
         <v>0</v>
       </c>
@@ -2730,289 +2798,457 @@
       </c>
     </row>
     <row r="17" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
-      <c r="BC17" s="3"/>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BF17" s="3"/>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="3"/>
-      <c r="BI17" s="3"/>
-      <c r="BJ17" s="3"/>
-      <c r="BK17" s="3"/>
-      <c r="BL17" s="3"/>
-      <c r="BM17" s="3"/>
-      <c r="BN17" s="3"/>
-      <c r="BO17" s="3"/>
-      <c r="BP17" s="3"/>
-      <c r="BQ17" s="3"/>
+      <c r="B17" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="V17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="W17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="X17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN17" s="92"/>
+      <c r="AO17" s="92"/>
+      <c r="AP17" s="92"/>
+      <c r="AQ17" s="92"/>
+      <c r="AR17" s="92"/>
+      <c r="AS17" s="92"/>
+      <c r="AT17" s="92"/>
+      <c r="AU17" s="92"/>
+      <c r="AV17" s="92"/>
+      <c r="AW17" s="92"/>
+      <c r="AX17" s="92"/>
+      <c r="AY17" s="92"/>
+      <c r="AZ17" s="92"/>
+      <c r="BA17" s="92"/>
+      <c r="BB17" s="92"/>
+      <c r="BC17" s="92"/>
+      <c r="BD17" s="92"/>
+      <c r="BE17" s="92"/>
+      <c r="BF17" s="92"/>
+      <c r="BG17" s="92"/>
+      <c r="BH17" s="92"/>
+      <c r="BI17" s="92"/>
+      <c r="BJ17" s="92"/>
+      <c r="BK17" s="92"/>
+      <c r="BL17" s="92"/>
+      <c r="BM17" s="92"/>
+      <c r="BN17" s="92"/>
+      <c r="BO17" s="92"/>
+      <c r="BP17" s="92"/>
+      <c r="BQ17" s="92"/>
     </row>
     <row r="18" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="3"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BI18" s="3"/>
-      <c r="BJ18" s="3"/>
-      <c r="BK18" s="3"/>
-      <c r="BL18" s="3"/>
-      <c r="BM18" s="3"/>
-      <c r="BN18" s="3"/>
-      <c r="BO18" s="3"/>
-      <c r="BP18" s="3"/>
-      <c r="BQ18" s="3"/>
+      <c r="B18" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="92"/>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="92"/>
+      <c r="AL18" s="92"/>
+      <c r="AM18" s="92"/>
+      <c r="AN18" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO18" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP18" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ18" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR18" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS18" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT18" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU18" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV18" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW18" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX18" s="92"/>
+      <c r="AY18" s="92"/>
+      <c r="AZ18" s="92"/>
+      <c r="BA18" s="92"/>
+      <c r="BB18" s="92"/>
+      <c r="BC18" s="92"/>
+      <c r="BD18" s="92"/>
+      <c r="BE18" s="92"/>
+      <c r="BF18" s="92"/>
+      <c r="BG18" s="92"/>
+      <c r="BH18" s="92"/>
+      <c r="BI18" s="92"/>
+      <c r="BJ18" s="92"/>
+      <c r="BK18" s="92"/>
+      <c r="BL18" s="92"/>
+      <c r="BM18" s="92"/>
+      <c r="BN18" s="92"/>
+      <c r="BO18" s="92"/>
+      <c r="BP18" s="92"/>
+      <c r="BQ18" s="92"/>
     </row>
     <row r="19" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="3"/>
-      <c r="BD19" s="3"/>
-      <c r="BE19" s="3"/>
-      <c r="BF19" s="3"/>
-      <c r="BG19" s="3"/>
-      <c r="BH19" s="3"/>
-      <c r="BI19" s="3"/>
-      <c r="BJ19" s="3"/>
-      <c r="BK19" s="3"/>
-      <c r="BL19" s="3"/>
-      <c r="BM19" s="3"/>
-      <c r="BN19" s="3"/>
-      <c r="BO19" s="3"/>
-      <c r="BP19" s="3"/>
-      <c r="BQ19" s="3"/>
+      <c r="B19" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="92"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="92"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="92"/>
+      <c r="AE19" s="92"/>
+      <c r="AF19" s="92"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="92"/>
+      <c r="AL19" s="92"/>
+      <c r="AM19" s="92"/>
+      <c r="AN19" s="92"/>
+      <c r="AO19" s="92"/>
+      <c r="AP19" s="92"/>
+      <c r="AQ19" s="92"/>
+      <c r="AR19" s="93"/>
+      <c r="AS19" s="93"/>
+      <c r="AT19" s="93"/>
+      <c r="AU19" s="92"/>
+      <c r="AV19" s="92"/>
+      <c r="AW19" s="92"/>
+      <c r="AX19" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY19" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ19" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA19" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB19" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC19" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD19" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE19" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF19" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG19" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH19" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI19" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ19" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK19" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL19" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BM19" s="92"/>
+      <c r="BN19" s="92"/>
+      <c r="BO19" s="92"/>
+      <c r="BP19" s="92"/>
+      <c r="BQ19" s="92"/>
     </row>
     <row r="20" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
-      <c r="BB20" s="3"/>
-      <c r="BC20" s="3"/>
-      <c r="BD20" s="3"/>
-      <c r="BE20" s="3"/>
-      <c r="BF20" s="3"/>
-      <c r="BG20" s="3"/>
-      <c r="BH20" s="3"/>
-      <c r="BI20" s="3"/>
-      <c r="BJ20" s="3"/>
-      <c r="BK20" s="3"/>
-      <c r="BL20" s="3"/>
-      <c r="BM20" s="3"/>
-      <c r="BN20" s="3"/>
-      <c r="BO20" s="3"/>
-      <c r="BP20" s="3"/>
-      <c r="BQ20" s="3"/>
+      <c r="B20" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="92"/>
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="92"/>
+      <c r="AD20" s="92"/>
+      <c r="AE20" s="92"/>
+      <c r="AF20" s="92"/>
+      <c r="AG20" s="92"/>
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="92"/>
+      <c r="AJ20" s="92"/>
+      <c r="AK20" s="92"/>
+      <c r="AL20" s="92"/>
+      <c r="AM20" s="92"/>
+      <c r="AN20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BM20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP20" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BQ20" s="92" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -3080,9 +3316,9 @@
       <c r="BQ21" s="3"/>
     </row>
     <row r="22" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3150,9 +3386,9 @@
       <c r="BQ22" s="3"/>
     </row>
     <row r="23" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -3220,9 +3456,9 @@
       <c r="BQ23" s="3"/>
     </row>
     <row r="24" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -3290,9 +3526,9 @@
       <c r="BQ24" s="3"/>
     </row>
     <row r="25" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -3360,9 +3596,9 @@
       <c r="BQ25" s="3"/>
     </row>
     <row r="26" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -3430,9 +3666,9 @@
       <c r="BQ26" s="3"/>
     </row>
     <row r="27" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -3500,9 +3736,9 @@
       <c r="BQ27" s="3"/>
     </row>
     <row r="28" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -3570,9 +3806,9 @@
       <c r="BQ28" s="3"/>
     </row>
     <row r="29" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -3640,9 +3876,9 @@
       <c r="BQ29" s="3"/>
     </row>
     <row r="30" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -3710,9 +3946,9 @@
       <c r="BQ30" s="3"/>
     </row>
     <row r="31" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -3780,9 +4016,9 @@
       <c r="BQ31" s="3"/>
     </row>
     <row r="32" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -3850,9 +4086,9 @@
       <c r="BQ32" s="3"/>
     </row>
     <row r="33" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -3920,9 +4156,9 @@
       <c r="BQ33" s="3"/>
     </row>
     <row r="34" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="76"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -3990,9 +4226,9 @@
       <c r="BQ34" s="3"/>
     </row>
     <row r="35" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -4060,9 +4296,9 @@
       <c r="BQ35" s="3"/>
     </row>
     <row r="36" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -4130,9 +4366,9 @@
       <c r="BQ36" s="3"/>
     </row>
     <row r="37" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -4200,9 +4436,9 @@
       <c r="BQ37" s="3"/>
     </row>
     <row r="38" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -4270,9 +4506,9 @@
       <c r="BQ38" s="3"/>
     </row>
     <row r="39" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -4340,9 +4576,9 @@
       <c r="BQ39" s="3"/>
     </row>
     <row r="40" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -4410,9 +4646,9 @@
       <c r="BQ40" s="3"/>
     </row>
     <row r="41" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B41" s="77"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="79"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4480,9 +4716,9 @@
       <c r="BQ41" s="3"/>
     </row>
     <row r="42" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="74"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="76"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="74"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -4550,9 +4786,9 @@
       <c r="BQ42" s="3"/>
     </row>
     <row r="43" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="74"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="76"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="74"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -4620,9 +4856,9 @@
       <c r="BQ43" s="3"/>
     </row>
     <row r="44" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -4690,9 +4926,9 @@
       <c r="BQ44" s="3"/>
     </row>
     <row r="45" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -4760,9 +4996,9 @@
       <c r="BQ45" s="3"/>
     </row>
     <row r="46" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B46" s="77"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="79"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="77"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -5174,1502 +5410,1515 @@
       <c r="BQ51" s="3"/>
     </row>
     <row r="52" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="D52" s="9"/>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S53" s="9"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF53" s="31"/>
+      <c r="AG53" s="31"/>
+      <c r="AH53" s="31"/>
+      <c r="AI53" s="31"/>
+      <c r="AJ53" s="31"/>
+      <c r="AK53" s="31"/>
+      <c r="AL53" s="31"/>
+      <c r="AM53" s="31"/>
+      <c r="AN53" s="31"/>
+      <c r="AO53" s="31"/>
+      <c r="AP53" s="31"/>
+      <c r="AQ53" s="31"/>
+      <c r="AR53" s="31"/>
+      <c r="AS53" s="31"/>
+      <c r="AT53" s="31"/>
+      <c r="AU53" s="31"/>
+      <c r="AV53" s="31"/>
+      <c r="AW53" s="31"/>
+      <c r="AX53" s="31"/>
+      <c r="AY53" s="31"/>
+      <c r="AZ53" s="31"/>
+      <c r="BA53" s="31"/>
+      <c r="BB53" s="31"/>
+      <c r="BC53" s="31"/>
+      <c r="BD53" s="31"/>
+      <c r="BE53" s="31"/>
+      <c r="BF53" s="31"/>
+      <c r="BG53" s="31"/>
+      <c r="BH53" s="31"/>
+      <c r="BI53" s="31"/>
+      <c r="BJ53" s="31"/>
+      <c r="BK53" s="31"/>
+      <c r="BL53" s="31"/>
+      <c r="BM53" s="31"/>
+      <c r="BN53" s="31"/>
+      <c r="BO53" s="31"/>
+      <c r="BP53" s="31"/>
+      <c r="BQ53" s="31"/>
+    </row>
+    <row r="54" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="D54" s="7"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="31"/>
+      <c r="AF54" s="31"/>
+      <c r="AG54" s="31"/>
+      <c r="AH54" s="31"/>
+      <c r="AI54" s="31"/>
+      <c r="AJ54" s="31"/>
+      <c r="AK54" s="31"/>
+      <c r="AL54" s="31"/>
+      <c r="AM54" s="31"/>
+      <c r="AN54" s="31"/>
+      <c r="AO54" s="31"/>
+      <c r="AP54" s="31"/>
+      <c r="AQ54" s="31"/>
+      <c r="AR54" s="31"/>
+      <c r="AS54" s="31"/>
+      <c r="AT54" s="31"/>
+      <c r="AU54" s="31"/>
+      <c r="AV54" s="31"/>
+      <c r="AW54" s="31"/>
+      <c r="AX54" s="31"/>
+      <c r="AY54" s="31"/>
+      <c r="AZ54" s="31"/>
+      <c r="BA54" s="31"/>
+      <c r="BB54" s="31"/>
+      <c r="BC54" s="31"/>
+      <c r="BD54" s="31"/>
+      <c r="BE54" s="31"/>
+      <c r="BF54" s="31"/>
+      <c r="BG54" s="31"/>
+      <c r="BH54" s="31"/>
+      <c r="BI54" s="31"/>
+      <c r="BJ54" s="31"/>
+      <c r="BK54" s="31"/>
+      <c r="BL54" s="31"/>
+      <c r="BM54" s="31"/>
+      <c r="BN54" s="31"/>
+      <c r="BO54" s="31"/>
+      <c r="BP54" s="31"/>
+      <c r="BQ54" s="31"/>
+    </row>
+    <row r="55" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="S53" s="11"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="12"/>
-      <c r="Z53" s="12"/>
-      <c r="AA53" s="12"/>
-      <c r="AB53" s="12"/>
-      <c r="AC53" s="12"/>
-      <c r="AD53" s="12"/>
-      <c r="AE53" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF53" s="33"/>
-      <c r="AG53" s="33"/>
-      <c r="AH53" s="33"/>
-      <c r="AI53" s="33"/>
-      <c r="AJ53" s="33"/>
-      <c r="AK53" s="33"/>
-      <c r="AL53" s="33"/>
-      <c r="AM53" s="33"/>
-      <c r="AN53" s="33"/>
-      <c r="AO53" s="33"/>
-      <c r="AP53" s="33"/>
-      <c r="AQ53" s="33"/>
-      <c r="AR53" s="33"/>
-      <c r="AS53" s="33"/>
-      <c r="AT53" s="33"/>
-      <c r="AU53" s="33"/>
-      <c r="AV53" s="33"/>
-      <c r="AW53" s="33"/>
-      <c r="AX53" s="33"/>
-      <c r="AY53" s="33"/>
-      <c r="AZ53" s="33"/>
-      <c r="BA53" s="33"/>
-      <c r="BB53" s="33"/>
-      <c r="BC53" s="33"/>
-      <c r="BD53" s="33"/>
-      <c r="BE53" s="33"/>
-      <c r="BF53" s="33"/>
-      <c r="BG53" s="33"/>
-      <c r="BH53" s="33"/>
-      <c r="BI53" s="33"/>
-      <c r="BJ53" s="33"/>
-      <c r="BK53" s="33"/>
-      <c r="BL53" s="33"/>
-      <c r="BM53" s="33"/>
-      <c r="BN53" s="33"/>
-      <c r="BO53" s="33"/>
-      <c r="BP53" s="33"/>
-      <c r="BQ53" s="33"/>
-    </row>
-    <row r="54" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="D54" s="9"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
-      <c r="Z54" s="12"/>
-      <c r="AA54" s="12"/>
-      <c r="AB54" s="12"/>
-      <c r="AC54" s="12"/>
-      <c r="AD54" s="12"/>
-      <c r="AE54" s="33"/>
-      <c r="AF54" s="33"/>
-      <c r="AG54" s="33"/>
-      <c r="AH54" s="33"/>
-      <c r="AI54" s="33"/>
-      <c r="AJ54" s="33"/>
-      <c r="AK54" s="33"/>
-      <c r="AL54" s="33"/>
-      <c r="AM54" s="33"/>
-      <c r="AN54" s="33"/>
-      <c r="AO54" s="33"/>
-      <c r="AP54" s="33"/>
-      <c r="AQ54" s="33"/>
-      <c r="AR54" s="33"/>
-      <c r="AS54" s="33"/>
-      <c r="AT54" s="33"/>
-      <c r="AU54" s="33"/>
-      <c r="AV54" s="33"/>
-      <c r="AW54" s="33"/>
-      <c r="AX54" s="33"/>
-      <c r="AY54" s="33"/>
-      <c r="AZ54" s="33"/>
-      <c r="BA54" s="33"/>
-      <c r="BB54" s="33"/>
-      <c r="BC54" s="33"/>
-      <c r="BD54" s="33"/>
-      <c r="BE54" s="33"/>
-      <c r="BF54" s="33"/>
-      <c r="BG54" s="33"/>
-      <c r="BH54" s="33"/>
-      <c r="BI54" s="33"/>
-      <c r="BJ54" s="33"/>
-      <c r="BK54" s="33"/>
-      <c r="BL54" s="33"/>
-      <c r="BM54" s="33"/>
-      <c r="BN54" s="33"/>
-      <c r="BO54" s="33"/>
-      <c r="BP54" s="33"/>
-      <c r="BQ54" s="33"/>
-    </row>
-    <row r="55" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="24" t="s">
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23"/>
+      <c r="W55" s="23"/>
+      <c r="X55" s="23"/>
+      <c r="Y55" s="23"/>
+      <c r="Z55" s="23"/>
+      <c r="AA55" s="23"/>
+      <c r="AB55" s="24"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF55" s="33"/>
+      <c r="AG55" s="33"/>
+      <c r="AH55" s="33"/>
+      <c r="AI55" s="33"/>
+      <c r="AJ55" s="33"/>
+      <c r="AK55" s="33"/>
+      <c r="AL55" s="33"/>
+      <c r="AM55" s="33"/>
+      <c r="AN55" s="33"/>
+      <c r="AO55" s="33"/>
+      <c r="AP55" s="33"/>
+      <c r="AQ55" s="33"/>
+      <c r="AR55" s="33"/>
+      <c r="AS55" s="33"/>
+      <c r="AT55" s="33"/>
+      <c r="AU55" s="33"/>
+      <c r="AV55" s="33"/>
+      <c r="AW55" s="33"/>
+      <c r="AX55" s="33"/>
+      <c r="AY55" s="33"/>
+      <c r="AZ55" s="33"/>
+      <c r="BA55" s="33"/>
+      <c r="BB55" s="33"/>
+      <c r="BC55" s="33"/>
+      <c r="BD55" s="33"/>
+      <c r="BE55" s="33"/>
+      <c r="BF55" s="33"/>
+      <c r="BG55" s="33"/>
+      <c r="BH55" s="33"/>
+      <c r="BI55" s="33"/>
+      <c r="BJ55" s="33"/>
+      <c r="BK55" s="33"/>
+      <c r="BL55" s="33"/>
+      <c r="BM55" s="33"/>
+      <c r="BN55" s="33"/>
+      <c r="BO55" s="33"/>
+      <c r="BP55" s="33"/>
+      <c r="BQ55" s="34"/>
+    </row>
+    <row r="56" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="26"/>
+      <c r="V56" s="26"/>
+      <c r="W56" s="26"/>
+      <c r="X56" s="26"/>
+      <c r="Y56" s="26"/>
+      <c r="Z56" s="26"/>
+      <c r="AA56" s="26"/>
+      <c r="AB56" s="27"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="35"/>
+      <c r="AF56" s="36"/>
+      <c r="AG56" s="36"/>
+      <c r="AH56" s="36"/>
+      <c r="AI56" s="36"/>
+      <c r="AJ56" s="36"/>
+      <c r="AK56" s="36"/>
+      <c r="AL56" s="36"/>
+      <c r="AM56" s="36"/>
+      <c r="AN56" s="36"/>
+      <c r="AO56" s="36"/>
+      <c r="AP56" s="36"/>
+      <c r="AQ56" s="36"/>
+      <c r="AR56" s="36"/>
+      <c r="AS56" s="36"/>
+      <c r="AT56" s="36"/>
+      <c r="AU56" s="36"/>
+      <c r="AV56" s="36"/>
+      <c r="AW56" s="36"/>
+      <c r="AX56" s="36"/>
+      <c r="AY56" s="36"/>
+      <c r="AZ56" s="36"/>
+      <c r="BA56" s="36"/>
+      <c r="BB56" s="36"/>
+      <c r="BC56" s="36"/>
+      <c r="BD56" s="36"/>
+      <c r="BE56" s="36"/>
+      <c r="BF56" s="36"/>
+      <c r="BG56" s="36"/>
+      <c r="BH56" s="36"/>
+      <c r="BI56" s="36"/>
+      <c r="BJ56" s="36"/>
+      <c r="BK56" s="36"/>
+      <c r="BL56" s="36"/>
+      <c r="BM56" s="36"/>
+      <c r="BN56" s="36"/>
+      <c r="BO56" s="36"/>
+      <c r="BP56" s="36"/>
+      <c r="BQ56" s="37"/>
+    </row>
+    <row r="57" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="26"/>
+      <c r="V57" s="26"/>
+      <c r="W57" s="26"/>
+      <c r="X57" s="26"/>
+      <c r="Y57" s="26"/>
+      <c r="Z57" s="26"/>
+      <c r="AA57" s="26"/>
+      <c r="AB57" s="27"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF57" s="12"/>
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="12"/>
+      <c r="AI57" s="12"/>
+      <c r="AJ57" s="12"/>
+      <c r="AK57" s="12"/>
+      <c r="AL57" s="12"/>
+      <c r="AM57" s="12"/>
+      <c r="AN57" s="12"/>
+      <c r="AO57" s="12"/>
+      <c r="AP57" s="12"/>
+      <c r="AQ57" s="12"/>
+      <c r="AR57" s="12"/>
+      <c r="AS57" s="12"/>
+      <c r="AT57" s="12"/>
+      <c r="AU57" s="12"/>
+      <c r="AV57" s="12"/>
+      <c r="AW57" s="12"/>
+      <c r="AX57" s="12"/>
+      <c r="AY57" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ57" s="12"/>
+      <c r="BA57" s="12"/>
+      <c r="BB57" s="12"/>
+      <c r="BC57" s="12"/>
+      <c r="BD57" s="12"/>
+      <c r="BE57" s="12"/>
+      <c r="BF57" s="12"/>
+      <c r="BG57" s="12"/>
+      <c r="BH57" s="12"/>
+      <c r="BI57" s="12"/>
+      <c r="BJ57" s="12"/>
+      <c r="BK57" s="12"/>
+      <c r="BL57" s="12"/>
+      <c r="BM57" s="12"/>
+      <c r="BN57" s="12"/>
+      <c r="BO57" s="12"/>
+      <c r="BP57" s="12"/>
+      <c r="BQ57" s="12"/>
+    </row>
+    <row r="58" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="26"/>
+      <c r="V58" s="26"/>
+      <c r="W58" s="26"/>
+      <c r="X58" s="26"/>
+      <c r="Y58" s="26"/>
+      <c r="Z58" s="26"/>
+      <c r="AA58" s="26"/>
+      <c r="AB58" s="27"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="12"/>
+      <c r="AF58" s="12"/>
+      <c r="AG58" s="12"/>
+      <c r="AH58" s="12"/>
+      <c r="AI58" s="12"/>
+      <c r="AJ58" s="12"/>
+      <c r="AK58" s="12"/>
+      <c r="AL58" s="12"/>
+      <c r="AM58" s="12"/>
+      <c r="AN58" s="12"/>
+      <c r="AO58" s="12"/>
+      <c r="AP58" s="12"/>
+      <c r="AQ58" s="12"/>
+      <c r="AR58" s="12"/>
+      <c r="AS58" s="12"/>
+      <c r="AT58" s="12"/>
+      <c r="AU58" s="12"/>
+      <c r="AV58" s="12"/>
+      <c r="AW58" s="12"/>
+      <c r="AX58" s="12"/>
+      <c r="AY58" s="12"/>
+      <c r="AZ58" s="12"/>
+      <c r="BA58" s="12"/>
+      <c r="BB58" s="12"/>
+      <c r="BC58" s="12"/>
+      <c r="BD58" s="12"/>
+      <c r="BE58" s="12"/>
+      <c r="BF58" s="12"/>
+      <c r="BG58" s="12"/>
+      <c r="BH58" s="12"/>
+      <c r="BI58" s="12"/>
+      <c r="BJ58" s="12"/>
+      <c r="BK58" s="12"/>
+      <c r="BL58" s="12"/>
+      <c r="BM58" s="12"/>
+      <c r="BN58" s="12"/>
+      <c r="BO58" s="12"/>
+      <c r="BP58" s="12"/>
+      <c r="BQ58" s="12"/>
+    </row>
+    <row r="59" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="26"/>
+      <c r="S59" s="26"/>
+      <c r="T59" s="26"/>
+      <c r="U59" s="26"/>
+      <c r="V59" s="26"/>
+      <c r="W59" s="26"/>
+      <c r="X59" s="26"/>
+      <c r="Y59" s="26"/>
+      <c r="Z59" s="26"/>
+      <c r="AA59" s="26"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="12"/>
+      <c r="AF59" s="12"/>
+      <c r="AG59" s="12"/>
+      <c r="AH59" s="12"/>
+      <c r="AI59" s="12"/>
+      <c r="AJ59" s="12"/>
+      <c r="AK59" s="12"/>
+      <c r="AL59" s="12"/>
+      <c r="AM59" s="12"/>
+      <c r="AN59" s="12"/>
+      <c r="AO59" s="12"/>
+      <c r="AP59" s="12"/>
+      <c r="AQ59" s="12"/>
+      <c r="AR59" s="12"/>
+      <c r="AS59" s="12"/>
+      <c r="AT59" s="12"/>
+      <c r="AU59" s="12"/>
+      <c r="AV59" s="12"/>
+      <c r="AW59" s="12"/>
+      <c r="AX59" s="12"/>
+      <c r="AY59" s="12"/>
+      <c r="AZ59" s="12"/>
+      <c r="BA59" s="12"/>
+      <c r="BB59" s="12"/>
+      <c r="BC59" s="12"/>
+      <c r="BD59" s="12"/>
+      <c r="BE59" s="12"/>
+      <c r="BF59" s="12"/>
+      <c r="BG59" s="12"/>
+      <c r="BH59" s="12"/>
+      <c r="BI59" s="12"/>
+      <c r="BJ59" s="12"/>
+      <c r="BK59" s="12"/>
+      <c r="BL59" s="12"/>
+      <c r="BM59" s="12"/>
+      <c r="BN59" s="12"/>
+      <c r="BO59" s="12"/>
+      <c r="BP59" s="12"/>
+      <c r="BQ59" s="12"/>
+    </row>
+    <row r="60" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="26"/>
+      <c r="T60" s="26"/>
+      <c r="U60" s="26"/>
+      <c r="V60" s="26"/>
+      <c r="W60" s="26"/>
+      <c r="X60" s="26"/>
+      <c r="Y60" s="26"/>
+      <c r="Z60" s="26"/>
+      <c r="AA60" s="26"/>
+      <c r="AB60" s="27"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="12"/>
+      <c r="AF60" s="12"/>
+      <c r="AG60" s="12"/>
+      <c r="AH60" s="12"/>
+      <c r="AI60" s="12"/>
+      <c r="AJ60" s="12"/>
+      <c r="AK60" s="12"/>
+      <c r="AL60" s="12"/>
+      <c r="AM60" s="12"/>
+      <c r="AN60" s="12"/>
+      <c r="AO60" s="12"/>
+      <c r="AP60" s="12"/>
+      <c r="AQ60" s="12"/>
+      <c r="AR60" s="12"/>
+      <c r="AS60" s="12"/>
+      <c r="AT60" s="12"/>
+      <c r="AU60" s="12"/>
+      <c r="AV60" s="12"/>
+      <c r="AW60" s="12"/>
+      <c r="AX60" s="12"/>
+      <c r="AY60" s="12"/>
+      <c r="AZ60" s="12"/>
+      <c r="BA60" s="12"/>
+      <c r="BB60" s="12"/>
+      <c r="BC60" s="12"/>
+      <c r="BD60" s="12"/>
+      <c r="BE60" s="12"/>
+      <c r="BF60" s="12"/>
+      <c r="BG60" s="12"/>
+      <c r="BH60" s="12"/>
+      <c r="BI60" s="12"/>
+      <c r="BJ60" s="12"/>
+      <c r="BK60" s="12"/>
+      <c r="BL60" s="12"/>
+      <c r="BM60" s="12"/>
+      <c r="BN60" s="12"/>
+      <c r="BO60" s="12"/>
+      <c r="BP60" s="12"/>
+      <c r="BQ60" s="12"/>
+    </row>
+    <row r="61" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="26"/>
+      <c r="T61" s="26"/>
+      <c r="U61" s="26"/>
+      <c r="V61" s="26"/>
+      <c r="W61" s="26"/>
+      <c r="X61" s="26"/>
+      <c r="Y61" s="26"/>
+      <c r="Z61" s="26"/>
+      <c r="AA61" s="26"/>
+      <c r="AB61" s="27"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="12"/>
+      <c r="AF61" s="12"/>
+      <c r="AG61" s="12"/>
+      <c r="AH61" s="12"/>
+      <c r="AI61" s="12"/>
+      <c r="AJ61" s="12"/>
+      <c r="AK61" s="12"/>
+      <c r="AL61" s="12"/>
+      <c r="AM61" s="12"/>
+      <c r="AN61" s="12"/>
+      <c r="AO61" s="12"/>
+      <c r="AP61" s="12"/>
+      <c r="AQ61" s="12"/>
+      <c r="AR61" s="12"/>
+      <c r="AS61" s="12"/>
+      <c r="AT61" s="12"/>
+      <c r="AU61" s="12"/>
+      <c r="AV61" s="12"/>
+      <c r="AW61" s="12"/>
+      <c r="AX61" s="12"/>
+      <c r="AY61" s="12"/>
+      <c r="AZ61" s="12"/>
+      <c r="BA61" s="12"/>
+      <c r="BB61" s="12"/>
+      <c r="BC61" s="12"/>
+      <c r="BD61" s="12"/>
+      <c r="BE61" s="12"/>
+      <c r="BF61" s="12"/>
+      <c r="BG61" s="12"/>
+      <c r="BH61" s="12"/>
+      <c r="BI61" s="12"/>
+      <c r="BJ61" s="12"/>
+      <c r="BK61" s="12"/>
+      <c r="BL61" s="12"/>
+      <c r="BM61" s="12"/>
+      <c r="BN61" s="12"/>
+      <c r="BO61" s="12"/>
+      <c r="BP61" s="12"/>
+      <c r="BQ61" s="12"/>
+    </row>
+    <row r="62" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B62" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="25"/>
-      <c r="T55" s="25"/>
-      <c r="U55" s="25"/>
-      <c r="V55" s="25"/>
-      <c r="W55" s="25"/>
-      <c r="X55" s="25"/>
-      <c r="Y55" s="25"/>
-      <c r="Z55" s="25"/>
-      <c r="AA55" s="25"/>
-      <c r="AB55" s="26"/>
-      <c r="AC55" s="13"/>
-      <c r="AD55" s="13"/>
-      <c r="AE55" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF55" s="35"/>
-      <c r="AG55" s="35"/>
-      <c r="AH55" s="35"/>
-      <c r="AI55" s="35"/>
-      <c r="AJ55" s="35"/>
-      <c r="AK55" s="35"/>
-      <c r="AL55" s="35"/>
-      <c r="AM55" s="35"/>
-      <c r="AN55" s="35"/>
-      <c r="AO55" s="35"/>
-      <c r="AP55" s="35"/>
-      <c r="AQ55" s="35"/>
-      <c r="AR55" s="35"/>
-      <c r="AS55" s="35"/>
-      <c r="AT55" s="35"/>
-      <c r="AU55" s="35"/>
-      <c r="AV55" s="35"/>
-      <c r="AW55" s="35"/>
-      <c r="AX55" s="35"/>
-      <c r="AY55" s="35"/>
-      <c r="AZ55" s="35"/>
-      <c r="BA55" s="35"/>
-      <c r="BB55" s="35"/>
-      <c r="BC55" s="35"/>
-      <c r="BD55" s="35"/>
-      <c r="BE55" s="35"/>
-      <c r="BF55" s="35"/>
-      <c r="BG55" s="35"/>
-      <c r="BH55" s="35"/>
-      <c r="BI55" s="35"/>
-      <c r="BJ55" s="35"/>
-      <c r="BK55" s="35"/>
-      <c r="BL55" s="35"/>
-      <c r="BM55" s="35"/>
-      <c r="BN55" s="35"/>
-      <c r="BO55" s="35"/>
-      <c r="BP55" s="35"/>
-      <c r="BQ55" s="36"/>
-    </row>
-    <row r="56" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B56" s="47"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="29"/>
-      <c r="AC56" s="13"/>
-      <c r="AD56" s="13"/>
-      <c r="AE56" s="37"/>
-      <c r="AF56" s="38"/>
-      <c r="AG56" s="38"/>
-      <c r="AH56" s="38"/>
-      <c r="AI56" s="38"/>
-      <c r="AJ56" s="38"/>
-      <c r="AK56" s="38"/>
-      <c r="AL56" s="38"/>
-      <c r="AM56" s="38"/>
-      <c r="AN56" s="38"/>
-      <c r="AO56" s="38"/>
-      <c r="AP56" s="38"/>
-      <c r="AQ56" s="38"/>
-      <c r="AR56" s="38"/>
-      <c r="AS56" s="38"/>
-      <c r="AT56" s="38"/>
-      <c r="AU56" s="38"/>
-      <c r="AV56" s="38"/>
-      <c r="AW56" s="38"/>
-      <c r="AX56" s="38"/>
-      <c r="AY56" s="38"/>
-      <c r="AZ56" s="38"/>
-      <c r="BA56" s="38"/>
-      <c r="BB56" s="38"/>
-      <c r="BC56" s="38"/>
-      <c r="BD56" s="38"/>
-      <c r="BE56" s="38"/>
-      <c r="BF56" s="38"/>
-      <c r="BG56" s="38"/>
-      <c r="BH56" s="38"/>
-      <c r="BI56" s="38"/>
-      <c r="BJ56" s="38"/>
-      <c r="BK56" s="38"/>
-      <c r="BL56" s="38"/>
-      <c r="BM56" s="38"/>
-      <c r="BN56" s="38"/>
-      <c r="BO56" s="38"/>
-      <c r="BP56" s="38"/>
-      <c r="BQ56" s="39"/>
-    </row>
-    <row r="57" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B57" s="44"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="28"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="28"/>
-      <c r="AA57" s="28"/>
-      <c r="AB57" s="29"/>
-      <c r="AC57" s="8"/>
-      <c r="AD57" s="8"/>
-      <c r="AE57" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF57" s="14"/>
-      <c r="AG57" s="14"/>
-      <c r="AH57" s="14"/>
-      <c r="AI57" s="14"/>
-      <c r="AJ57" s="14"/>
-      <c r="AK57" s="14"/>
-      <c r="AL57" s="14"/>
-      <c r="AM57" s="14"/>
-      <c r="AN57" s="14"/>
-      <c r="AO57" s="14"/>
-      <c r="AP57" s="14"/>
-      <c r="AQ57" s="14"/>
-      <c r="AR57" s="14"/>
-      <c r="AS57" s="14"/>
-      <c r="AT57" s="14"/>
-      <c r="AU57" s="14"/>
-      <c r="AV57" s="14"/>
-      <c r="AW57" s="14"/>
-      <c r="AX57" s="14"/>
-      <c r="AY57" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ57" s="14"/>
-      <c r="BA57" s="14"/>
-      <c r="BB57" s="14"/>
-      <c r="BC57" s="14"/>
-      <c r="BD57" s="14"/>
-      <c r="BE57" s="14"/>
-      <c r="BF57" s="14"/>
-      <c r="BG57" s="14"/>
-      <c r="BH57" s="14"/>
-      <c r="BI57" s="14"/>
-      <c r="BJ57" s="14"/>
-      <c r="BK57" s="14"/>
-      <c r="BL57" s="14"/>
-      <c r="BM57" s="14"/>
-      <c r="BN57" s="14"/>
-      <c r="BO57" s="14"/>
-      <c r="BP57" s="14"/>
-      <c r="BQ57" s="14"/>
-    </row>
-    <row r="58" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="28"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="28"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="28"/>
-      <c r="AA58" s="28"/>
-      <c r="AB58" s="29"/>
-      <c r="AC58" s="8"/>
-      <c r="AD58" s="8"/>
-      <c r="AE58" s="14"/>
-      <c r="AF58" s="14"/>
-      <c r="AG58" s="14"/>
-      <c r="AH58" s="14"/>
-      <c r="AI58" s="14"/>
-      <c r="AJ58" s="14"/>
-      <c r="AK58" s="14"/>
-      <c r="AL58" s="14"/>
-      <c r="AM58" s="14"/>
-      <c r="AN58" s="14"/>
-      <c r="AO58" s="14"/>
-      <c r="AP58" s="14"/>
-      <c r="AQ58" s="14"/>
-      <c r="AR58" s="14"/>
-      <c r="AS58" s="14"/>
-      <c r="AT58" s="14"/>
-      <c r="AU58" s="14"/>
-      <c r="AV58" s="14"/>
-      <c r="AW58" s="14"/>
-      <c r="AX58" s="14"/>
-      <c r="AY58" s="14"/>
-      <c r="AZ58" s="14"/>
-      <c r="BA58" s="14"/>
-      <c r="BB58" s="14"/>
-      <c r="BC58" s="14"/>
-      <c r="BD58" s="14"/>
-      <c r="BE58" s="14"/>
-      <c r="BF58" s="14"/>
-      <c r="BG58" s="14"/>
-      <c r="BH58" s="14"/>
-      <c r="BI58" s="14"/>
-      <c r="BJ58" s="14"/>
-      <c r="BK58" s="14"/>
-      <c r="BL58" s="14"/>
-      <c r="BM58" s="14"/>
-      <c r="BN58" s="14"/>
-      <c r="BO58" s="14"/>
-      <c r="BP58" s="14"/>
-      <c r="BQ58" s="14"/>
-    </row>
-    <row r="59" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="29"/>
-      <c r="AC59" s="8"/>
-      <c r="AD59" s="8"/>
-      <c r="AE59" s="14"/>
-      <c r="AF59" s="14"/>
-      <c r="AG59" s="14"/>
-      <c r="AH59" s="14"/>
-      <c r="AI59" s="14"/>
-      <c r="AJ59" s="14"/>
-      <c r="AK59" s="14"/>
-      <c r="AL59" s="14"/>
-      <c r="AM59" s="14"/>
-      <c r="AN59" s="14"/>
-      <c r="AO59" s="14"/>
-      <c r="AP59" s="14"/>
-      <c r="AQ59" s="14"/>
-      <c r="AR59" s="14"/>
-      <c r="AS59" s="14"/>
-      <c r="AT59" s="14"/>
-      <c r="AU59" s="14"/>
-      <c r="AV59" s="14"/>
-      <c r="AW59" s="14"/>
-      <c r="AX59" s="14"/>
-      <c r="AY59" s="14"/>
-      <c r="AZ59" s="14"/>
-      <c r="BA59" s="14"/>
-      <c r="BB59" s="14"/>
-      <c r="BC59" s="14"/>
-      <c r="BD59" s="14"/>
-      <c r="BE59" s="14"/>
-      <c r="BF59" s="14"/>
-      <c r="BG59" s="14"/>
-      <c r="BH59" s="14"/>
-      <c r="BI59" s="14"/>
-      <c r="BJ59" s="14"/>
-      <c r="BK59" s="14"/>
-      <c r="BL59" s="14"/>
-      <c r="BM59" s="14"/>
-      <c r="BN59" s="14"/>
-      <c r="BO59" s="14"/>
-      <c r="BP59" s="14"/>
-      <c r="BQ59" s="14"/>
-    </row>
-    <row r="60" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28"/>
-      <c r="U60" s="28"/>
-      <c r="V60" s="28"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="28"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="29"/>
-      <c r="AC60" s="8"/>
-      <c r="AD60" s="8"/>
-      <c r="AE60" s="14"/>
-      <c r="AF60" s="14"/>
-      <c r="AG60" s="14"/>
-      <c r="AH60" s="14"/>
-      <c r="AI60" s="14"/>
-      <c r="AJ60" s="14"/>
-      <c r="AK60" s="14"/>
-      <c r="AL60" s="14"/>
-      <c r="AM60" s="14"/>
-      <c r="AN60" s="14"/>
-      <c r="AO60" s="14"/>
-      <c r="AP60" s="14"/>
-      <c r="AQ60" s="14"/>
-      <c r="AR60" s="14"/>
-      <c r="AS60" s="14"/>
-      <c r="AT60" s="14"/>
-      <c r="AU60" s="14"/>
-      <c r="AV60" s="14"/>
-      <c r="AW60" s="14"/>
-      <c r="AX60" s="14"/>
-      <c r="AY60" s="14"/>
-      <c r="AZ60" s="14"/>
-      <c r="BA60" s="14"/>
-      <c r="BB60" s="14"/>
-      <c r="BC60" s="14"/>
-      <c r="BD60" s="14"/>
-      <c r="BE60" s="14"/>
-      <c r="BF60" s="14"/>
-      <c r="BG60" s="14"/>
-      <c r="BH60" s="14"/>
-      <c r="BI60" s="14"/>
-      <c r="BJ60" s="14"/>
-      <c r="BK60" s="14"/>
-      <c r="BL60" s="14"/>
-      <c r="BM60" s="14"/>
-      <c r="BN60" s="14"/>
-      <c r="BO60" s="14"/>
-      <c r="BP60" s="14"/>
-      <c r="BQ60" s="14"/>
-    </row>
-    <row r="61" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="28"/>
-      <c r="S61" s="28"/>
-      <c r="T61" s="28"/>
-      <c r="U61" s="28"/>
-      <c r="V61" s="28"/>
-      <c r="W61" s="28"/>
-      <c r="X61" s="28"/>
-      <c r="Y61" s="28"/>
-      <c r="Z61" s="28"/>
-      <c r="AA61" s="28"/>
-      <c r="AB61" s="29"/>
-      <c r="AC61" s="8"/>
-      <c r="AD61" s="8"/>
-      <c r="AE61" s="14"/>
-      <c r="AF61" s="14"/>
-      <c r="AG61" s="14"/>
-      <c r="AH61" s="14"/>
-      <c r="AI61" s="14"/>
-      <c r="AJ61" s="14"/>
-      <c r="AK61" s="14"/>
-      <c r="AL61" s="14"/>
-      <c r="AM61" s="14"/>
-      <c r="AN61" s="14"/>
-      <c r="AO61" s="14"/>
-      <c r="AP61" s="14"/>
-      <c r="AQ61" s="14"/>
-      <c r="AR61" s="14"/>
-      <c r="AS61" s="14"/>
-      <c r="AT61" s="14"/>
-      <c r="AU61" s="14"/>
-      <c r="AV61" s="14"/>
-      <c r="AW61" s="14"/>
-      <c r="AX61" s="14"/>
-      <c r="AY61" s="14"/>
-      <c r="AZ61" s="14"/>
-      <c r="BA61" s="14"/>
-      <c r="BB61" s="14"/>
-      <c r="BC61" s="14"/>
-      <c r="BD61" s="14"/>
-      <c r="BE61" s="14"/>
-      <c r="BF61" s="14"/>
-      <c r="BG61" s="14"/>
-      <c r="BH61" s="14"/>
-      <c r="BI61" s="14"/>
-      <c r="BJ61" s="14"/>
-      <c r="BK61" s="14"/>
-      <c r="BL61" s="14"/>
-      <c r="BM61" s="14"/>
-      <c r="BN61" s="14"/>
-      <c r="BO61" s="14"/>
-      <c r="BP61" s="14"/>
-      <c r="BQ61" s="14"/>
-    </row>
-    <row r="62" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B62" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="28"/>
-      <c r="S62" s="28"/>
-      <c r="T62" s="28"/>
-      <c r="U62" s="28"/>
-      <c r="V62" s="28"/>
-      <c r="W62" s="28"/>
-      <c r="X62" s="28"/>
-      <c r="Y62" s="28"/>
-      <c r="Z62" s="28"/>
-      <c r="AA62" s="28"/>
-      <c r="AB62" s="29"/>
-      <c r="AC62" s="8"/>
-      <c r="AD62" s="8"/>
-      <c r="AE62" s="14"/>
-      <c r="AF62" s="14"/>
-      <c r="AG62" s="14"/>
-      <c r="AH62" s="14"/>
-      <c r="AI62" s="14"/>
-      <c r="AJ62" s="14"/>
-      <c r="AK62" s="14"/>
-      <c r="AL62" s="14"/>
-      <c r="AM62" s="14"/>
-      <c r="AN62" s="14"/>
-      <c r="AO62" s="14"/>
-      <c r="AP62" s="14"/>
-      <c r="AQ62" s="14"/>
-      <c r="AR62" s="14"/>
-      <c r="AS62" s="14"/>
-      <c r="AT62" s="14"/>
-      <c r="AU62" s="14"/>
-      <c r="AV62" s="14"/>
-      <c r="AW62" s="14"/>
-      <c r="AX62" s="14"/>
-      <c r="AY62" s="14"/>
-      <c r="AZ62" s="14"/>
-      <c r="BA62" s="14"/>
-      <c r="BB62" s="14"/>
-      <c r="BC62" s="14"/>
-      <c r="BD62" s="14"/>
-      <c r="BE62" s="14"/>
-      <c r="BF62" s="14"/>
-      <c r="BG62" s="14"/>
-      <c r="BH62" s="14"/>
-      <c r="BI62" s="14"/>
-      <c r="BJ62" s="14"/>
-      <c r="BK62" s="14"/>
-      <c r="BL62" s="14"/>
-      <c r="BM62" s="14"/>
-      <c r="BN62" s="14"/>
-      <c r="BO62" s="14"/>
-      <c r="BP62" s="14"/>
-      <c r="BQ62" s="14"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="26"/>
+      <c r="S62" s="26"/>
+      <c r="T62" s="26"/>
+      <c r="U62" s="26"/>
+      <c r="V62" s="26"/>
+      <c r="W62" s="26"/>
+      <c r="X62" s="26"/>
+      <c r="Y62" s="26"/>
+      <c r="Z62" s="26"/>
+      <c r="AA62" s="26"/>
+      <c r="AB62" s="27"/>
+      <c r="AC62" s="6"/>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+      <c r="AM62" s="12"/>
+      <c r="AN62" s="12"/>
+      <c r="AO62" s="12"/>
+      <c r="AP62" s="12"/>
+      <c r="AQ62" s="12"/>
+      <c r="AR62" s="12"/>
+      <c r="AS62" s="12"/>
+      <c r="AT62" s="12"/>
+      <c r="AU62" s="12"/>
+      <c r="AV62" s="12"/>
+      <c r="AW62" s="12"/>
+      <c r="AX62" s="12"/>
+      <c r="AY62" s="12"/>
+      <c r="AZ62" s="12"/>
+      <c r="BA62" s="12"/>
+      <c r="BB62" s="12"/>
+      <c r="BC62" s="12"/>
+      <c r="BD62" s="12"/>
+      <c r="BE62" s="12"/>
+      <c r="BF62" s="12"/>
+      <c r="BG62" s="12"/>
+      <c r="BH62" s="12"/>
+      <c r="BI62" s="12"/>
+      <c r="BJ62" s="12"/>
+      <c r="BK62" s="12"/>
+      <c r="BL62" s="12"/>
+      <c r="BM62" s="12"/>
+      <c r="BN62" s="12"/>
+      <c r="BO62" s="12"/>
+      <c r="BP62" s="12"/>
+      <c r="BQ62" s="12"/>
     </row>
     <row r="63" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="28"/>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="28"/>
-      <c r="S63" s="28"/>
-      <c r="T63" s="28"/>
-      <c r="U63" s="28"/>
-      <c r="V63" s="28"/>
-      <c r="W63" s="28"/>
-      <c r="X63" s="28"/>
-      <c r="Y63" s="28"/>
-      <c r="Z63" s="28"/>
-      <c r="AA63" s="28"/>
-      <c r="AB63" s="29"/>
-      <c r="AC63" s="8"/>
-      <c r="AD63" s="8"/>
-      <c r="AE63" s="14"/>
-      <c r="AF63" s="14"/>
-      <c r="AG63" s="14"/>
-      <c r="AH63" s="14"/>
-      <c r="AI63" s="14"/>
-      <c r="AJ63" s="14"/>
-      <c r="AK63" s="14"/>
-      <c r="AL63" s="14"/>
-      <c r="AM63" s="14"/>
-      <c r="AN63" s="14"/>
-      <c r="AO63" s="14"/>
-      <c r="AP63" s="14"/>
-      <c r="AQ63" s="14"/>
-      <c r="AR63" s="14"/>
-      <c r="AS63" s="14"/>
-      <c r="AT63" s="14"/>
-      <c r="AU63" s="14"/>
-      <c r="AV63" s="14"/>
-      <c r="AW63" s="14"/>
-      <c r="AX63" s="14"/>
-      <c r="AY63" s="14"/>
-      <c r="AZ63" s="14"/>
-      <c r="BA63" s="14"/>
-      <c r="BB63" s="14"/>
-      <c r="BC63" s="14"/>
-      <c r="BD63" s="14"/>
-      <c r="BE63" s="14"/>
-      <c r="BF63" s="14"/>
-      <c r="BG63" s="14"/>
-      <c r="BH63" s="14"/>
-      <c r="BI63" s="14"/>
-      <c r="BJ63" s="14"/>
-      <c r="BK63" s="14"/>
-      <c r="BL63" s="14"/>
-      <c r="BM63" s="14"/>
-      <c r="BN63" s="14"/>
-      <c r="BO63" s="14"/>
-      <c r="BP63" s="14"/>
-      <c r="BQ63" s="14"/>
+      <c r="B63" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="26"/>
+      <c r="S63" s="26"/>
+      <c r="T63" s="26"/>
+      <c r="U63" s="26"/>
+      <c r="V63" s="26"/>
+      <c r="W63" s="26"/>
+      <c r="X63" s="26"/>
+      <c r="Y63" s="26"/>
+      <c r="Z63" s="26"/>
+      <c r="AA63" s="26"/>
+      <c r="AB63" s="27"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+      <c r="AM63" s="12"/>
+      <c r="AN63" s="12"/>
+      <c r="AO63" s="12"/>
+      <c r="AP63" s="12"/>
+      <c r="AQ63" s="12"/>
+      <c r="AR63" s="12"/>
+      <c r="AS63" s="12"/>
+      <c r="AT63" s="12"/>
+      <c r="AU63" s="12"/>
+      <c r="AV63" s="12"/>
+      <c r="AW63" s="12"/>
+      <c r="AX63" s="12"/>
+      <c r="AY63" s="12"/>
+      <c r="AZ63" s="12"/>
+      <c r="BA63" s="12"/>
+      <c r="BB63" s="12"/>
+      <c r="BC63" s="12"/>
+      <c r="BD63" s="12"/>
+      <c r="BE63" s="12"/>
+      <c r="BF63" s="12"/>
+      <c r="BG63" s="12"/>
+      <c r="BH63" s="12"/>
+      <c r="BI63" s="12"/>
+      <c r="BJ63" s="12"/>
+      <c r="BK63" s="12"/>
+      <c r="BL63" s="12"/>
+      <c r="BM63" s="12"/>
+      <c r="BN63" s="12"/>
+      <c r="BO63" s="12"/>
+      <c r="BP63" s="12"/>
+      <c r="BQ63" s="12"/>
     </row>
     <row r="64" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="28"/>
-      <c r="S64" s="28"/>
-      <c r="T64" s="28"/>
-      <c r="U64" s="28"/>
-      <c r="V64" s="28"/>
-      <c r="W64" s="28"/>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="28"/>
-      <c r="Z64" s="28"/>
-      <c r="AA64" s="28"/>
-      <c r="AB64" s="29"/>
-      <c r="AC64" s="8"/>
-      <c r="AD64" s="8"/>
-      <c r="AE64" s="14"/>
-      <c r="AF64" s="14"/>
-      <c r="AG64" s="14"/>
-      <c r="AH64" s="14"/>
-      <c r="AI64" s="14"/>
-      <c r="AJ64" s="14"/>
-      <c r="AK64" s="14"/>
-      <c r="AL64" s="14"/>
-      <c r="AM64" s="14"/>
-      <c r="AN64" s="14"/>
-      <c r="AO64" s="14"/>
-      <c r="AP64" s="14"/>
-      <c r="AQ64" s="14"/>
-      <c r="AR64" s="14"/>
-      <c r="AS64" s="14"/>
-      <c r="AT64" s="14"/>
-      <c r="AU64" s="14"/>
-      <c r="AV64" s="14"/>
-      <c r="AW64" s="14"/>
-      <c r="AX64" s="14"/>
-      <c r="AY64" s="14"/>
-      <c r="AZ64" s="14"/>
-      <c r="BA64" s="14"/>
-      <c r="BB64" s="14"/>
-      <c r="BC64" s="14"/>
-      <c r="BD64" s="14"/>
-      <c r="BE64" s="14"/>
-      <c r="BF64" s="14"/>
-      <c r="BG64" s="14"/>
-      <c r="BH64" s="14"/>
-      <c r="BI64" s="14"/>
-      <c r="BJ64" s="14"/>
-      <c r="BK64" s="14"/>
-      <c r="BL64" s="14"/>
-      <c r="BM64" s="14"/>
-      <c r="BN64" s="14"/>
-      <c r="BO64" s="14"/>
-      <c r="BP64" s="14"/>
-      <c r="BQ64" s="14"/>
+      <c r="B64" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="26"/>
+      <c r="S64" s="26"/>
+      <c r="T64" s="26"/>
+      <c r="U64" s="26"/>
+      <c r="V64" s="26"/>
+      <c r="W64" s="26"/>
+      <c r="X64" s="26"/>
+      <c r="Y64" s="26"/>
+      <c r="Z64" s="26"/>
+      <c r="AA64" s="26"/>
+      <c r="AB64" s="27"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12"/>
+      <c r="AJ64" s="12"/>
+      <c r="AK64" s="12"/>
+      <c r="AL64" s="12"/>
+      <c r="AM64" s="12"/>
+      <c r="AN64" s="12"/>
+      <c r="AO64" s="12"/>
+      <c r="AP64" s="12"/>
+      <c r="AQ64" s="12"/>
+      <c r="AR64" s="12"/>
+      <c r="AS64" s="12"/>
+      <c r="AT64" s="12"/>
+      <c r="AU64" s="12"/>
+      <c r="AV64" s="12"/>
+      <c r="AW64" s="12"/>
+      <c r="AX64" s="12"/>
+      <c r="AY64" s="12"/>
+      <c r="AZ64" s="12"/>
+      <c r="BA64" s="12"/>
+      <c r="BB64" s="12"/>
+      <c r="BC64" s="12"/>
+      <c r="BD64" s="12"/>
+      <c r="BE64" s="12"/>
+      <c r="BF64" s="12"/>
+      <c r="BG64" s="12"/>
+      <c r="BH64" s="12"/>
+      <c r="BI64" s="12"/>
+      <c r="BJ64" s="12"/>
+      <c r="BK64" s="12"/>
+      <c r="BL64" s="12"/>
+      <c r="BM64" s="12"/>
+      <c r="BN64" s="12"/>
+      <c r="BO64" s="12"/>
+      <c r="BP64" s="12"/>
+      <c r="BQ64" s="12"/>
     </row>
     <row r="65" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="28"/>
-      <c r="S65" s="28"/>
-      <c r="T65" s="28"/>
-      <c r="U65" s="28"/>
-      <c r="V65" s="28"/>
-      <c r="W65" s="28"/>
-      <c r="X65" s="28"/>
-      <c r="Y65" s="28"/>
-      <c r="Z65" s="28"/>
-      <c r="AA65" s="28"/>
-      <c r="AB65" s="29"/>
-      <c r="AC65" s="8"/>
-      <c r="AD65" s="8"/>
-      <c r="AE65" s="14"/>
-      <c r="AF65" s="14"/>
-      <c r="AG65" s="14"/>
-      <c r="AH65" s="14"/>
-      <c r="AI65" s="14"/>
-      <c r="AJ65" s="14"/>
-      <c r="AK65" s="14"/>
-      <c r="AL65" s="14"/>
-      <c r="AM65" s="14"/>
-      <c r="AN65" s="14"/>
-      <c r="AO65" s="14"/>
-      <c r="AP65" s="14"/>
-      <c r="AQ65" s="14"/>
-      <c r="AR65" s="14"/>
-      <c r="AS65" s="14"/>
-      <c r="AT65" s="14"/>
-      <c r="AU65" s="14"/>
-      <c r="AV65" s="14"/>
-      <c r="AW65" s="14"/>
-      <c r="AX65" s="14"/>
-      <c r="AY65" s="14"/>
-      <c r="AZ65" s="14"/>
-      <c r="BA65" s="14"/>
-      <c r="BB65" s="14"/>
-      <c r="BC65" s="14"/>
-      <c r="BD65" s="14"/>
-      <c r="BE65" s="14"/>
-      <c r="BF65" s="14"/>
-      <c r="BG65" s="14"/>
-      <c r="BH65" s="14"/>
-      <c r="BI65" s="14"/>
-      <c r="BJ65" s="14"/>
-      <c r="BK65" s="14"/>
-      <c r="BL65" s="14"/>
-      <c r="BM65" s="14"/>
-      <c r="BN65" s="14"/>
-      <c r="BO65" s="14"/>
-      <c r="BP65" s="14"/>
-      <c r="BQ65" s="14"/>
+      <c r="B65" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="26"/>
+      <c r="P65" s="26"/>
+      <c r="Q65" s="26"/>
+      <c r="R65" s="26"/>
+      <c r="S65" s="26"/>
+      <c r="T65" s="26"/>
+      <c r="U65" s="26"/>
+      <c r="V65" s="26"/>
+      <c r="W65" s="26"/>
+      <c r="X65" s="26"/>
+      <c r="Y65" s="26"/>
+      <c r="Z65" s="26"/>
+      <c r="AA65" s="26"/>
+      <c r="AB65" s="27"/>
+      <c r="AC65" s="6"/>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="12"/>
+      <c r="AF65" s="12"/>
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="12"/>
+      <c r="AJ65" s="12"/>
+      <c r="AK65" s="12"/>
+      <c r="AL65" s="12"/>
+      <c r="AM65" s="12"/>
+      <c r="AN65" s="12"/>
+      <c r="AO65" s="12"/>
+      <c r="AP65" s="12"/>
+      <c r="AQ65" s="12"/>
+      <c r="AR65" s="12"/>
+      <c r="AS65" s="12"/>
+      <c r="AT65" s="12"/>
+      <c r="AU65" s="12"/>
+      <c r="AV65" s="12"/>
+      <c r="AW65" s="12"/>
+      <c r="AX65" s="12"/>
+      <c r="AY65" s="12"/>
+      <c r="AZ65" s="12"/>
+      <c r="BA65" s="12"/>
+      <c r="BB65" s="12"/>
+      <c r="BC65" s="12"/>
+      <c r="BD65" s="12"/>
+      <c r="BE65" s="12"/>
+      <c r="BF65" s="12"/>
+      <c r="BG65" s="12"/>
+      <c r="BH65" s="12"/>
+      <c r="BI65" s="12"/>
+      <c r="BJ65" s="12"/>
+      <c r="BK65" s="12"/>
+      <c r="BL65" s="12"/>
+      <c r="BM65" s="12"/>
+      <c r="BN65" s="12"/>
+      <c r="BO65" s="12"/>
+      <c r="BP65" s="12"/>
+      <c r="BQ65" s="12"/>
     </row>
     <row r="66" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="28"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="28"/>
-      <c r="V66" s="28"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="28"/>
-      <c r="Z66" s="28"/>
-      <c r="AA66" s="28"/>
-      <c r="AB66" s="29"/>
-      <c r="AC66" s="8"/>
-      <c r="AD66" s="8"/>
-      <c r="AE66" s="14"/>
-      <c r="AF66" s="14"/>
-      <c r="AG66" s="14"/>
-      <c r="AH66" s="14"/>
-      <c r="AI66" s="14"/>
-      <c r="AJ66" s="14"/>
-      <c r="AK66" s="14"/>
-      <c r="AL66" s="14"/>
-      <c r="AM66" s="14"/>
-      <c r="AN66" s="14"/>
-      <c r="AO66" s="14"/>
-      <c r="AP66" s="14"/>
-      <c r="AQ66" s="14"/>
-      <c r="AR66" s="14"/>
-      <c r="AS66" s="14"/>
-      <c r="AT66" s="14"/>
-      <c r="AU66" s="14"/>
-      <c r="AV66" s="14"/>
-      <c r="AW66" s="14"/>
-      <c r="AX66" s="14"/>
-      <c r="AY66" s="14"/>
-      <c r="AZ66" s="14"/>
-      <c r="BA66" s="14"/>
-      <c r="BB66" s="14"/>
-      <c r="BC66" s="14"/>
-      <c r="BD66" s="14"/>
-      <c r="BE66" s="14"/>
-      <c r="BF66" s="14"/>
-      <c r="BG66" s="14"/>
-      <c r="BH66" s="14"/>
-      <c r="BI66" s="14"/>
-      <c r="BJ66" s="14"/>
-      <c r="BK66" s="14"/>
-      <c r="BL66" s="14"/>
-      <c r="BM66" s="14"/>
-      <c r="BN66" s="14"/>
-      <c r="BO66" s="14"/>
-      <c r="BP66" s="14"/>
-      <c r="BQ66" s="14"/>
+      <c r="B66" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="26"/>
+      <c r="S66" s="26"/>
+      <c r="T66" s="26"/>
+      <c r="U66" s="26"/>
+      <c r="V66" s="26"/>
+      <c r="W66" s="26"/>
+      <c r="X66" s="26"/>
+      <c r="Y66" s="26"/>
+      <c r="Z66" s="26"/>
+      <c r="AA66" s="26"/>
+      <c r="AB66" s="27"/>
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="12"/>
+      <c r="AF66" s="12"/>
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="12"/>
+      <c r="AI66" s="12"/>
+      <c r="AJ66" s="12"/>
+      <c r="AK66" s="12"/>
+      <c r="AL66" s="12"/>
+      <c r="AM66" s="12"/>
+      <c r="AN66" s="12"/>
+      <c r="AO66" s="12"/>
+      <c r="AP66" s="12"/>
+      <c r="AQ66" s="12"/>
+      <c r="AR66" s="12"/>
+      <c r="AS66" s="12"/>
+      <c r="AT66" s="12"/>
+      <c r="AU66" s="12"/>
+      <c r="AV66" s="12"/>
+      <c r="AW66" s="12"/>
+      <c r="AX66" s="12"/>
+      <c r="AY66" s="12"/>
+      <c r="AZ66" s="12"/>
+      <c r="BA66" s="12"/>
+      <c r="BB66" s="12"/>
+      <c r="BC66" s="12"/>
+      <c r="BD66" s="12"/>
+      <c r="BE66" s="12"/>
+      <c r="BF66" s="12"/>
+      <c r="BG66" s="12"/>
+      <c r="BH66" s="12"/>
+      <c r="BI66" s="12"/>
+      <c r="BJ66" s="12"/>
+      <c r="BK66" s="12"/>
+      <c r="BL66" s="12"/>
+      <c r="BM66" s="12"/>
+      <c r="BN66" s="12"/>
+      <c r="BO66" s="12"/>
+      <c r="BP66" s="12"/>
+      <c r="BQ66" s="12"/>
     </row>
     <row r="67" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="28"/>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="28"/>
-      <c r="S67" s="28"/>
-      <c r="T67" s="28"/>
-      <c r="U67" s="28"/>
-      <c r="V67" s="28"/>
-      <c r="W67" s="28"/>
-      <c r="X67" s="28"/>
-      <c r="Y67" s="28"/>
-      <c r="Z67" s="28"/>
-      <c r="AA67" s="28"/>
-      <c r="AB67" s="29"/>
-      <c r="AC67" s="8"/>
-      <c r="AD67" s="8"/>
-      <c r="AE67" s="14"/>
-      <c r="AF67" s="14"/>
-      <c r="AG67" s="14"/>
-      <c r="AH67" s="14"/>
-      <c r="AI67" s="14"/>
-      <c r="AJ67" s="14"/>
-      <c r="AK67" s="14"/>
-      <c r="AL67" s="14"/>
-      <c r="AM67" s="14"/>
-      <c r="AN67" s="14"/>
-      <c r="AO67" s="14"/>
-      <c r="AP67" s="14"/>
-      <c r="AQ67" s="14"/>
-      <c r="AR67" s="14"/>
-      <c r="AS67" s="14"/>
-      <c r="AT67" s="14"/>
-      <c r="AU67" s="14"/>
-      <c r="AV67" s="14"/>
-      <c r="AW67" s="14"/>
-      <c r="AX67" s="14"/>
-      <c r="AY67" s="14"/>
-      <c r="AZ67" s="14"/>
-      <c r="BA67" s="14"/>
-      <c r="BB67" s="14"/>
-      <c r="BC67" s="14"/>
-      <c r="BD67" s="14"/>
-      <c r="BE67" s="14"/>
-      <c r="BF67" s="14"/>
-      <c r="BG67" s="14"/>
-      <c r="BH67" s="14"/>
-      <c r="BI67" s="14"/>
-      <c r="BJ67" s="14"/>
-      <c r="BK67" s="14"/>
-      <c r="BL67" s="14"/>
-      <c r="BM67" s="14"/>
-      <c r="BN67" s="14"/>
-      <c r="BO67" s="14"/>
-      <c r="BP67" s="14"/>
-      <c r="BQ67" s="14"/>
+      <c r="B67" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="26"/>
+      <c r="S67" s="26"/>
+      <c r="T67" s="26"/>
+      <c r="U67" s="26"/>
+      <c r="V67" s="26"/>
+      <c r="W67" s="26"/>
+      <c r="X67" s="26"/>
+      <c r="Y67" s="26"/>
+      <c r="Z67" s="26"/>
+      <c r="AA67" s="26"/>
+      <c r="AB67" s="27"/>
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="12"/>
+      <c r="AF67" s="12"/>
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="12"/>
+      <c r="AJ67" s="12"/>
+      <c r="AK67" s="12"/>
+      <c r="AL67" s="12"/>
+      <c r="AM67" s="12"/>
+      <c r="AN67" s="12"/>
+      <c r="AO67" s="12"/>
+      <c r="AP67" s="12"/>
+      <c r="AQ67" s="12"/>
+      <c r="AR67" s="12"/>
+      <c r="AS67" s="12"/>
+      <c r="AT67" s="12"/>
+      <c r="AU67" s="12"/>
+      <c r="AV67" s="12"/>
+      <c r="AW67" s="12"/>
+      <c r="AX67" s="12"/>
+      <c r="AY67" s="12"/>
+      <c r="AZ67" s="12"/>
+      <c r="BA67" s="12"/>
+      <c r="BB67" s="12"/>
+      <c r="BC67" s="12"/>
+      <c r="BD67" s="12"/>
+      <c r="BE67" s="12"/>
+      <c r="BF67" s="12"/>
+      <c r="BG67" s="12"/>
+      <c r="BH67" s="12"/>
+      <c r="BI67" s="12"/>
+      <c r="BJ67" s="12"/>
+      <c r="BK67" s="12"/>
+      <c r="BL67" s="12"/>
+      <c r="BM67" s="12"/>
+      <c r="BN67" s="12"/>
+      <c r="BO67" s="12"/>
+      <c r="BP67" s="12"/>
+      <c r="BQ67" s="12"/>
     </row>
     <row r="68" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28"/>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="28"/>
-      <c r="R68" s="28"/>
-      <c r="S68" s="28"/>
-      <c r="T68" s="28"/>
-      <c r="U68" s="28"/>
-      <c r="V68" s="28"/>
-      <c r="W68" s="28"/>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="28"/>
-      <c r="Z68" s="28"/>
-      <c r="AA68" s="28"/>
-      <c r="AB68" s="29"/>
-      <c r="AC68" s="8"/>
-      <c r="AD68" s="8"/>
-      <c r="AE68" s="14"/>
-      <c r="AF68" s="14"/>
-      <c r="AG68" s="14"/>
-      <c r="AH68" s="14"/>
-      <c r="AI68" s="14"/>
-      <c r="AJ68" s="14"/>
-      <c r="AK68" s="14"/>
-      <c r="AL68" s="14"/>
-      <c r="AM68" s="14"/>
-      <c r="AN68" s="14"/>
-      <c r="AO68" s="14"/>
-      <c r="AP68" s="14"/>
-      <c r="AQ68" s="14"/>
-      <c r="AR68" s="14"/>
-      <c r="AS68" s="14"/>
-      <c r="AT68" s="14"/>
-      <c r="AU68" s="14"/>
-      <c r="AV68" s="14"/>
-      <c r="AW68" s="14"/>
-      <c r="AX68" s="14"/>
-      <c r="AY68" s="14"/>
-      <c r="AZ68" s="14"/>
-      <c r="BA68" s="14"/>
-      <c r="BB68" s="14"/>
-      <c r="BC68" s="14"/>
-      <c r="BD68" s="14"/>
-      <c r="BE68" s="14"/>
-      <c r="BF68" s="14"/>
-      <c r="BG68" s="14"/>
-      <c r="BH68" s="14"/>
-      <c r="BI68" s="14"/>
-      <c r="BJ68" s="14"/>
-      <c r="BK68" s="14"/>
-      <c r="BL68" s="14"/>
-      <c r="BM68" s="14"/>
-      <c r="BN68" s="14"/>
-      <c r="BO68" s="14"/>
-      <c r="BP68" s="14"/>
-      <c r="BQ68" s="14"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="26"/>
+      <c r="S68" s="26"/>
+      <c r="T68" s="26"/>
+      <c r="U68" s="26"/>
+      <c r="V68" s="26"/>
+      <c r="W68" s="26"/>
+      <c r="X68" s="26"/>
+      <c r="Y68" s="26"/>
+      <c r="Z68" s="26"/>
+      <c r="AA68" s="26"/>
+      <c r="AB68" s="27"/>
+      <c r="AC68" s="6"/>
+      <c r="AD68" s="6"/>
+      <c r="AE68" s="12"/>
+      <c r="AF68" s="12"/>
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="12"/>
+      <c r="AJ68" s="12"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="12"/>
+      <c r="AM68" s="12"/>
+      <c r="AN68" s="12"/>
+      <c r="AO68" s="12"/>
+      <c r="AP68" s="12"/>
+      <c r="AQ68" s="12"/>
+      <c r="AR68" s="12"/>
+      <c r="AS68" s="12"/>
+      <c r="AT68" s="12"/>
+      <c r="AU68" s="12"/>
+      <c r="AV68" s="12"/>
+      <c r="AW68" s="12"/>
+      <c r="AX68" s="12"/>
+      <c r="AY68" s="12"/>
+      <c r="AZ68" s="12"/>
+      <c r="BA68" s="12"/>
+      <c r="BB68" s="12"/>
+      <c r="BC68" s="12"/>
+      <c r="BD68" s="12"/>
+      <c r="BE68" s="12"/>
+      <c r="BF68" s="12"/>
+      <c r="BG68" s="12"/>
+      <c r="BH68" s="12"/>
+      <c r="BI68" s="12"/>
+      <c r="BJ68" s="12"/>
+      <c r="BK68" s="12"/>
+      <c r="BL68" s="12"/>
+      <c r="BM68" s="12"/>
+      <c r="BN68" s="12"/>
+      <c r="BO68" s="12"/>
+      <c r="BP68" s="12"/>
+      <c r="BQ68" s="12"/>
     </row>
     <row r="69" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
-      <c r="P69" s="28"/>
-      <c r="Q69" s="28"/>
-      <c r="R69" s="28"/>
-      <c r="S69" s="28"/>
-      <c r="T69" s="28"/>
-      <c r="U69" s="28"/>
-      <c r="V69" s="28"/>
-      <c r="W69" s="28"/>
-      <c r="X69" s="28"/>
-      <c r="Y69" s="28"/>
-      <c r="Z69" s="28"/>
-      <c r="AA69" s="28"/>
-      <c r="AB69" s="29"/>
-      <c r="AC69" s="8"/>
-      <c r="AD69" s="8"/>
-      <c r="AE69" s="14"/>
-      <c r="AF69" s="14"/>
-      <c r="AG69" s="14"/>
-      <c r="AH69" s="14"/>
-      <c r="AI69" s="14"/>
-      <c r="AJ69" s="14"/>
-      <c r="AK69" s="14"/>
-      <c r="AL69" s="14"/>
-      <c r="AM69" s="14"/>
-      <c r="AN69" s="14"/>
-      <c r="AO69" s="14"/>
-      <c r="AP69" s="14"/>
-      <c r="AQ69" s="14"/>
-      <c r="AR69" s="14"/>
-      <c r="AS69" s="14"/>
-      <c r="AT69" s="14"/>
-      <c r="AU69" s="14"/>
-      <c r="AV69" s="14"/>
-      <c r="AW69" s="14"/>
-      <c r="AX69" s="14"/>
-      <c r="AY69" s="14"/>
-      <c r="AZ69" s="14"/>
-      <c r="BA69" s="14"/>
-      <c r="BB69" s="14"/>
-      <c r="BC69" s="14"/>
-      <c r="BD69" s="14"/>
-      <c r="BE69" s="14"/>
-      <c r="BF69" s="14"/>
-      <c r="BG69" s="14"/>
-      <c r="BH69" s="14"/>
-      <c r="BI69" s="14"/>
-      <c r="BJ69" s="14"/>
-      <c r="BK69" s="14"/>
-      <c r="BL69" s="14"/>
-      <c r="BM69" s="14"/>
-      <c r="BN69" s="14"/>
-      <c r="BO69" s="14"/>
-      <c r="BP69" s="14"/>
-      <c r="BQ69" s="14"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="26"/>
+      <c r="S69" s="26"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="26"/>
+      <c r="V69" s="26"/>
+      <c r="W69" s="26"/>
+      <c r="X69" s="26"/>
+      <c r="Y69" s="26"/>
+      <c r="Z69" s="26"/>
+      <c r="AA69" s="26"/>
+      <c r="AB69" s="27"/>
+      <c r="AC69" s="6"/>
+      <c r="AD69" s="6"/>
+      <c r="AE69" s="12"/>
+      <c r="AF69" s="12"/>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="12"/>
+      <c r="AJ69" s="12"/>
+      <c r="AK69" s="12"/>
+      <c r="AL69" s="12"/>
+      <c r="AM69" s="12"/>
+      <c r="AN69" s="12"/>
+      <c r="AO69" s="12"/>
+      <c r="AP69" s="12"/>
+      <c r="AQ69" s="12"/>
+      <c r="AR69" s="12"/>
+      <c r="AS69" s="12"/>
+      <c r="AT69" s="12"/>
+      <c r="AU69" s="12"/>
+      <c r="AV69" s="12"/>
+      <c r="AW69" s="12"/>
+      <c r="AX69" s="12"/>
+      <c r="AY69" s="12"/>
+      <c r="AZ69" s="12"/>
+      <c r="BA69" s="12"/>
+      <c r="BB69" s="12"/>
+      <c r="BC69" s="12"/>
+      <c r="BD69" s="12"/>
+      <c r="BE69" s="12"/>
+      <c r="BF69" s="12"/>
+      <c r="BG69" s="12"/>
+      <c r="BH69" s="12"/>
+      <c r="BI69" s="12"/>
+      <c r="BJ69" s="12"/>
+      <c r="BK69" s="12"/>
+      <c r="BL69" s="12"/>
+      <c r="BM69" s="12"/>
+      <c r="BN69" s="12"/>
+      <c r="BO69" s="12"/>
+      <c r="BP69" s="12"/>
+      <c r="BQ69" s="12"/>
     </row>
     <row r="70" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28"/>
-      <c r="P70" s="28"/>
-      <c r="Q70" s="28"/>
-      <c r="R70" s="28"/>
-      <c r="S70" s="28"/>
-      <c r="T70" s="28"/>
-      <c r="U70" s="28"/>
-      <c r="V70" s="28"/>
-      <c r="W70" s="28"/>
-      <c r="X70" s="28"/>
-      <c r="Y70" s="28"/>
-      <c r="Z70" s="28"/>
-      <c r="AA70" s="28"/>
-      <c r="AB70" s="29"/>
-      <c r="AC70" s="8"/>
-      <c r="AD70" s="8"/>
-      <c r="AE70" s="14"/>
-      <c r="AF70" s="14"/>
-      <c r="AG70" s="14"/>
-      <c r="AH70" s="14"/>
-      <c r="AI70" s="14"/>
-      <c r="AJ70" s="14"/>
-      <c r="AK70" s="14"/>
-      <c r="AL70" s="14"/>
-      <c r="AM70" s="14"/>
-      <c r="AN70" s="14"/>
-      <c r="AO70" s="14"/>
-      <c r="AP70" s="14"/>
-      <c r="AQ70" s="14"/>
-      <c r="AR70" s="14"/>
-      <c r="AS70" s="14"/>
-      <c r="AT70" s="14"/>
-      <c r="AU70" s="14"/>
-      <c r="AV70" s="14"/>
-      <c r="AW70" s="14"/>
-      <c r="AX70" s="14"/>
-      <c r="AY70" s="14"/>
-      <c r="AZ70" s="14"/>
-      <c r="BA70" s="14"/>
-      <c r="BB70" s="14"/>
-      <c r="BC70" s="14"/>
-      <c r="BD70" s="14"/>
-      <c r="BE70" s="14"/>
-      <c r="BF70" s="14"/>
-      <c r="BG70" s="14"/>
-      <c r="BH70" s="14"/>
-      <c r="BI70" s="14"/>
-      <c r="BJ70" s="14"/>
-      <c r="BK70" s="14"/>
-      <c r="BL70" s="14"/>
-      <c r="BM70" s="14"/>
-      <c r="BN70" s="14"/>
-      <c r="BO70" s="14"/>
-      <c r="BP70" s="14"/>
-      <c r="BQ70" s="14"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="26"/>
+      <c r="R70" s="26"/>
+      <c r="S70" s="26"/>
+      <c r="T70" s="26"/>
+      <c r="U70" s="26"/>
+      <c r="V70" s="26"/>
+      <c r="W70" s="26"/>
+      <c r="X70" s="26"/>
+      <c r="Y70" s="26"/>
+      <c r="Z70" s="26"/>
+      <c r="AA70" s="26"/>
+      <c r="AB70" s="27"/>
+      <c r="AC70" s="6"/>
+      <c r="AD70" s="6"/>
+      <c r="AE70" s="12"/>
+      <c r="AF70" s="12"/>
+      <c r="AG70" s="12"/>
+      <c r="AH70" s="12"/>
+      <c r="AI70" s="12"/>
+      <c r="AJ70" s="12"/>
+      <c r="AK70" s="12"/>
+      <c r="AL70" s="12"/>
+      <c r="AM70" s="12"/>
+      <c r="AN70" s="12"/>
+      <c r="AO70" s="12"/>
+      <c r="AP70" s="12"/>
+      <c r="AQ70" s="12"/>
+      <c r="AR70" s="12"/>
+      <c r="AS70" s="12"/>
+      <c r="AT70" s="12"/>
+      <c r="AU70" s="12"/>
+      <c r="AV70" s="12"/>
+      <c r="AW70" s="12"/>
+      <c r="AX70" s="12"/>
+      <c r="AY70" s="12"/>
+      <c r="AZ70" s="12"/>
+      <c r="BA70" s="12"/>
+      <c r="BB70" s="12"/>
+      <c r="BC70" s="12"/>
+      <c r="BD70" s="12"/>
+      <c r="BE70" s="12"/>
+      <c r="BF70" s="12"/>
+      <c r="BG70" s="12"/>
+      <c r="BH70" s="12"/>
+      <c r="BI70" s="12"/>
+      <c r="BJ70" s="12"/>
+      <c r="BK70" s="12"/>
+      <c r="BL70" s="12"/>
+      <c r="BM70" s="12"/>
+      <c r="BN70" s="12"/>
+      <c r="BO70" s="12"/>
+      <c r="BP70" s="12"/>
+      <c r="BQ70" s="12"/>
     </row>
     <row r="71" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="28"/>
-      <c r="P71" s="28"/>
-      <c r="Q71" s="28"/>
-      <c r="R71" s="28"/>
-      <c r="S71" s="28"/>
-      <c r="T71" s="28"/>
-      <c r="U71" s="28"/>
-      <c r="V71" s="28"/>
-      <c r="W71" s="28"/>
-      <c r="X71" s="28"/>
-      <c r="Y71" s="28"/>
-      <c r="Z71" s="28"/>
-      <c r="AA71" s="28"/>
-      <c r="AB71" s="29"/>
-      <c r="AC71" s="8"/>
-      <c r="AD71" s="8"/>
-      <c r="AE71" s="14"/>
-      <c r="AF71" s="14"/>
-      <c r="AG71" s="14"/>
-      <c r="AH71" s="14"/>
-      <c r="AI71" s="14"/>
-      <c r="AJ71" s="14"/>
-      <c r="AK71" s="14"/>
-      <c r="AL71" s="14"/>
-      <c r="AM71" s="14"/>
-      <c r="AN71" s="14"/>
-      <c r="AO71" s="14"/>
-      <c r="AP71" s="14"/>
-      <c r="AQ71" s="14"/>
-      <c r="AR71" s="14"/>
-      <c r="AS71" s="14"/>
-      <c r="AT71" s="14"/>
-      <c r="AU71" s="14"/>
-      <c r="AV71" s="14"/>
-      <c r="AW71" s="14"/>
-      <c r="AX71" s="14"/>
-      <c r="AY71" s="14"/>
-      <c r="AZ71" s="14"/>
-      <c r="BA71" s="14"/>
-      <c r="BB71" s="14"/>
-      <c r="BC71" s="14"/>
-      <c r="BD71" s="14"/>
-      <c r="BE71" s="14"/>
-      <c r="BF71" s="14"/>
-      <c r="BG71" s="14"/>
-      <c r="BH71" s="14"/>
-      <c r="BI71" s="14"/>
-      <c r="BJ71" s="14"/>
-      <c r="BK71" s="14"/>
-      <c r="BL71" s="14"/>
-      <c r="BM71" s="14"/>
-      <c r="BN71" s="14"/>
-      <c r="BO71" s="14"/>
-      <c r="BP71" s="14"/>
-      <c r="BQ71" s="14"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="26"/>
+      <c r="P71" s="26"/>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="26"/>
+      <c r="S71" s="26"/>
+      <c r="T71" s="26"/>
+      <c r="U71" s="26"/>
+      <c r="V71" s="26"/>
+      <c r="W71" s="26"/>
+      <c r="X71" s="26"/>
+      <c r="Y71" s="26"/>
+      <c r="Z71" s="26"/>
+      <c r="AA71" s="26"/>
+      <c r="AB71" s="27"/>
+      <c r="AC71" s="6"/>
+      <c r="AD71" s="6"/>
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="12"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="12"/>
+      <c r="AM71" s="12"/>
+      <c r="AN71" s="12"/>
+      <c r="AO71" s="12"/>
+      <c r="AP71" s="12"/>
+      <c r="AQ71" s="12"/>
+      <c r="AR71" s="12"/>
+      <c r="AS71" s="12"/>
+      <c r="AT71" s="12"/>
+      <c r="AU71" s="12"/>
+      <c r="AV71" s="12"/>
+      <c r="AW71" s="12"/>
+      <c r="AX71" s="12"/>
+      <c r="AY71" s="12"/>
+      <c r="AZ71" s="12"/>
+      <c r="BA71" s="12"/>
+      <c r="BB71" s="12"/>
+      <c r="BC71" s="12"/>
+      <c r="BD71" s="12"/>
+      <c r="BE71" s="12"/>
+      <c r="BF71" s="12"/>
+      <c r="BG71" s="12"/>
+      <c r="BH71" s="12"/>
+      <c r="BI71" s="12"/>
+      <c r="BJ71" s="12"/>
+      <c r="BK71" s="12"/>
+      <c r="BL71" s="12"/>
+      <c r="BM71" s="12"/>
+      <c r="BN71" s="12"/>
+      <c r="BO71" s="12"/>
+      <c r="BP71" s="12"/>
+      <c r="BQ71" s="12"/>
     </row>
     <row r="72" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="31"/>
-      <c r="O72" s="31"/>
-      <c r="P72" s="31"/>
-      <c r="Q72" s="31"/>
-      <c r="R72" s="31"/>
-      <c r="S72" s="31"/>
-      <c r="T72" s="31"/>
-      <c r="U72" s="31"/>
-      <c r="V72" s="31"/>
-      <c r="W72" s="31"/>
-      <c r="X72" s="31"/>
-      <c r="Y72" s="31"/>
-      <c r="Z72" s="31"/>
-      <c r="AA72" s="31"/>
-      <c r="AB72" s="32"/>
-      <c r="AC72" s="8"/>
-      <c r="AD72" s="8"/>
-      <c r="AE72" s="14"/>
-      <c r="AF72" s="14"/>
-      <c r="AG72" s="14"/>
-      <c r="AH72" s="14"/>
-      <c r="AI72" s="14"/>
-      <c r="AJ72" s="14"/>
-      <c r="AK72" s="14"/>
-      <c r="AL72" s="14"/>
-      <c r="AM72" s="14"/>
-      <c r="AN72" s="14"/>
-      <c r="AO72" s="14"/>
-      <c r="AP72" s="14"/>
-      <c r="AQ72" s="14"/>
-      <c r="AR72" s="14"/>
-      <c r="AS72" s="14"/>
-      <c r="AT72" s="14"/>
-      <c r="AU72" s="14"/>
-      <c r="AV72" s="14"/>
-      <c r="AW72" s="14"/>
-      <c r="AX72" s="14"/>
-      <c r="AY72" s="14"/>
-      <c r="AZ72" s="14"/>
-      <c r="BA72" s="14"/>
-      <c r="BB72" s="14"/>
-      <c r="BC72" s="14"/>
-      <c r="BD72" s="14"/>
-      <c r="BE72" s="14"/>
-      <c r="BF72" s="14"/>
-      <c r="BG72" s="14"/>
-      <c r="BH72" s="14"/>
-      <c r="BI72" s="14"/>
-      <c r="BJ72" s="14"/>
-      <c r="BK72" s="14"/>
-      <c r="BL72" s="14"/>
-      <c r="BM72" s="14"/>
-      <c r="BN72" s="14"/>
-      <c r="BO72" s="14"/>
-      <c r="BP72" s="14"/>
-      <c r="BQ72" s="14"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
+      <c r="X72" s="29"/>
+      <c r="Y72" s="29"/>
+      <c r="Z72" s="29"/>
+      <c r="AA72" s="29"/>
+      <c r="AB72" s="30"/>
+      <c r="AC72" s="6"/>
+      <c r="AD72" s="6"/>
+      <c r="AE72" s="12"/>
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="12"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="12"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="12"/>
+      <c r="AM72" s="12"/>
+      <c r="AN72" s="12"/>
+      <c r="AO72" s="12"/>
+      <c r="AP72" s="12"/>
+      <c r="AQ72" s="12"/>
+      <c r="AR72" s="12"/>
+      <c r="AS72" s="12"/>
+      <c r="AT72" s="12"/>
+      <c r="AU72" s="12"/>
+      <c r="AV72" s="12"/>
+      <c r="AW72" s="12"/>
+      <c r="AX72" s="12"/>
+      <c r="AY72" s="12"/>
+      <c r="AZ72" s="12"/>
+      <c r="BA72" s="12"/>
+      <c r="BB72" s="12"/>
+      <c r="BC72" s="12"/>
+      <c r="BD72" s="12"/>
+      <c r="BE72" s="12"/>
+      <c r="BF72" s="12"/>
+      <c r="BG72" s="12"/>
+      <c r="BH72" s="12"/>
+      <c r="BI72" s="12"/>
+      <c r="BJ72" s="12"/>
+      <c r="BK72" s="12"/>
+      <c r="BL72" s="12"/>
+      <c r="BM72" s="12"/>
+      <c r="BN72" s="12"/>
+      <c r="BO72" s="12"/>
+      <c r="BP72" s="12"/>
+      <c r="BQ72" s="12"/>
     </row>
     <row r="73" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
-      <c r="Y73" s="11"/>
-      <c r="Z73" s="11"/>
-      <c r="AA73" s="11"/>
-      <c r="AB73" s="11"/>
-      <c r="AC73" s="11"/>
-      <c r="AD73" s="11"/>
-      <c r="AE73" s="11"/>
-      <c r="AF73" s="11"/>
-      <c r="AG73" s="11"/>
-      <c r="AH73" s="11"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
+      <c r="AA73" s="9"/>
+      <c r="AB73" s="9"/>
+      <c r="AC73" s="9"/>
+      <c r="AD73" s="9"/>
+      <c r="AE73" s="9"/>
+      <c r="AF73" s="9"/>
+      <c r="AG73" s="9"/>
+      <c r="AH73" s="9"/>
     </row>
     <row r="74" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
-      <c r="U74" s="11"/>
-      <c r="V74" s="11"/>
-      <c r="W74" s="11"/>
-      <c r="X74" s="11"/>
-      <c r="Y74" s="11"/>
-      <c r="Z74" s="11"/>
-      <c r="AA74" s="11"/>
-      <c r="AB74" s="11"/>
-      <c r="AC74" s="11"/>
-      <c r="AD74" s="11"/>
-      <c r="AE74" s="11"/>
-      <c r="AF74" s="11"/>
-      <c r="AG74" s="11"/>
-      <c r="AH74" s="11"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
+      <c r="AA74" s="9"/>
+      <c r="AB74" s="9"/>
+      <c r="AC74" s="9"/>
+      <c r="AD74" s="9"/>
+      <c r="AE74" s="9"/>
+      <c r="AF74" s="9"/>
+      <c r="AG74" s="9"/>
+      <c r="AH74" s="9"/>
     </row>
     <row r="75" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
-      <c r="U75" s="11"/>
-      <c r="V75" s="11"/>
-      <c r="W75" s="11"/>
-      <c r="X75" s="11"/>
-      <c r="Y75" s="11"/>
-      <c r="Z75" s="11"/>
-      <c r="AA75" s="11"/>
-      <c r="AB75" s="11"/>
-      <c r="AC75" s="11"/>
-      <c r="AD75" s="11"/>
-      <c r="AE75" s="11"/>
-      <c r="AF75" s="11"/>
-      <c r="AG75" s="11"/>
-      <c r="AH75" s="11"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="9"/>
+      <c r="AB75" s="9"/>
+      <c r="AC75" s="9"/>
+      <c r="AD75" s="9"/>
+      <c r="AE75" s="9"/>
+      <c r="AF75" s="9"/>
+      <c r="AG75" s="9"/>
+      <c r="AH75" s="9"/>
     </row>
     <row r="76" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
-      <c r="U76" s="11"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="11"/>
-      <c r="X76" s="11"/>
-      <c r="Y76" s="11"/>
-      <c r="Z76" s="11"/>
-      <c r="AA76" s="11"/>
-      <c r="AB76" s="11"/>
-      <c r="AC76" s="11"/>
-      <c r="AD76" s="11"/>
-      <c r="AE76" s="11"/>
-      <c r="AF76" s="11"/>
-      <c r="AG76" s="11"/>
-      <c r="AH76" s="11"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
+      <c r="AB76" s="9"/>
+      <c r="AC76" s="9"/>
+      <c r="AD76" s="9"/>
+      <c r="AE76" s="9"/>
+      <c r="AF76" s="9"/>
+      <c r="AG76" s="9"/>
+      <c r="AH76" s="9"/>
     </row>
     <row r="77" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="11"/>
-      <c r="X77" s="11"/>
-      <c r="Y77" s="11"/>
-      <c r="Z77" s="11"/>
-      <c r="AA77" s="11"/>
-      <c r="AB77" s="11"/>
-      <c r="AC77" s="11"/>
-      <c r="AD77" s="11"/>
-      <c r="AE77" s="11"/>
-      <c r="AF77" s="11"/>
-      <c r="AG77" s="11"/>
-      <c r="AH77" s="11"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+      <c r="AB77" s="9"/>
+      <c r="AC77" s="9"/>
+      <c r="AD77" s="9"/>
+      <c r="AE77" s="9"/>
+      <c r="AF77" s="9"/>
+      <c r="AG77" s="9"/>
+      <c r="AH77" s="9"/>
     </row>
     <row r="78" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
-      <c r="U78" s="11"/>
-      <c r="V78" s="11"/>
-      <c r="W78" s="11"/>
-      <c r="X78" s="11"/>
-      <c r="Y78" s="11"/>
-      <c r="Z78" s="11"/>
-      <c r="AA78" s="11"/>
-      <c r="AB78" s="11"/>
-      <c r="AC78" s="11"/>
-      <c r="AD78" s="11"/>
-      <c r="AE78" s="11"/>
-      <c r="AF78" s="11"/>
-      <c r="AG78" s="11"/>
-      <c r="AH78" s="11"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="9"/>
+      <c r="AA78" s="9"/>
+      <c r="AB78" s="9"/>
+      <c r="AC78" s="9"/>
+      <c r="AD78" s="9"/>
+      <c r="AE78" s="9"/>
+      <c r="AF78" s="9"/>
+      <c r="AG78" s="9"/>
+      <c r="AH78" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="76">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B34:D34"/>
@@ -6698,15 +6947,12 @@
     <mergeCell ref="AN15:AR15"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="AX15:BB15"/>
     <mergeCell ref="BC15:BG15"/>
     <mergeCell ref="B8:D12"/>
@@ -6751,10 +6997,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="37"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/CE-RG-27. Cronograma de proyectos integradores. Rev. 04.xlsx
+++ b/CE-RG-27. Cronograma de proyectos integradores. Rev. 04.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aide_\Documents\GitHub\Integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB94AFE-A3A8-4BE1-9AEA-B8606CBF0468}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2554510F-78DB-4A25-9C94-357E48EB601B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="2580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="33">
   <si>
     <t>L</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Carrera: Ing. Telemática</t>
   </si>
   <si>
-    <t>Cuatrimestre: Septimo</t>
-  </si>
-  <si>
     <t>Nombre del proyecto: Tech-Tuin</t>
   </si>
   <si>
@@ -119,6 +116,12 @@
   </si>
   <si>
     <t xml:space="preserve">Plan de negocios </t>
+  </si>
+  <si>
+    <t>Cuatrimestre: Séptimo</t>
+  </si>
+  <si>
+    <t>Luis Rey Lara Gonzalez</t>
   </si>
 </sst>
 </file>
@@ -435,249 +438,249 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1491,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BQ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A35" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1504,1103 +1507,1103 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B1" s="78"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="79"/>
-      <c r="BJ1" s="79"/>
-      <c r="BK1" s="79"/>
-      <c r="BL1" s="79"/>
-      <c r="BM1" s="79"/>
-      <c r="BN1" s="79"/>
-      <c r="BO1" s="79"/>
-      <c r="BP1" s="79"/>
-      <c r="BQ1" s="80"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="23"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="23"/>
+      <c r="BG1" s="23"/>
+      <c r="BH1" s="23"/>
+      <c r="BI1" s="23"/>
+      <c r="BJ1" s="23"/>
+      <c r="BK1" s="23"/>
+      <c r="BL1" s="23"/>
+      <c r="BM1" s="23"/>
+      <c r="BN1" s="23"/>
+      <c r="BO1" s="23"/>
+      <c r="BP1" s="23"/>
+      <c r="BQ1" s="24"/>
     </row>
     <row r="2" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B2" s="81"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="82"/>
-      <c r="AQ2" s="82"/>
-      <c r="AR2" s="82"/>
-      <c r="AS2" s="82"/>
-      <c r="AT2" s="82"/>
-      <c r="AU2" s="82"/>
-      <c r="AV2" s="82"/>
-      <c r="AW2" s="82"/>
-      <c r="AX2" s="82"/>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="82"/>
-      <c r="BA2" s="82"/>
-      <c r="BB2" s="82"/>
-      <c r="BC2" s="82"/>
-      <c r="BD2" s="82"/>
-      <c r="BE2" s="82"/>
-      <c r="BF2" s="82"/>
-      <c r="BG2" s="82"/>
-      <c r="BH2" s="82"/>
-      <c r="BI2" s="82"/>
-      <c r="BJ2" s="82"/>
-      <c r="BK2" s="82"/>
-      <c r="BL2" s="82"/>
-      <c r="BM2" s="82"/>
-      <c r="BN2" s="82"/>
-      <c r="BO2" s="82"/>
-      <c r="BP2" s="82"/>
-      <c r="BQ2" s="83"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="26"/>
+      <c r="BC2" s="26"/>
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="26"/>
+      <c r="BF2" s="26"/>
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="26"/>
+      <c r="BI2" s="26"/>
+      <c r="BJ2" s="26"/>
+      <c r="BK2" s="26"/>
+      <c r="BL2" s="26"/>
+      <c r="BM2" s="26"/>
+      <c r="BN2" s="26"/>
+      <c r="BO2" s="26"/>
+      <c r="BP2" s="26"/>
+      <c r="BQ2" s="27"/>
     </row>
     <row r="3" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B3" s="81"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="82"/>
-      <c r="AM3" s="82"/>
-      <c r="AN3" s="82"/>
-      <c r="AO3" s="82"/>
-      <c r="AP3" s="82"/>
-      <c r="AQ3" s="82"/>
-      <c r="AR3" s="82"/>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="82"/>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="82"/>
-      <c r="AY3" s="82"/>
-      <c r="AZ3" s="82"/>
-      <c r="BA3" s="82"/>
-      <c r="BB3" s="82"/>
-      <c r="BC3" s="82"/>
-      <c r="BD3" s="82"/>
-      <c r="BE3" s="82"/>
-      <c r="BF3" s="82"/>
-      <c r="BG3" s="82"/>
-      <c r="BH3" s="82"/>
-      <c r="BI3" s="82"/>
-      <c r="BJ3" s="82"/>
-      <c r="BK3" s="82"/>
-      <c r="BL3" s="82"/>
-      <c r="BM3" s="82"/>
-      <c r="BN3" s="82"/>
-      <c r="BO3" s="82"/>
-      <c r="BP3" s="82"/>
-      <c r="BQ3" s="83"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="26"/>
+      <c r="BE3" s="26"/>
+      <c r="BF3" s="26"/>
+      <c r="BG3" s="26"/>
+      <c r="BH3" s="26"/>
+      <c r="BI3" s="26"/>
+      <c r="BJ3" s="26"/>
+      <c r="BK3" s="26"/>
+      <c r="BL3" s="26"/>
+      <c r="BM3" s="26"/>
+      <c r="BN3" s="26"/>
+      <c r="BO3" s="26"/>
+      <c r="BP3" s="26"/>
+      <c r="BQ3" s="27"/>
     </row>
     <row r="4" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="82"/>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="82"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="82"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="82"/>
-      <c r="AS4" s="82"/>
-      <c r="AT4" s="82"/>
-      <c r="AU4" s="82"/>
-      <c r="AV4" s="82"/>
-      <c r="AW4" s="82"/>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="82"/>
-      <c r="AZ4" s="82"/>
-      <c r="BA4" s="82"/>
-      <c r="BB4" s="82"/>
-      <c r="BC4" s="82"/>
-      <c r="BD4" s="82"/>
-      <c r="BE4" s="82"/>
-      <c r="BF4" s="82"/>
-      <c r="BG4" s="82"/>
-      <c r="BH4" s="82"/>
-      <c r="BI4" s="82"/>
-      <c r="BJ4" s="82"/>
-      <c r="BK4" s="82"/>
-      <c r="BL4" s="82"/>
-      <c r="BM4" s="82"/>
-      <c r="BN4" s="82"/>
-      <c r="BO4" s="82"/>
-      <c r="BP4" s="82"/>
-      <c r="BQ4" s="83"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26"/>
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="26"/>
+      <c r="BB4" s="26"/>
+      <c r="BC4" s="26"/>
+      <c r="BD4" s="26"/>
+      <c r="BE4" s="26"/>
+      <c r="BF4" s="26"/>
+      <c r="BG4" s="26"/>
+      <c r="BH4" s="26"/>
+      <c r="BI4" s="26"/>
+      <c r="BJ4" s="26"/>
+      <c r="BK4" s="26"/>
+      <c r="BL4" s="26"/>
+      <c r="BM4" s="26"/>
+      <c r="BN4" s="26"/>
+      <c r="BO4" s="26"/>
+      <c r="BP4" s="26"/>
+      <c r="BQ4" s="27"/>
     </row>
     <row r="5" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B5" s="81"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82"/>
-      <c r="AG5" s="82"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="82"/>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="82"/>
-      <c r="AL5" s="82"/>
-      <c r="AM5" s="82"/>
-      <c r="AN5" s="82"/>
-      <c r="AO5" s="82"/>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="82"/>
-      <c r="AS5" s="82"/>
-      <c r="AT5" s="82"/>
-      <c r="AU5" s="82"/>
-      <c r="AV5" s="82"/>
-      <c r="AW5" s="82"/>
-      <c r="AX5" s="82"/>
-      <c r="AY5" s="82"/>
-      <c r="AZ5" s="82"/>
-      <c r="BA5" s="82"/>
-      <c r="BB5" s="82"/>
-      <c r="BC5" s="82"/>
-      <c r="BD5" s="82"/>
-      <c r="BE5" s="82"/>
-      <c r="BF5" s="82"/>
-      <c r="BG5" s="82"/>
-      <c r="BH5" s="82"/>
-      <c r="BI5" s="82"/>
-      <c r="BJ5" s="82"/>
-      <c r="BK5" s="82"/>
-      <c r="BL5" s="82"/>
-      <c r="BM5" s="82"/>
-      <c r="BN5" s="82"/>
-      <c r="BO5" s="82"/>
-      <c r="BP5" s="82"/>
-      <c r="BQ5" s="83"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="26"/>
+      <c r="AR5" s="26"/>
+      <c r="AS5" s="26"/>
+      <c r="AT5" s="26"/>
+      <c r="AU5" s="26"/>
+      <c r="AV5" s="26"/>
+      <c r="AW5" s="26"/>
+      <c r="AX5" s="26"/>
+      <c r="AY5" s="26"/>
+      <c r="AZ5" s="26"/>
+      <c r="BA5" s="26"/>
+      <c r="BB5" s="26"/>
+      <c r="BC5" s="26"/>
+      <c r="BD5" s="26"/>
+      <c r="BE5" s="26"/>
+      <c r="BF5" s="26"/>
+      <c r="BG5" s="26"/>
+      <c r="BH5" s="26"/>
+      <c r="BI5" s="26"/>
+      <c r="BJ5" s="26"/>
+      <c r="BK5" s="26"/>
+      <c r="BL5" s="26"/>
+      <c r="BM5" s="26"/>
+      <c r="BN5" s="26"/>
+      <c r="BO5" s="26"/>
+      <c r="BP5" s="26"/>
+      <c r="BQ5" s="27"/>
     </row>
     <row r="6" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="82"/>
-      <c r="AE6" s="82"/>
-      <c r="AF6" s="82"/>
-      <c r="AG6" s="82"/>
-      <c r="AH6" s="82"/>
-      <c r="AI6" s="82"/>
-      <c r="AJ6" s="82"/>
-      <c r="AK6" s="82"/>
-      <c r="AL6" s="82"/>
-      <c r="AM6" s="82"/>
-      <c r="AN6" s="82"/>
-      <c r="AO6" s="82"/>
-      <c r="AP6" s="82"/>
-      <c r="AQ6" s="82"/>
-      <c r="AR6" s="82"/>
-      <c r="AS6" s="82"/>
-      <c r="AT6" s="82"/>
-      <c r="AU6" s="82"/>
-      <c r="AV6" s="82"/>
-      <c r="AW6" s="82"/>
-      <c r="AX6" s="82"/>
-      <c r="AY6" s="82"/>
-      <c r="AZ6" s="82"/>
-      <c r="BA6" s="82"/>
-      <c r="BB6" s="82"/>
-      <c r="BC6" s="82"/>
-      <c r="BD6" s="82"/>
-      <c r="BE6" s="82"/>
-      <c r="BF6" s="82"/>
-      <c r="BG6" s="82"/>
-      <c r="BH6" s="82"/>
-      <c r="BI6" s="82"/>
-      <c r="BJ6" s="82"/>
-      <c r="BK6" s="82"/>
-      <c r="BL6" s="82"/>
-      <c r="BM6" s="82"/>
-      <c r="BN6" s="82"/>
-      <c r="BO6" s="82"/>
-      <c r="BP6" s="82"/>
-      <c r="BQ6" s="83"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="26"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="26"/>
+      <c r="AV6" s="26"/>
+      <c r="AW6" s="26"/>
+      <c r="AX6" s="26"/>
+      <c r="AY6" s="26"/>
+      <c r="AZ6" s="26"/>
+      <c r="BA6" s="26"/>
+      <c r="BB6" s="26"/>
+      <c r="BC6" s="26"/>
+      <c r="BD6" s="26"/>
+      <c r="BE6" s="26"/>
+      <c r="BF6" s="26"/>
+      <c r="BG6" s="26"/>
+      <c r="BH6" s="26"/>
+      <c r="BI6" s="26"/>
+      <c r="BJ6" s="26"/>
+      <c r="BK6" s="26"/>
+      <c r="BL6" s="26"/>
+      <c r="BM6" s="26"/>
+      <c r="BN6" s="26"/>
+      <c r="BO6" s="26"/>
+      <c r="BP6" s="26"/>
+      <c r="BQ6" s="27"/>
     </row>
     <row r="7" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="85"/>
-      <c r="AF7" s="85"/>
-      <c r="AG7" s="85"/>
-      <c r="AH7" s="85"/>
-      <c r="AI7" s="85"/>
-      <c r="AJ7" s="85"/>
-      <c r="AK7" s="85"/>
-      <c r="AL7" s="85"/>
-      <c r="AM7" s="85"/>
-      <c r="AN7" s="85"/>
-      <c r="AO7" s="85"/>
-      <c r="AP7" s="85"/>
-      <c r="AQ7" s="85"/>
-      <c r="AR7" s="85"/>
-      <c r="AS7" s="85"/>
-      <c r="AT7" s="85"/>
-      <c r="AU7" s="85"/>
-      <c r="AV7" s="85"/>
-      <c r="AW7" s="85"/>
-      <c r="AX7" s="85"/>
-      <c r="AY7" s="85"/>
-      <c r="AZ7" s="85"/>
-      <c r="BA7" s="85"/>
-      <c r="BB7" s="85"/>
-      <c r="BC7" s="85"/>
-      <c r="BD7" s="85"/>
-      <c r="BE7" s="85"/>
-      <c r="BF7" s="85"/>
-      <c r="BG7" s="85"/>
-      <c r="BH7" s="85"/>
-      <c r="BI7" s="85"/>
-      <c r="BJ7" s="85"/>
-      <c r="BK7" s="85"/>
-      <c r="BL7" s="85"/>
-      <c r="BM7" s="85"/>
-      <c r="BN7" s="85"/>
-      <c r="BO7" s="85"/>
-      <c r="BP7" s="85"/>
-      <c r="BQ7" s="86"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="29"/>
+      <c r="BA7" s="29"/>
+      <c r="BB7" s="29"/>
+      <c r="BC7" s="29"/>
+      <c r="BD7" s="29"/>
+      <c r="BE7" s="29"/>
+      <c r="BF7" s="29"/>
+      <c r="BG7" s="29"/>
+      <c r="BH7" s="29"/>
+      <c r="BI7" s="29"/>
+      <c r="BJ7" s="29"/>
+      <c r="BK7" s="29"/>
+      <c r="BL7" s="29"/>
+      <c r="BM7" s="29"/>
+      <c r="BN7" s="29"/>
+      <c r="BO7" s="29"/>
+      <c r="BP7" s="29"/>
+      <c r="BQ7" s="30"/>
     </row>
     <row r="8" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="49" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="50"/>
-      <c r="AJ8" s="50"/>
-      <c r="AK8" s="50"/>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="50"/>
-      <c r="AN8" s="50"/>
-      <c r="AO8" s="50"/>
-      <c r="AP8" s="50"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
-      <c r="AT8" s="50"/>
-      <c r="AU8" s="50"/>
-      <c r="AV8" s="50"/>
-      <c r="AW8" s="50"/>
-      <c r="AX8" s="50"/>
-      <c r="AY8" s="50"/>
-      <c r="AZ8" s="50"/>
-      <c r="BA8" s="50"/>
-      <c r="BB8" s="50"/>
-      <c r="BC8" s="50"/>
-      <c r="BD8" s="50"/>
-      <c r="BE8" s="50"/>
-      <c r="BF8" s="50"/>
-      <c r="BG8" s="50"/>
-      <c r="BH8" s="50"/>
-      <c r="BI8" s="50"/>
-      <c r="BJ8" s="50"/>
-      <c r="BK8" s="50"/>
-      <c r="BL8" s="50"/>
-      <c r="BM8" s="50"/>
-      <c r="BN8" s="50"/>
-      <c r="BO8" s="50"/>
-      <c r="BP8" s="50"/>
-      <c r="BQ8" s="51"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="42"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="42"/>
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="42"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="42"/>
+      <c r="AS8" s="42"/>
+      <c r="AT8" s="42"/>
+      <c r="AU8" s="42"/>
+      <c r="AV8" s="42"/>
+      <c r="AW8" s="42"/>
+      <c r="AX8" s="42"/>
+      <c r="AY8" s="42"/>
+      <c r="AZ8" s="42"/>
+      <c r="BA8" s="42"/>
+      <c r="BB8" s="42"/>
+      <c r="BC8" s="42"/>
+      <c r="BD8" s="42"/>
+      <c r="BE8" s="42"/>
+      <c r="BF8" s="42"/>
+      <c r="BG8" s="42"/>
+      <c r="BH8" s="42"/>
+      <c r="BI8" s="42"/>
+      <c r="BJ8" s="42"/>
+      <c r="BK8" s="42"/>
+      <c r="BL8" s="42"/>
+      <c r="BM8" s="42"/>
+      <c r="BN8" s="42"/>
+      <c r="BO8" s="42"/>
+      <c r="BP8" s="42"/>
+      <c r="BQ8" s="43"/>
     </row>
     <row r="9" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="53"/>
-      <c r="AL9" s="53"/>
-      <c r="AM9" s="53"/>
-      <c r="AN9" s="53"/>
-      <c r="AO9" s="53"/>
-      <c r="AP9" s="53"/>
-      <c r="AQ9" s="53"/>
-      <c r="AR9" s="53"/>
-      <c r="AS9" s="53"/>
-      <c r="AT9" s="53"/>
-      <c r="AU9" s="53"/>
-      <c r="AV9" s="53"/>
-      <c r="AW9" s="53"/>
-      <c r="AX9" s="53"/>
-      <c r="AY9" s="53"/>
-      <c r="AZ9" s="53"/>
-      <c r="BA9" s="53"/>
-      <c r="BB9" s="53"/>
-      <c r="BC9" s="53"/>
-      <c r="BD9" s="53"/>
-      <c r="BE9" s="53"/>
-      <c r="BF9" s="53"/>
-      <c r="BG9" s="53"/>
-      <c r="BH9" s="53"/>
-      <c r="BI9" s="53"/>
-      <c r="BJ9" s="53"/>
-      <c r="BK9" s="53"/>
-      <c r="BL9" s="53"/>
-      <c r="BM9" s="53"/>
-      <c r="BN9" s="53"/>
-      <c r="BO9" s="53"/>
-      <c r="BP9" s="53"/>
-      <c r="BQ9" s="54"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="45"/>
+      <c r="AY9" s="45"/>
+      <c r="AZ9" s="45"/>
+      <c r="BA9" s="45"/>
+      <c r="BB9" s="45"/>
+      <c r="BC9" s="45"/>
+      <c r="BD9" s="45"/>
+      <c r="BE9" s="45"/>
+      <c r="BF9" s="45"/>
+      <c r="BG9" s="45"/>
+      <c r="BH9" s="45"/>
+      <c r="BI9" s="45"/>
+      <c r="BJ9" s="45"/>
+      <c r="BK9" s="45"/>
+      <c r="BL9" s="45"/>
+      <c r="BM9" s="45"/>
+      <c r="BN9" s="45"/>
+      <c r="BO9" s="45"/>
+      <c r="BP9" s="45"/>
+      <c r="BQ9" s="46"/>
     </row>
     <row r="10" spans="2:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="58" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="58" t="s">
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="32"/>
+      <c r="AP10" s="33"/>
+      <c r="AQ10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="87"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="88"/>
-      <c r="AQ10" s="58" t="s">
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="32"/>
+      <c r="AX10" s="32"/>
+      <c r="AY10" s="32"/>
+      <c r="AZ10" s="32"/>
+      <c r="BA10" s="32"/>
+      <c r="BB10" s="32"/>
+      <c r="BC10" s="32"/>
+      <c r="BD10" s="32"/>
+      <c r="BE10" s="32"/>
+      <c r="BF10" s="32"/>
+      <c r="BG10" s="32"/>
+      <c r="BH10" s="32"/>
+      <c r="BI10" s="32"/>
+      <c r="BJ10" s="32"/>
+      <c r="BK10" s="32"/>
+      <c r="BL10" s="32"/>
+      <c r="BM10" s="32"/>
+      <c r="BN10" s="32"/>
+      <c r="BO10" s="32"/>
+      <c r="BP10" s="32"/>
+      <c r="BQ10" s="33"/>
+    </row>
+    <row r="11" spans="2:69" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="35"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="35"/>
+      <c r="AS11" s="35"/>
+      <c r="AT11" s="35"/>
+      <c r="AU11" s="35"/>
+      <c r="AV11" s="35"/>
+      <c r="AW11" s="35"/>
+      <c r="AX11" s="35"/>
+      <c r="AY11" s="35"/>
+      <c r="AZ11" s="35"/>
+      <c r="BA11" s="35"/>
+      <c r="BB11" s="35"/>
+      <c r="BC11" s="35"/>
+      <c r="BD11" s="35"/>
+      <c r="BE11" s="35"/>
+      <c r="BF11" s="35"/>
+      <c r="BG11" s="35"/>
+      <c r="BH11" s="35"/>
+      <c r="BI11" s="35"/>
+      <c r="BJ11" s="35"/>
+      <c r="BK11" s="35"/>
+      <c r="BL11" s="35"/>
+      <c r="BM11" s="35"/>
+      <c r="BN11" s="35"/>
+      <c r="BO11" s="35"/>
+      <c r="BP11" s="35"/>
+      <c r="BQ11" s="36"/>
+    </row>
+    <row r="12" spans="2:69" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AR10" s="87"/>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="87"/>
-      <c r="AU10" s="87"/>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="87"/>
-      <c r="AX10" s="87"/>
-      <c r="AY10" s="87"/>
-      <c r="AZ10" s="87"/>
-      <c r="BA10" s="87"/>
-      <c r="BB10" s="87"/>
-      <c r="BC10" s="87"/>
-      <c r="BD10" s="87"/>
-      <c r="BE10" s="87"/>
-      <c r="BF10" s="87"/>
-      <c r="BG10" s="87"/>
-      <c r="BH10" s="87"/>
-      <c r="BI10" s="87"/>
-      <c r="BJ10" s="87"/>
-      <c r="BK10" s="87"/>
-      <c r="BL10" s="87"/>
-      <c r="BM10" s="87"/>
-      <c r="BN10" s="87"/>
-      <c r="BO10" s="87"/>
-      <c r="BP10" s="87"/>
-      <c r="BQ10" s="88"/>
-    </row>
-    <row r="11" spans="2:69" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="91"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="90"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="90"/>
-      <c r="AL11" s="90"/>
-      <c r="AM11" s="90"/>
-      <c r="AN11" s="90"/>
-      <c r="AO11" s="90"/>
-      <c r="AP11" s="91"/>
-      <c r="AQ11" s="89"/>
-      <c r="AR11" s="90"/>
-      <c r="AS11" s="90"/>
-      <c r="AT11" s="90"/>
-      <c r="AU11" s="90"/>
-      <c r="AV11" s="90"/>
-      <c r="AW11" s="90"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="90"/>
-      <c r="BA11" s="90"/>
-      <c r="BB11" s="90"/>
-      <c r="BC11" s="90"/>
-      <c r="BD11" s="90"/>
-      <c r="BE11" s="90"/>
-      <c r="BF11" s="90"/>
-      <c r="BG11" s="90"/>
-      <c r="BH11" s="90"/>
-      <c r="BI11" s="90"/>
-      <c r="BJ11" s="90"/>
-      <c r="BK11" s="90"/>
-      <c r="BL11" s="90"/>
-      <c r="BM11" s="90"/>
-      <c r="BN11" s="90"/>
-      <c r="BO11" s="90"/>
-      <c r="BP11" s="90"/>
-      <c r="BQ11" s="91"/>
-    </row>
-    <row r="12" spans="2:69" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="58" t="s">
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="58" t="s">
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="55"/>
+      <c r="AP12" s="56"/>
+      <c r="AQ12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="64"/>
-      <c r="AH12" s="64"/>
-      <c r="AI12" s="64"/>
-      <c r="AJ12" s="64"/>
-      <c r="AK12" s="64"/>
-      <c r="AL12" s="64"/>
-      <c r="AM12" s="64"/>
-      <c r="AN12" s="64"/>
-      <c r="AO12" s="64"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR12" s="64"/>
-      <c r="AS12" s="64"/>
-      <c r="AT12" s="64"/>
-      <c r="AU12" s="64"/>
-      <c r="AV12" s="64"/>
-      <c r="AW12" s="64"/>
-      <c r="AX12" s="64"/>
-      <c r="AY12" s="64"/>
-      <c r="AZ12" s="64"/>
-      <c r="BA12" s="64"/>
-      <c r="BB12" s="64"/>
-      <c r="BC12" s="64"/>
-      <c r="BD12" s="64"/>
-      <c r="BE12" s="64"/>
-      <c r="BF12" s="64"/>
-      <c r="BG12" s="64"/>
-      <c r="BH12" s="64"/>
-      <c r="BI12" s="64"/>
-      <c r="BJ12" s="64"/>
-      <c r="BK12" s="64"/>
-      <c r="BL12" s="64"/>
-      <c r="BM12" s="64"/>
-      <c r="BN12" s="64"/>
-      <c r="BO12" s="64"/>
-      <c r="BP12" s="64"/>
-      <c r="BQ12" s="65"/>
+      <c r="AR12" s="55"/>
+      <c r="AS12" s="55"/>
+      <c r="AT12" s="55"/>
+      <c r="AU12" s="55"/>
+      <c r="AV12" s="55"/>
+      <c r="AW12" s="55"/>
+      <c r="AX12" s="55"/>
+      <c r="AY12" s="55"/>
+      <c r="AZ12" s="55"/>
+      <c r="BA12" s="55"/>
+      <c r="BB12" s="55"/>
+      <c r="BC12" s="55"/>
+      <c r="BD12" s="55"/>
+      <c r="BE12" s="55"/>
+      <c r="BF12" s="55"/>
+      <c r="BG12" s="55"/>
+      <c r="BH12" s="55"/>
+      <c r="BI12" s="55"/>
+      <c r="BJ12" s="55"/>
+      <c r="BK12" s="55"/>
+      <c r="BL12" s="55"/>
+      <c r="BM12" s="55"/>
+      <c r="BN12" s="55"/>
+      <c r="BO12" s="55"/>
+      <c r="BP12" s="55"/>
+      <c r="BQ12" s="56"/>
     </row>
     <row r="13" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="63"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="67"/>
-      <c r="AM13" s="67"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="67"/>
-      <c r="AP13" s="68"/>
-      <c r="AQ13" s="66"/>
-      <c r="AR13" s="67"/>
-      <c r="AS13" s="67"/>
-      <c r="AT13" s="67"/>
-      <c r="AU13" s="67"/>
-      <c r="AV13" s="67"/>
-      <c r="AW13" s="67"/>
-      <c r="AX13" s="67"/>
-      <c r="AY13" s="67"/>
-      <c r="AZ13" s="67"/>
-      <c r="BA13" s="67"/>
-      <c r="BB13" s="67"/>
-      <c r="BC13" s="67"/>
-      <c r="BD13" s="67"/>
-      <c r="BE13" s="67"/>
-      <c r="BF13" s="67"/>
-      <c r="BG13" s="67"/>
-      <c r="BH13" s="67"/>
-      <c r="BI13" s="67"/>
-      <c r="BJ13" s="67"/>
-      <c r="BK13" s="67"/>
-      <c r="BL13" s="67"/>
-      <c r="BM13" s="67"/>
-      <c r="BN13" s="67"/>
-      <c r="BO13" s="67"/>
-      <c r="BP13" s="67"/>
-      <c r="BQ13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="58"/>
+      <c r="AM13" s="58"/>
+      <c r="AN13" s="58"/>
+      <c r="AO13" s="58"/>
+      <c r="AP13" s="59"/>
+      <c r="AQ13" s="57"/>
+      <c r="AR13" s="58"/>
+      <c r="AS13" s="58"/>
+      <c r="AT13" s="58"/>
+      <c r="AU13" s="58"/>
+      <c r="AV13" s="58"/>
+      <c r="AW13" s="58"/>
+      <c r="AX13" s="58"/>
+      <c r="AY13" s="58"/>
+      <c r="AZ13" s="58"/>
+      <c r="BA13" s="58"/>
+      <c r="BB13" s="58"/>
+      <c r="BC13" s="58"/>
+      <c r="BD13" s="58"/>
+      <c r="BE13" s="58"/>
+      <c r="BF13" s="58"/>
+      <c r="BG13" s="58"/>
+      <c r="BH13" s="58"/>
+      <c r="BI13" s="58"/>
+      <c r="BJ13" s="58"/>
+      <c r="BK13" s="58"/>
+      <c r="BL13" s="58"/>
+      <c r="BM13" s="58"/>
+      <c r="BN13" s="58"/>
+      <c r="BO13" s="58"/>
+      <c r="BP13" s="58"/>
+      <c r="BQ13" s="59"/>
     </row>
     <row r="14" spans="2:69" ht="33" x14ac:dyDescent="0.45">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="55" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="56"/>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="56"/>
-      <c r="AJ14" s="56"/>
-      <c r="AK14" s="56"/>
-      <c r="AL14" s="56"/>
-      <c r="AM14" s="56"/>
-      <c r="AN14" s="56"/>
-      <c r="AO14" s="56"/>
-      <c r="AP14" s="56"/>
-      <c r="AQ14" s="56"/>
-      <c r="AR14" s="56"/>
-      <c r="AS14" s="56"/>
-      <c r="AT14" s="56"/>
-      <c r="AU14" s="56"/>
-      <c r="AV14" s="56"/>
-      <c r="AW14" s="56"/>
-      <c r="AX14" s="56"/>
-      <c r="AY14" s="56"/>
-      <c r="AZ14" s="56"/>
-      <c r="BA14" s="56"/>
-      <c r="BB14" s="56"/>
-      <c r="BC14" s="56"/>
-      <c r="BD14" s="56"/>
-      <c r="BE14" s="56"/>
-      <c r="BF14" s="56"/>
-      <c r="BG14" s="56"/>
-      <c r="BH14" s="56"/>
-      <c r="BI14" s="56"/>
-      <c r="BJ14" s="56"/>
-      <c r="BK14" s="56"/>
-      <c r="BL14" s="56"/>
-      <c r="BM14" s="56"/>
-      <c r="BN14" s="56"/>
-      <c r="BO14" s="56"/>
-      <c r="BP14" s="56"/>
-      <c r="BQ14" s="57"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="48"/>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="48"/>
+      <c r="AS14" s="48"/>
+      <c r="AT14" s="48"/>
+      <c r="AU14" s="48"/>
+      <c r="AV14" s="48"/>
+      <c r="AW14" s="48"/>
+      <c r="AX14" s="48"/>
+      <c r="AY14" s="48"/>
+      <c r="AZ14" s="48"/>
+      <c r="BA14" s="48"/>
+      <c r="BB14" s="48"/>
+      <c r="BC14" s="48"/>
+      <c r="BD14" s="48"/>
+      <c r="BE14" s="48"/>
+      <c r="BF14" s="48"/>
+      <c r="BG14" s="48"/>
+      <c r="BH14" s="48"/>
+      <c r="BI14" s="48"/>
+      <c r="BJ14" s="48"/>
+      <c r="BK14" s="48"/>
+      <c r="BL14" s="48"/>
+      <c r="BM14" s="48"/>
+      <c r="BN14" s="48"/>
+      <c r="BO14" s="48"/>
+      <c r="BP14" s="48"/>
+      <c r="BQ14" s="49"/>
     </row>
     <row r="15" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="48">
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="39">
         <v>1</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48">
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39">
         <v>2</v>
       </c>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48">
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39">
         <v>3</v>
       </c>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48">
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39">
         <v>4</v>
       </c>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48">
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39">
         <v>5</v>
       </c>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48">
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39">
         <v>6</v>
       </c>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="48">
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39">
         <v>7</v>
       </c>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="48"/>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="48">
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="39"/>
+      <c r="AM15" s="39"/>
+      <c r="AN15" s="39">
         <v>8</v>
       </c>
-      <c r="AO15" s="48"/>
-      <c r="AP15" s="48"/>
-      <c r="AQ15" s="48"/>
-      <c r="AR15" s="48"/>
-      <c r="AS15" s="48">
+      <c r="AO15" s="39"/>
+      <c r="AP15" s="39"/>
+      <c r="AQ15" s="39"/>
+      <c r="AR15" s="39"/>
+      <c r="AS15" s="39">
         <v>9</v>
       </c>
-      <c r="AT15" s="48"/>
-      <c r="AU15" s="48"/>
-      <c r="AV15" s="48"/>
-      <c r="AW15" s="48"/>
-      <c r="AX15" s="48">
+      <c r="AT15" s="39"/>
+      <c r="AU15" s="39"/>
+      <c r="AV15" s="39"/>
+      <c r="AW15" s="39"/>
+      <c r="AX15" s="39">
         <v>10</v>
       </c>
-      <c r="AY15" s="48"/>
-      <c r="AZ15" s="48"/>
-      <c r="BA15" s="48"/>
-      <c r="BB15" s="48"/>
-      <c r="BC15" s="48">
+      <c r="AY15" s="39"/>
+      <c r="AZ15" s="39"/>
+      <c r="BA15" s="39"/>
+      <c r="BB15" s="39"/>
+      <c r="BC15" s="39">
         <v>11</v>
       </c>
-      <c r="BD15" s="48"/>
-      <c r="BE15" s="48"/>
-      <c r="BF15" s="48"/>
-      <c r="BG15" s="48"/>
-      <c r="BH15" s="48">
+      <c r="BD15" s="39"/>
+      <c r="BE15" s="39"/>
+      <c r="BF15" s="39"/>
+      <c r="BG15" s="39"/>
+      <c r="BH15" s="39">
         <v>12</v>
       </c>
-      <c r="BI15" s="48"/>
-      <c r="BJ15" s="48"/>
-      <c r="BK15" s="48"/>
-      <c r="BL15" s="48"/>
-      <c r="BM15" s="48">
+      <c r="BI15" s="39"/>
+      <c r="BJ15" s="39"/>
+      <c r="BK15" s="39"/>
+      <c r="BL15" s="39"/>
+      <c r="BM15" s="39">
         <v>13</v>
       </c>
-      <c r="BN15" s="48"/>
-      <c r="BO15" s="48"/>
-      <c r="BP15" s="48"/>
-      <c r="BQ15" s="48"/>
+      <c r="BN15" s="39"/>
+      <c r="BO15" s="39"/>
+      <c r="BP15" s="39"/>
+      <c r="BQ15" s="39"/>
     </row>
     <row r="16" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="2" t="s">
         <v>0</v>
       </c>
@@ -2798,457 +2801,457 @@
       </c>
     </row>
     <row r="17" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B17" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92" t="s">
+      <c r="B17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="12"/>
+      <c r="BJ17" s="12"/>
+      <c r="BK17" s="12"/>
+      <c r="BL17" s="12"/>
+      <c r="BM17" s="12"/>
+      <c r="BN17" s="12"/>
+      <c r="BO17" s="12"/>
+      <c r="BP17" s="12"/>
+      <c r="BQ17" s="12"/>
+    </row>
+    <row r="18" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="R17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="S17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="T17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="U17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="W17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="X17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM17" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN17" s="92"/>
-      <c r="AO17" s="92"/>
-      <c r="AP17" s="92"/>
-      <c r="AQ17" s="92"/>
-      <c r="AR17" s="92"/>
-      <c r="AS17" s="92"/>
-      <c r="AT17" s="92"/>
-      <c r="AU17" s="92"/>
-      <c r="AV17" s="92"/>
-      <c r="AW17" s="92"/>
-      <c r="AX17" s="92"/>
-      <c r="AY17" s="92"/>
-      <c r="AZ17" s="92"/>
-      <c r="BA17" s="92"/>
-      <c r="BB17" s="92"/>
-      <c r="BC17" s="92"/>
-      <c r="BD17" s="92"/>
-      <c r="BE17" s="92"/>
-      <c r="BF17" s="92"/>
-      <c r="BG17" s="92"/>
-      <c r="BH17" s="92"/>
-      <c r="BI17" s="92"/>
-      <c r="BJ17" s="92"/>
-      <c r="BK17" s="92"/>
-      <c r="BL17" s="92"/>
-      <c r="BM17" s="92"/>
-      <c r="BN17" s="92"/>
-      <c r="BO17" s="92"/>
-      <c r="BP17" s="92"/>
-      <c r="BQ17" s="92"/>
-    </row>
-    <row r="18" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B18" s="71" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12"/>
+      <c r="BG18" s="12"/>
+      <c r="BH18" s="12"/>
+      <c r="BI18" s="12"/>
+      <c r="BJ18" s="12"/>
+      <c r="BK18" s="12"/>
+      <c r="BL18" s="12"/>
+      <c r="BM18" s="12"/>
+      <c r="BN18" s="12"/>
+      <c r="BO18" s="12"/>
+      <c r="BP18" s="12"/>
+      <c r="BQ18" s="12"/>
+    </row>
+    <row r="19" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="92"/>
-      <c r="AA18" s="92"/>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="92"/>
-      <c r="AD18" s="92"/>
-      <c r="AE18" s="92"/>
-      <c r="AF18" s="92"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="92"/>
-      <c r="AI18" s="92"/>
-      <c r="AJ18" s="92"/>
-      <c r="AK18" s="92"/>
-      <c r="AL18" s="92"/>
-      <c r="AM18" s="92"/>
-      <c r="AN18" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO18" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP18" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ18" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR18" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS18" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT18" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU18" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV18" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AW18" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AX18" s="92"/>
-      <c r="AY18" s="92"/>
-      <c r="AZ18" s="92"/>
-      <c r="BA18" s="92"/>
-      <c r="BB18" s="92"/>
-      <c r="BC18" s="92"/>
-      <c r="BD18" s="92"/>
-      <c r="BE18" s="92"/>
-      <c r="BF18" s="92"/>
-      <c r="BG18" s="92"/>
-      <c r="BH18" s="92"/>
-      <c r="BI18" s="92"/>
-      <c r="BJ18" s="92"/>
-      <c r="BK18" s="92"/>
-      <c r="BL18" s="92"/>
-      <c r="BM18" s="92"/>
-      <c r="BN18" s="92"/>
-      <c r="BO18" s="92"/>
-      <c r="BP18" s="92"/>
-      <c r="BQ18" s="92"/>
-    </row>
-    <row r="19" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B19" s="71" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BJ19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM19" s="12"/>
+      <c r="BN19" s="12"/>
+      <c r="BO19" s="12"/>
+      <c r="BP19" s="12"/>
+      <c r="BQ19" s="12"/>
+    </row>
+    <row r="20" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="92"/>
-      <c r="AD19" s="92"/>
-      <c r="AE19" s="92"/>
-      <c r="AF19" s="92"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="92"/>
-      <c r="AI19" s="92"/>
-      <c r="AJ19" s="92"/>
-      <c r="AK19" s="92"/>
-      <c r="AL19" s="92"/>
-      <c r="AM19" s="92"/>
-      <c r="AN19" s="92"/>
-      <c r="AO19" s="92"/>
-      <c r="AP19" s="92"/>
-      <c r="AQ19" s="92"/>
-      <c r="AR19" s="93"/>
-      <c r="AS19" s="93"/>
-      <c r="AT19" s="93"/>
-      <c r="AU19" s="92"/>
-      <c r="AV19" s="92"/>
-      <c r="AW19" s="92"/>
-      <c r="AX19" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY19" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ19" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BA19" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB19" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BC19" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD19" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BE19" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BF19" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BG19" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BH19" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BI19" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BJ19" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BK19" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BL19" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BM19" s="92"/>
-      <c r="BN19" s="92"/>
-      <c r="BO19" s="92"/>
-      <c r="BP19" s="92"/>
-      <c r="BQ19" s="92"/>
-    </row>
-    <row r="20" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B20" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="92"/>
-      <c r="Z20" s="92"/>
-      <c r="AA20" s="92"/>
-      <c r="AB20" s="92"/>
-      <c r="AC20" s="92"/>
-      <c r="AD20" s="92"/>
-      <c r="AE20" s="92"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="92"/>
-      <c r="AI20" s="92"/>
-      <c r="AJ20" s="92"/>
-      <c r="AK20" s="92"/>
-      <c r="AL20" s="92"/>
-      <c r="AM20" s="92"/>
-      <c r="AN20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AW20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AX20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BA20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BC20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BE20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BF20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BG20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BH20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BI20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BJ20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BK20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BL20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BM20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BN20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BO20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BP20" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="BQ20" s="92" t="s">
-        <v>28</v>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BJ20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ20" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -3316,9 +3319,9 @@
       <c r="BQ21" s="3"/>
     </row>
     <row r="22" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3386,9 +3389,9 @@
       <c r="BQ22" s="3"/>
     </row>
     <row r="23" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -3456,9 +3459,9 @@
       <c r="BQ23" s="3"/>
     </row>
     <row r="24" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -3526,9 +3529,9 @@
       <c r="BQ24" s="3"/>
     </row>
     <row r="25" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -3596,9 +3599,9 @@
       <c r="BQ25" s="3"/>
     </row>
     <row r="26" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -3666,9 +3669,9 @@
       <c r="BQ26" s="3"/>
     </row>
     <row r="27" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -3736,9 +3739,9 @@
       <c r="BQ27" s="3"/>
     </row>
     <row r="28" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -3806,9 +3809,9 @@
       <c r="BQ28" s="3"/>
     </row>
     <row r="29" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -3876,9 +3879,9 @@
       <c r="BQ29" s="3"/>
     </row>
     <row r="30" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -3946,9 +3949,9 @@
       <c r="BQ30" s="3"/>
     </row>
     <row r="31" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -4016,9 +4019,9 @@
       <c r="BQ31" s="3"/>
     </row>
     <row r="32" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -4086,9 +4089,9 @@
       <c r="BQ32" s="3"/>
     </row>
     <row r="33" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -4156,9 +4159,9 @@
       <c r="BQ33" s="3"/>
     </row>
     <row r="34" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="72"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="74"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -4226,9 +4229,9 @@
       <c r="BQ34" s="3"/>
     </row>
     <row r="35" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -4296,9 +4299,9 @@
       <c r="BQ35" s="3"/>
     </row>
     <row r="36" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -4366,9 +4369,9 @@
       <c r="BQ36" s="3"/>
     </row>
     <row r="37" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -4436,9 +4439,9 @@
       <c r="BQ37" s="3"/>
     </row>
     <row r="38" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -4506,9 +4509,9 @@
       <c r="BQ38" s="3"/>
     </row>
     <row r="39" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -4576,9 +4579,9 @@
       <c r="BQ39" s="3"/>
     </row>
     <row r="40" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -4646,9 +4649,9 @@
       <c r="BQ40" s="3"/>
     </row>
     <row r="41" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B41" s="75"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="77"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4716,9 +4719,9 @@
       <c r="BQ41" s="3"/>
     </row>
     <row r="42" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="72"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="74"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -4786,9 +4789,9 @@
       <c r="BQ42" s="3"/>
     </row>
     <row r="43" spans="2:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="72"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="74"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -4856,9 +4859,9 @@
       <c r="BQ43" s="3"/>
     </row>
     <row r="44" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -4926,9 +4929,9 @@
       <c r="BQ44" s="3"/>
     </row>
     <row r="45" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -4996,9 +4999,9 @@
       <c r="BQ45" s="3"/>
     </row>
     <row r="46" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B46" s="75"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="77"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -5431,47 +5434,47 @@
       <c r="AB53" s="10"/>
       <c r="AC53" s="10"/>
       <c r="AD53" s="10"/>
-      <c r="AE53" s="31" t="s">
+      <c r="AE53" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="AF53" s="31"/>
-      <c r="AG53" s="31"/>
-      <c r="AH53" s="31"/>
-      <c r="AI53" s="31"/>
-      <c r="AJ53" s="31"/>
-      <c r="AK53" s="31"/>
-      <c r="AL53" s="31"/>
-      <c r="AM53" s="31"/>
-      <c r="AN53" s="31"/>
-      <c r="AO53" s="31"/>
-      <c r="AP53" s="31"/>
-      <c r="AQ53" s="31"/>
-      <c r="AR53" s="31"/>
-      <c r="AS53" s="31"/>
-      <c r="AT53" s="31"/>
-      <c r="AU53" s="31"/>
-      <c r="AV53" s="31"/>
-      <c r="AW53" s="31"/>
-      <c r="AX53" s="31"/>
-      <c r="AY53" s="31"/>
-      <c r="AZ53" s="31"/>
-      <c r="BA53" s="31"/>
-      <c r="BB53" s="31"/>
-      <c r="BC53" s="31"/>
-      <c r="BD53" s="31"/>
-      <c r="BE53" s="31"/>
-      <c r="BF53" s="31"/>
-      <c r="BG53" s="31"/>
-      <c r="BH53" s="31"/>
-      <c r="BI53" s="31"/>
-      <c r="BJ53" s="31"/>
-      <c r="BK53" s="31"/>
-      <c r="BL53" s="31"/>
-      <c r="BM53" s="31"/>
-      <c r="BN53" s="31"/>
-      <c r="BO53" s="31"/>
-      <c r="BP53" s="31"/>
-      <c r="BQ53" s="31"/>
+      <c r="AF53" s="86"/>
+      <c r="AG53" s="86"/>
+      <c r="AH53" s="86"/>
+      <c r="AI53" s="86"/>
+      <c r="AJ53" s="86"/>
+      <c r="AK53" s="86"/>
+      <c r="AL53" s="86"/>
+      <c r="AM53" s="86"/>
+      <c r="AN53" s="86"/>
+      <c r="AO53" s="86"/>
+      <c r="AP53" s="86"/>
+      <c r="AQ53" s="86"/>
+      <c r="AR53" s="86"/>
+      <c r="AS53" s="86"/>
+      <c r="AT53" s="86"/>
+      <c r="AU53" s="86"/>
+      <c r="AV53" s="86"/>
+      <c r="AW53" s="86"/>
+      <c r="AX53" s="86"/>
+      <c r="AY53" s="86"/>
+      <c r="AZ53" s="86"/>
+      <c r="BA53" s="86"/>
+      <c r="BB53" s="86"/>
+      <c r="BC53" s="86"/>
+      <c r="BD53" s="86"/>
+      <c r="BE53" s="86"/>
+      <c r="BF53" s="86"/>
+      <c r="BG53" s="86"/>
+      <c r="BH53" s="86"/>
+      <c r="BI53" s="86"/>
+      <c r="BJ53" s="86"/>
+      <c r="BK53" s="86"/>
+      <c r="BL53" s="86"/>
+      <c r="BM53" s="86"/>
+      <c r="BN53" s="86"/>
+      <c r="BO53" s="86"/>
+      <c r="BP53" s="86"/>
+      <c r="BQ53" s="86"/>
     </row>
     <row r="54" spans="2:69" x14ac:dyDescent="0.25">
       <c r="D54" s="7"/>
@@ -5487,1323 +5490,1325 @@
       <c r="AB54" s="10"/>
       <c r="AC54" s="10"/>
       <c r="AD54" s="10"/>
-      <c r="AE54" s="31"/>
-      <c r="AF54" s="31"/>
-      <c r="AG54" s="31"/>
-      <c r="AH54" s="31"/>
-      <c r="AI54" s="31"/>
-      <c r="AJ54" s="31"/>
-      <c r="AK54" s="31"/>
-      <c r="AL54" s="31"/>
-      <c r="AM54" s="31"/>
-      <c r="AN54" s="31"/>
-      <c r="AO54" s="31"/>
-      <c r="AP54" s="31"/>
-      <c r="AQ54" s="31"/>
-      <c r="AR54" s="31"/>
-      <c r="AS54" s="31"/>
-      <c r="AT54" s="31"/>
-      <c r="AU54" s="31"/>
-      <c r="AV54" s="31"/>
-      <c r="AW54" s="31"/>
-      <c r="AX54" s="31"/>
-      <c r="AY54" s="31"/>
-      <c r="AZ54" s="31"/>
-      <c r="BA54" s="31"/>
-      <c r="BB54" s="31"/>
-      <c r="BC54" s="31"/>
-      <c r="BD54" s="31"/>
-      <c r="BE54" s="31"/>
-      <c r="BF54" s="31"/>
-      <c r="BG54" s="31"/>
-      <c r="BH54" s="31"/>
-      <c r="BI54" s="31"/>
-      <c r="BJ54" s="31"/>
-      <c r="BK54" s="31"/>
-      <c r="BL54" s="31"/>
-      <c r="BM54" s="31"/>
-      <c r="BN54" s="31"/>
-      <c r="BO54" s="31"/>
-      <c r="BP54" s="31"/>
-      <c r="BQ54" s="31"/>
+      <c r="AE54" s="86"/>
+      <c r="AF54" s="86"/>
+      <c r="AG54" s="86"/>
+      <c r="AH54" s="86"/>
+      <c r="AI54" s="86"/>
+      <c r="AJ54" s="86"/>
+      <c r="AK54" s="86"/>
+      <c r="AL54" s="86"/>
+      <c r="AM54" s="86"/>
+      <c r="AN54" s="86"/>
+      <c r="AO54" s="86"/>
+      <c r="AP54" s="86"/>
+      <c r="AQ54" s="86"/>
+      <c r="AR54" s="86"/>
+      <c r="AS54" s="86"/>
+      <c r="AT54" s="86"/>
+      <c r="AU54" s="86"/>
+      <c r="AV54" s="86"/>
+      <c r="AW54" s="86"/>
+      <c r="AX54" s="86"/>
+      <c r="AY54" s="86"/>
+      <c r="AZ54" s="86"/>
+      <c r="BA54" s="86"/>
+      <c r="BB54" s="86"/>
+      <c r="BC54" s="86"/>
+      <c r="BD54" s="86"/>
+      <c r="BE54" s="86"/>
+      <c r="BF54" s="86"/>
+      <c r="BG54" s="86"/>
+      <c r="BH54" s="86"/>
+      <c r="BI54" s="86"/>
+      <c r="BJ54" s="86"/>
+      <c r="BK54" s="86"/>
+      <c r="BL54" s="86"/>
+      <c r="BM54" s="86"/>
+      <c r="BN54" s="86"/>
+      <c r="BO54" s="86"/>
+      <c r="BP54" s="86"/>
+      <c r="BQ54" s="86"/>
     </row>
     <row r="55" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="44"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="63"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="22" t="s">
+      <c r="M55" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="23"/>
-      <c r="W55" s="23"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="23"/>
-      <c r="Z55" s="23"/>
-      <c r="AA55" s="23"/>
-      <c r="AB55" s="24"/>
+      <c r="N55" s="78"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="78"/>
+      <c r="Q55" s="78"/>
+      <c r="R55" s="78"/>
+      <c r="S55" s="78"/>
+      <c r="T55" s="78"/>
+      <c r="U55" s="78"/>
+      <c r="V55" s="78"/>
+      <c r="W55" s="78"/>
+      <c r="X55" s="78"/>
+      <c r="Y55" s="78"/>
+      <c r="Z55" s="78"/>
+      <c r="AA55" s="78"/>
+      <c r="AB55" s="79"/>
       <c r="AC55" s="11"/>
       <c r="AD55" s="11"/>
-      <c r="AE55" s="32" t="s">
+      <c r="AE55" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="AF55" s="33"/>
-      <c r="AG55" s="33"/>
-      <c r="AH55" s="33"/>
-      <c r="AI55" s="33"/>
-      <c r="AJ55" s="33"/>
-      <c r="AK55" s="33"/>
-      <c r="AL55" s="33"/>
-      <c r="AM55" s="33"/>
-      <c r="AN55" s="33"/>
-      <c r="AO55" s="33"/>
-      <c r="AP55" s="33"/>
-      <c r="AQ55" s="33"/>
-      <c r="AR55" s="33"/>
-      <c r="AS55" s="33"/>
-      <c r="AT55" s="33"/>
-      <c r="AU55" s="33"/>
-      <c r="AV55" s="33"/>
-      <c r="AW55" s="33"/>
-      <c r="AX55" s="33"/>
-      <c r="AY55" s="33"/>
-      <c r="AZ55" s="33"/>
-      <c r="BA55" s="33"/>
-      <c r="BB55" s="33"/>
-      <c r="BC55" s="33"/>
-      <c r="BD55" s="33"/>
-      <c r="BE55" s="33"/>
-      <c r="BF55" s="33"/>
-      <c r="BG55" s="33"/>
-      <c r="BH55" s="33"/>
-      <c r="BI55" s="33"/>
-      <c r="BJ55" s="33"/>
-      <c r="BK55" s="33"/>
-      <c r="BL55" s="33"/>
-      <c r="BM55" s="33"/>
-      <c r="BN55" s="33"/>
-      <c r="BO55" s="33"/>
-      <c r="BP55" s="33"/>
-      <c r="BQ55" s="34"/>
+      <c r="AF55" s="87"/>
+      <c r="AG55" s="87"/>
+      <c r="AH55" s="87"/>
+      <c r="AI55" s="87"/>
+      <c r="AJ55" s="87"/>
+      <c r="AK55" s="87"/>
+      <c r="AL55" s="87"/>
+      <c r="AM55" s="87"/>
+      <c r="AN55" s="87"/>
+      <c r="AO55" s="87"/>
+      <c r="AP55" s="87"/>
+      <c r="AQ55" s="87"/>
+      <c r="AR55" s="87"/>
+      <c r="AS55" s="87"/>
+      <c r="AT55" s="87"/>
+      <c r="AU55" s="87"/>
+      <c r="AV55" s="87"/>
+      <c r="AW55" s="87"/>
+      <c r="AX55" s="87"/>
+      <c r="AY55" s="87"/>
+      <c r="AZ55" s="87"/>
+      <c r="BA55" s="87"/>
+      <c r="BB55" s="87"/>
+      <c r="BC55" s="87"/>
+      <c r="BD55" s="87"/>
+      <c r="BE55" s="87"/>
+      <c r="BF55" s="87"/>
+      <c r="BG55" s="87"/>
+      <c r="BH55" s="87"/>
+      <c r="BI55" s="87"/>
+      <c r="BJ55" s="87"/>
+      <c r="BK55" s="87"/>
+      <c r="BL55" s="87"/>
+      <c r="BM55" s="87"/>
+      <c r="BN55" s="87"/>
+      <c r="BO55" s="87"/>
+      <c r="BP55" s="87"/>
+      <c r="BQ55" s="88"/>
     </row>
     <row r="56" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B56" s="45"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="47"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="66"/>
       <c r="K56" s="5"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="26"/>
-      <c r="S56" s="26"/>
-      <c r="T56" s="26"/>
-      <c r="U56" s="26"/>
-      <c r="V56" s="26"/>
-      <c r="W56" s="26"/>
-      <c r="X56" s="26"/>
-      <c r="Y56" s="26"/>
-      <c r="Z56" s="26"/>
-      <c r="AA56" s="26"/>
-      <c r="AB56" s="27"/>
+      <c r="M56" s="80"/>
+      <c r="N56" s="81"/>
+      <c r="O56" s="81"/>
+      <c r="P56" s="81"/>
+      <c r="Q56" s="81"/>
+      <c r="R56" s="81"/>
+      <c r="S56" s="81"/>
+      <c r="T56" s="81"/>
+      <c r="U56" s="81"/>
+      <c r="V56" s="81"/>
+      <c r="W56" s="81"/>
+      <c r="X56" s="81"/>
+      <c r="Y56" s="81"/>
+      <c r="Z56" s="81"/>
+      <c r="AA56" s="81"/>
+      <c r="AB56" s="82"/>
       <c r="AC56" s="11"/>
       <c r="AD56" s="11"/>
-      <c r="AE56" s="35"/>
-      <c r="AF56" s="36"/>
-      <c r="AG56" s="36"/>
-      <c r="AH56" s="36"/>
-      <c r="AI56" s="36"/>
-      <c r="AJ56" s="36"/>
-      <c r="AK56" s="36"/>
-      <c r="AL56" s="36"/>
-      <c r="AM56" s="36"/>
-      <c r="AN56" s="36"/>
-      <c r="AO56" s="36"/>
-      <c r="AP56" s="36"/>
-      <c r="AQ56" s="36"/>
-      <c r="AR56" s="36"/>
-      <c r="AS56" s="36"/>
-      <c r="AT56" s="36"/>
-      <c r="AU56" s="36"/>
-      <c r="AV56" s="36"/>
-      <c r="AW56" s="36"/>
-      <c r="AX56" s="36"/>
-      <c r="AY56" s="36"/>
-      <c r="AZ56" s="36"/>
-      <c r="BA56" s="36"/>
-      <c r="BB56" s="36"/>
-      <c r="BC56" s="36"/>
-      <c r="BD56" s="36"/>
-      <c r="BE56" s="36"/>
-      <c r="BF56" s="36"/>
-      <c r="BG56" s="36"/>
-      <c r="BH56" s="36"/>
-      <c r="BI56" s="36"/>
-      <c r="BJ56" s="36"/>
-      <c r="BK56" s="36"/>
-      <c r="BL56" s="36"/>
-      <c r="BM56" s="36"/>
-      <c r="BN56" s="36"/>
-      <c r="BO56" s="36"/>
-      <c r="BP56" s="36"/>
-      <c r="BQ56" s="37"/>
+      <c r="AE56" s="89"/>
+      <c r="AF56" s="90"/>
+      <c r="AG56" s="90"/>
+      <c r="AH56" s="90"/>
+      <c r="AI56" s="90"/>
+      <c r="AJ56" s="90"/>
+      <c r="AK56" s="90"/>
+      <c r="AL56" s="90"/>
+      <c r="AM56" s="90"/>
+      <c r="AN56" s="90"/>
+      <c r="AO56" s="90"/>
+      <c r="AP56" s="90"/>
+      <c r="AQ56" s="90"/>
+      <c r="AR56" s="90"/>
+      <c r="AS56" s="90"/>
+      <c r="AT56" s="90"/>
+      <c r="AU56" s="90"/>
+      <c r="AV56" s="90"/>
+      <c r="AW56" s="90"/>
+      <c r="AX56" s="90"/>
+      <c r="AY56" s="90"/>
+      <c r="AZ56" s="90"/>
+      <c r="BA56" s="90"/>
+      <c r="BB56" s="90"/>
+      <c r="BC56" s="90"/>
+      <c r="BD56" s="90"/>
+      <c r="BE56" s="90"/>
+      <c r="BF56" s="90"/>
+      <c r="BG56" s="90"/>
+      <c r="BH56" s="90"/>
+      <c r="BI56" s="90"/>
+      <c r="BJ56" s="90"/>
+      <c r="BK56" s="90"/>
+      <c r="BL56" s="90"/>
+      <c r="BM56" s="90"/>
+      <c r="BN56" s="90"/>
+      <c r="BO56" s="90"/>
+      <c r="BP56" s="90"/>
+      <c r="BQ56" s="91"/>
     </row>
     <row r="57" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
+      <c r="B57" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="26"/>
-      <c r="T57" s="26"/>
-      <c r="U57" s="26"/>
-      <c r="V57" s="26"/>
-      <c r="W57" s="26"/>
-      <c r="X57" s="26"/>
-      <c r="Y57" s="26"/>
-      <c r="Z57" s="26"/>
-      <c r="AA57" s="26"/>
-      <c r="AB57" s="27"/>
+      <c r="M57" s="80"/>
+      <c r="N57" s="81"/>
+      <c r="O57" s="81"/>
+      <c r="P57" s="81"/>
+      <c r="Q57" s="81"/>
+      <c r="R57" s="81"/>
+      <c r="S57" s="81"/>
+      <c r="T57" s="81"/>
+      <c r="U57" s="81"/>
+      <c r="V57" s="81"/>
+      <c r="W57" s="81"/>
+      <c r="X57" s="81"/>
+      <c r="Y57" s="81"/>
+      <c r="Z57" s="81"/>
+      <c r="AA57" s="81"/>
+      <c r="AB57" s="82"/>
       <c r="AC57" s="6"/>
       <c r="AD57" s="6"/>
-      <c r="AE57" s="12" t="s">
+      <c r="AE57" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="AF57" s="12"/>
-      <c r="AG57" s="12"/>
-      <c r="AH57" s="12"/>
-      <c r="AI57" s="12"/>
-      <c r="AJ57" s="12"/>
-      <c r="AK57" s="12"/>
-      <c r="AL57" s="12"/>
-      <c r="AM57" s="12"/>
-      <c r="AN57" s="12"/>
-      <c r="AO57" s="12"/>
-      <c r="AP57" s="12"/>
-      <c r="AQ57" s="12"/>
-      <c r="AR57" s="12"/>
-      <c r="AS57" s="12"/>
-      <c r="AT57" s="12"/>
-      <c r="AU57" s="12"/>
-      <c r="AV57" s="12"/>
-      <c r="AW57" s="12"/>
-      <c r="AX57" s="12"/>
-      <c r="AY57" s="12" t="s">
+      <c r="AF57" s="67"/>
+      <c r="AG57" s="67"/>
+      <c r="AH57" s="67"/>
+      <c r="AI57" s="67"/>
+      <c r="AJ57" s="67"/>
+      <c r="AK57" s="67"/>
+      <c r="AL57" s="67"/>
+      <c r="AM57" s="67"/>
+      <c r="AN57" s="67"/>
+      <c r="AO57" s="67"/>
+      <c r="AP57" s="67"/>
+      <c r="AQ57" s="67"/>
+      <c r="AR57" s="67"/>
+      <c r="AS57" s="67"/>
+      <c r="AT57" s="67"/>
+      <c r="AU57" s="67"/>
+      <c r="AV57" s="67"/>
+      <c r="AW57" s="67"/>
+      <c r="AX57" s="67"/>
+      <c r="AY57" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="AZ57" s="12"/>
-      <c r="BA57" s="12"/>
-      <c r="BB57" s="12"/>
-      <c r="BC57" s="12"/>
-      <c r="BD57" s="12"/>
-      <c r="BE57" s="12"/>
-      <c r="BF57" s="12"/>
-      <c r="BG57" s="12"/>
-      <c r="BH57" s="12"/>
-      <c r="BI57" s="12"/>
-      <c r="BJ57" s="12"/>
-      <c r="BK57" s="12"/>
-      <c r="BL57" s="12"/>
-      <c r="BM57" s="12"/>
-      <c r="BN57" s="12"/>
-      <c r="BO57" s="12"/>
-      <c r="BP57" s="12"/>
-      <c r="BQ57" s="12"/>
+      <c r="AZ57" s="67"/>
+      <c r="BA57" s="67"/>
+      <c r="BB57" s="67"/>
+      <c r="BC57" s="67"/>
+      <c r="BD57" s="67"/>
+      <c r="BE57" s="67"/>
+      <c r="BF57" s="67"/>
+      <c r="BG57" s="67"/>
+      <c r="BH57" s="67"/>
+      <c r="BI57" s="67"/>
+      <c r="BJ57" s="67"/>
+      <c r="BK57" s="67"/>
+      <c r="BL57" s="67"/>
+      <c r="BM57" s="67"/>
+      <c r="BN57" s="67"/>
+      <c r="BO57" s="67"/>
+      <c r="BP57" s="67"/>
+      <c r="BQ57" s="67"/>
     </row>
     <row r="58" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="26"/>
-      <c r="S58" s="26"/>
-      <c r="T58" s="26"/>
-      <c r="U58" s="26"/>
-      <c r="V58" s="26"/>
-      <c r="W58" s="26"/>
-      <c r="X58" s="26"/>
-      <c r="Y58" s="26"/>
-      <c r="Z58" s="26"/>
-      <c r="AA58" s="26"/>
-      <c r="AB58" s="27"/>
+      <c r="M58" s="80"/>
+      <c r="N58" s="81"/>
+      <c r="O58" s="81"/>
+      <c r="P58" s="81"/>
+      <c r="Q58" s="81"/>
+      <c r="R58" s="81"/>
+      <c r="S58" s="81"/>
+      <c r="T58" s="81"/>
+      <c r="U58" s="81"/>
+      <c r="V58" s="81"/>
+      <c r="W58" s="81"/>
+      <c r="X58" s="81"/>
+      <c r="Y58" s="81"/>
+      <c r="Z58" s="81"/>
+      <c r="AA58" s="81"/>
+      <c r="AB58" s="82"/>
       <c r="AC58" s="6"/>
       <c r="AD58" s="6"/>
-      <c r="AE58" s="12"/>
-      <c r="AF58" s="12"/>
-      <c r="AG58" s="12"/>
-      <c r="AH58" s="12"/>
-      <c r="AI58" s="12"/>
-      <c r="AJ58" s="12"/>
-      <c r="AK58" s="12"/>
-      <c r="AL58" s="12"/>
-      <c r="AM58" s="12"/>
-      <c r="AN58" s="12"/>
-      <c r="AO58" s="12"/>
-      <c r="AP58" s="12"/>
-      <c r="AQ58" s="12"/>
-      <c r="AR58" s="12"/>
-      <c r="AS58" s="12"/>
-      <c r="AT58" s="12"/>
-      <c r="AU58" s="12"/>
-      <c r="AV58" s="12"/>
-      <c r="AW58" s="12"/>
-      <c r="AX58" s="12"/>
-      <c r="AY58" s="12"/>
-      <c r="AZ58" s="12"/>
-      <c r="BA58" s="12"/>
-      <c r="BB58" s="12"/>
-      <c r="BC58" s="12"/>
-      <c r="BD58" s="12"/>
-      <c r="BE58" s="12"/>
-      <c r="BF58" s="12"/>
-      <c r="BG58" s="12"/>
-      <c r="BH58" s="12"/>
-      <c r="BI58" s="12"/>
-      <c r="BJ58" s="12"/>
-      <c r="BK58" s="12"/>
-      <c r="BL58" s="12"/>
-      <c r="BM58" s="12"/>
-      <c r="BN58" s="12"/>
-      <c r="BO58" s="12"/>
-      <c r="BP58" s="12"/>
-      <c r="BQ58" s="12"/>
+      <c r="AE58" s="67"/>
+      <c r="AF58" s="67"/>
+      <c r="AG58" s="67"/>
+      <c r="AH58" s="67"/>
+      <c r="AI58" s="67"/>
+      <c r="AJ58" s="67"/>
+      <c r="AK58" s="67"/>
+      <c r="AL58" s="67"/>
+      <c r="AM58" s="67"/>
+      <c r="AN58" s="67"/>
+      <c r="AO58" s="67"/>
+      <c r="AP58" s="67"/>
+      <c r="AQ58" s="67"/>
+      <c r="AR58" s="67"/>
+      <c r="AS58" s="67"/>
+      <c r="AT58" s="67"/>
+      <c r="AU58" s="67"/>
+      <c r="AV58" s="67"/>
+      <c r="AW58" s="67"/>
+      <c r="AX58" s="67"/>
+      <c r="AY58" s="67"/>
+      <c r="AZ58" s="67"/>
+      <c r="BA58" s="67"/>
+      <c r="BB58" s="67"/>
+      <c r="BC58" s="67"/>
+      <c r="BD58" s="67"/>
+      <c r="BE58" s="67"/>
+      <c r="BF58" s="67"/>
+      <c r="BG58" s="67"/>
+      <c r="BH58" s="67"/>
+      <c r="BI58" s="67"/>
+      <c r="BJ58" s="67"/>
+      <c r="BK58" s="67"/>
+      <c r="BL58" s="67"/>
+      <c r="BM58" s="67"/>
+      <c r="BN58" s="67"/>
+      <c r="BO58" s="67"/>
+      <c r="BP58" s="67"/>
+      <c r="BQ58" s="67"/>
     </row>
     <row r="59" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="26"/>
-      <c r="T59" s="26"/>
-      <c r="U59" s="26"/>
-      <c r="V59" s="26"/>
-      <c r="W59" s="26"/>
-      <c r="X59" s="26"/>
-      <c r="Y59" s="26"/>
-      <c r="Z59" s="26"/>
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="27"/>
+      <c r="M59" s="80"/>
+      <c r="N59" s="81"/>
+      <c r="O59" s="81"/>
+      <c r="P59" s="81"/>
+      <c r="Q59" s="81"/>
+      <c r="R59" s="81"/>
+      <c r="S59" s="81"/>
+      <c r="T59" s="81"/>
+      <c r="U59" s="81"/>
+      <c r="V59" s="81"/>
+      <c r="W59" s="81"/>
+      <c r="X59" s="81"/>
+      <c r="Y59" s="81"/>
+      <c r="Z59" s="81"/>
+      <c r="AA59" s="81"/>
+      <c r="AB59" s="82"/>
       <c r="AC59" s="6"/>
       <c r="AD59" s="6"/>
-      <c r="AE59" s="12"/>
-      <c r="AF59" s="12"/>
-      <c r="AG59" s="12"/>
-      <c r="AH59" s="12"/>
-      <c r="AI59" s="12"/>
-      <c r="AJ59" s="12"/>
-      <c r="AK59" s="12"/>
-      <c r="AL59" s="12"/>
-      <c r="AM59" s="12"/>
-      <c r="AN59" s="12"/>
-      <c r="AO59" s="12"/>
-      <c r="AP59" s="12"/>
-      <c r="AQ59" s="12"/>
-      <c r="AR59" s="12"/>
-      <c r="AS59" s="12"/>
-      <c r="AT59" s="12"/>
-      <c r="AU59" s="12"/>
-      <c r="AV59" s="12"/>
-      <c r="AW59" s="12"/>
-      <c r="AX59" s="12"/>
-      <c r="AY59" s="12"/>
-      <c r="AZ59" s="12"/>
-      <c r="BA59" s="12"/>
-      <c r="BB59" s="12"/>
-      <c r="BC59" s="12"/>
-      <c r="BD59" s="12"/>
-      <c r="BE59" s="12"/>
-      <c r="BF59" s="12"/>
-      <c r="BG59" s="12"/>
-      <c r="BH59" s="12"/>
-      <c r="BI59" s="12"/>
-      <c r="BJ59" s="12"/>
-      <c r="BK59" s="12"/>
-      <c r="BL59" s="12"/>
-      <c r="BM59" s="12"/>
-      <c r="BN59" s="12"/>
-      <c r="BO59" s="12"/>
-      <c r="BP59" s="12"/>
-      <c r="BQ59" s="12"/>
+      <c r="AE59" s="67"/>
+      <c r="AF59" s="67"/>
+      <c r="AG59" s="67"/>
+      <c r="AH59" s="67"/>
+      <c r="AI59" s="67"/>
+      <c r="AJ59" s="67"/>
+      <c r="AK59" s="67"/>
+      <c r="AL59" s="67"/>
+      <c r="AM59" s="67"/>
+      <c r="AN59" s="67"/>
+      <c r="AO59" s="67"/>
+      <c r="AP59" s="67"/>
+      <c r="AQ59" s="67"/>
+      <c r="AR59" s="67"/>
+      <c r="AS59" s="67"/>
+      <c r="AT59" s="67"/>
+      <c r="AU59" s="67"/>
+      <c r="AV59" s="67"/>
+      <c r="AW59" s="67"/>
+      <c r="AX59" s="67"/>
+      <c r="AY59" s="67"/>
+      <c r="AZ59" s="67"/>
+      <c r="BA59" s="67"/>
+      <c r="BB59" s="67"/>
+      <c r="BC59" s="67"/>
+      <c r="BD59" s="67"/>
+      <c r="BE59" s="67"/>
+      <c r="BF59" s="67"/>
+      <c r="BG59" s="67"/>
+      <c r="BH59" s="67"/>
+      <c r="BI59" s="67"/>
+      <c r="BJ59" s="67"/>
+      <c r="BK59" s="67"/>
+      <c r="BL59" s="67"/>
+      <c r="BM59" s="67"/>
+      <c r="BN59" s="67"/>
+      <c r="BO59" s="67"/>
+      <c r="BP59" s="67"/>
+      <c r="BQ59" s="67"/>
     </row>
     <row r="60" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="26"/>
-      <c r="T60" s="26"/>
-      <c r="U60" s="26"/>
-      <c r="V60" s="26"/>
-      <c r="W60" s="26"/>
-      <c r="X60" s="26"/>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="26"/>
-      <c r="AA60" s="26"/>
-      <c r="AB60" s="27"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="81"/>
+      <c r="O60" s="81"/>
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81"/>
+      <c r="R60" s="81"/>
+      <c r="S60" s="81"/>
+      <c r="T60" s="81"/>
+      <c r="U60" s="81"/>
+      <c r="V60" s="81"/>
+      <c r="W60" s="81"/>
+      <c r="X60" s="81"/>
+      <c r="Y60" s="81"/>
+      <c r="Z60" s="81"/>
+      <c r="AA60" s="81"/>
+      <c r="AB60" s="82"/>
       <c r="AC60" s="6"/>
       <c r="AD60" s="6"/>
-      <c r="AE60" s="12"/>
-      <c r="AF60" s="12"/>
-      <c r="AG60" s="12"/>
-      <c r="AH60" s="12"/>
-      <c r="AI60" s="12"/>
-      <c r="AJ60" s="12"/>
-      <c r="AK60" s="12"/>
-      <c r="AL60" s="12"/>
-      <c r="AM60" s="12"/>
-      <c r="AN60" s="12"/>
-      <c r="AO60" s="12"/>
-      <c r="AP60" s="12"/>
-      <c r="AQ60" s="12"/>
-      <c r="AR60" s="12"/>
-      <c r="AS60" s="12"/>
-      <c r="AT60" s="12"/>
-      <c r="AU60" s="12"/>
-      <c r="AV60" s="12"/>
-      <c r="AW60" s="12"/>
-      <c r="AX60" s="12"/>
-      <c r="AY60" s="12"/>
-      <c r="AZ60" s="12"/>
-      <c r="BA60" s="12"/>
-      <c r="BB60" s="12"/>
-      <c r="BC60" s="12"/>
-      <c r="BD60" s="12"/>
-      <c r="BE60" s="12"/>
-      <c r="BF60" s="12"/>
-      <c r="BG60" s="12"/>
-      <c r="BH60" s="12"/>
-      <c r="BI60" s="12"/>
-      <c r="BJ60" s="12"/>
-      <c r="BK60" s="12"/>
-      <c r="BL60" s="12"/>
-      <c r="BM60" s="12"/>
-      <c r="BN60" s="12"/>
-      <c r="BO60" s="12"/>
-      <c r="BP60" s="12"/>
-      <c r="BQ60" s="12"/>
+      <c r="AE60" s="67"/>
+      <c r="AF60" s="67"/>
+      <c r="AG60" s="67"/>
+      <c r="AH60" s="67"/>
+      <c r="AI60" s="67"/>
+      <c r="AJ60" s="67"/>
+      <c r="AK60" s="67"/>
+      <c r="AL60" s="67"/>
+      <c r="AM60" s="67"/>
+      <c r="AN60" s="67"/>
+      <c r="AO60" s="67"/>
+      <c r="AP60" s="67"/>
+      <c r="AQ60" s="67"/>
+      <c r="AR60" s="67"/>
+      <c r="AS60" s="67"/>
+      <c r="AT60" s="67"/>
+      <c r="AU60" s="67"/>
+      <c r="AV60" s="67"/>
+      <c r="AW60" s="67"/>
+      <c r="AX60" s="67"/>
+      <c r="AY60" s="67"/>
+      <c r="AZ60" s="67"/>
+      <c r="BA60" s="67"/>
+      <c r="BB60" s="67"/>
+      <c r="BC60" s="67"/>
+      <c r="BD60" s="67"/>
+      <c r="BE60" s="67"/>
+      <c r="BF60" s="67"/>
+      <c r="BG60" s="67"/>
+      <c r="BH60" s="67"/>
+      <c r="BI60" s="67"/>
+      <c r="BJ60" s="67"/>
+      <c r="BK60" s="67"/>
+      <c r="BL60" s="67"/>
+      <c r="BM60" s="67"/>
+      <c r="BN60" s="67"/>
+      <c r="BO60" s="67"/>
+      <c r="BP60" s="67"/>
+      <c r="BQ60" s="67"/>
     </row>
     <row r="61" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="26"/>
-      <c r="S61" s="26"/>
-      <c r="T61" s="26"/>
-      <c r="U61" s="26"/>
-      <c r="V61" s="26"/>
-      <c r="W61" s="26"/>
-      <c r="X61" s="26"/>
-      <c r="Y61" s="26"/>
-      <c r="Z61" s="26"/>
-      <c r="AA61" s="26"/>
-      <c r="AB61" s="27"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="81"/>
+      <c r="O61" s="81"/>
+      <c r="P61" s="81"/>
+      <c r="Q61" s="81"/>
+      <c r="R61" s="81"/>
+      <c r="S61" s="81"/>
+      <c r="T61" s="81"/>
+      <c r="U61" s="81"/>
+      <c r="V61" s="81"/>
+      <c r="W61" s="81"/>
+      <c r="X61" s="81"/>
+      <c r="Y61" s="81"/>
+      <c r="Z61" s="81"/>
+      <c r="AA61" s="81"/>
+      <c r="AB61" s="82"/>
       <c r="AC61" s="6"/>
       <c r="AD61" s="6"/>
-      <c r="AE61" s="12"/>
-      <c r="AF61" s="12"/>
-      <c r="AG61" s="12"/>
-      <c r="AH61" s="12"/>
-      <c r="AI61" s="12"/>
-      <c r="AJ61" s="12"/>
-      <c r="AK61" s="12"/>
-      <c r="AL61" s="12"/>
-      <c r="AM61" s="12"/>
-      <c r="AN61" s="12"/>
-      <c r="AO61" s="12"/>
-      <c r="AP61" s="12"/>
-      <c r="AQ61" s="12"/>
-      <c r="AR61" s="12"/>
-      <c r="AS61" s="12"/>
-      <c r="AT61" s="12"/>
-      <c r="AU61" s="12"/>
-      <c r="AV61" s="12"/>
-      <c r="AW61" s="12"/>
-      <c r="AX61" s="12"/>
-      <c r="AY61" s="12"/>
-      <c r="AZ61" s="12"/>
-      <c r="BA61" s="12"/>
-      <c r="BB61" s="12"/>
-      <c r="BC61" s="12"/>
-      <c r="BD61" s="12"/>
-      <c r="BE61" s="12"/>
-      <c r="BF61" s="12"/>
-      <c r="BG61" s="12"/>
-      <c r="BH61" s="12"/>
-      <c r="BI61" s="12"/>
-      <c r="BJ61" s="12"/>
-      <c r="BK61" s="12"/>
-      <c r="BL61" s="12"/>
-      <c r="BM61" s="12"/>
-      <c r="BN61" s="12"/>
-      <c r="BO61" s="12"/>
-      <c r="BP61" s="12"/>
-      <c r="BQ61" s="12"/>
+      <c r="AE61" s="67"/>
+      <c r="AF61" s="67"/>
+      <c r="AG61" s="67"/>
+      <c r="AH61" s="67"/>
+      <c r="AI61" s="67"/>
+      <c r="AJ61" s="67"/>
+      <c r="AK61" s="67"/>
+      <c r="AL61" s="67"/>
+      <c r="AM61" s="67"/>
+      <c r="AN61" s="67"/>
+      <c r="AO61" s="67"/>
+      <c r="AP61" s="67"/>
+      <c r="AQ61" s="67"/>
+      <c r="AR61" s="67"/>
+      <c r="AS61" s="67"/>
+      <c r="AT61" s="67"/>
+      <c r="AU61" s="67"/>
+      <c r="AV61" s="67"/>
+      <c r="AW61" s="67"/>
+      <c r="AX61" s="67"/>
+      <c r="AY61" s="67"/>
+      <c r="AZ61" s="67"/>
+      <c r="BA61" s="67"/>
+      <c r="BB61" s="67"/>
+      <c r="BC61" s="67"/>
+      <c r="BD61" s="67"/>
+      <c r="BE61" s="67"/>
+      <c r="BF61" s="67"/>
+      <c r="BG61" s="67"/>
+      <c r="BH61" s="67"/>
+      <c r="BI61" s="67"/>
+      <c r="BJ61" s="67"/>
+      <c r="BK61" s="67"/>
+      <c r="BL61" s="67"/>
+      <c r="BM61" s="67"/>
+      <c r="BN61" s="67"/>
+      <c r="BO61" s="67"/>
+      <c r="BP61" s="67"/>
+      <c r="BQ61" s="67"/>
     </row>
     <row r="62" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="41"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="93"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="94"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="26"/>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="26"/>
-      <c r="S62" s="26"/>
-      <c r="T62" s="26"/>
-      <c r="U62" s="26"/>
-      <c r="V62" s="26"/>
-      <c r="W62" s="26"/>
-      <c r="X62" s="26"/>
-      <c r="Y62" s="26"/>
-      <c r="Z62" s="26"/>
-      <c r="AA62" s="26"/>
-      <c r="AB62" s="27"/>
+      <c r="M62" s="80"/>
+      <c r="N62" s="81"/>
+      <c r="O62" s="81"/>
+      <c r="P62" s="81"/>
+      <c r="Q62" s="81"/>
+      <c r="R62" s="81"/>
+      <c r="S62" s="81"/>
+      <c r="T62" s="81"/>
+      <c r="U62" s="81"/>
+      <c r="V62" s="81"/>
+      <c r="W62" s="81"/>
+      <c r="X62" s="81"/>
+      <c r="Y62" s="81"/>
+      <c r="Z62" s="81"/>
+      <c r="AA62" s="81"/>
+      <c r="AB62" s="82"/>
       <c r="AC62" s="6"/>
       <c r="AD62" s="6"/>
-      <c r="AE62" s="12"/>
-      <c r="AF62" s="12"/>
-      <c r="AG62" s="12"/>
-      <c r="AH62" s="12"/>
-      <c r="AI62" s="12"/>
-      <c r="AJ62" s="12"/>
-      <c r="AK62" s="12"/>
-      <c r="AL62" s="12"/>
-      <c r="AM62" s="12"/>
-      <c r="AN62" s="12"/>
-      <c r="AO62" s="12"/>
-      <c r="AP62" s="12"/>
-      <c r="AQ62" s="12"/>
-      <c r="AR62" s="12"/>
-      <c r="AS62" s="12"/>
-      <c r="AT62" s="12"/>
-      <c r="AU62" s="12"/>
-      <c r="AV62" s="12"/>
-      <c r="AW62" s="12"/>
-      <c r="AX62" s="12"/>
-      <c r="AY62" s="12"/>
-      <c r="AZ62" s="12"/>
-      <c r="BA62" s="12"/>
-      <c r="BB62" s="12"/>
-      <c r="BC62" s="12"/>
-      <c r="BD62" s="12"/>
-      <c r="BE62" s="12"/>
-      <c r="BF62" s="12"/>
-      <c r="BG62" s="12"/>
-      <c r="BH62" s="12"/>
-      <c r="BI62" s="12"/>
-      <c r="BJ62" s="12"/>
-      <c r="BK62" s="12"/>
-      <c r="BL62" s="12"/>
-      <c r="BM62" s="12"/>
-      <c r="BN62" s="12"/>
-      <c r="BO62" s="12"/>
-      <c r="BP62" s="12"/>
-      <c r="BQ62" s="12"/>
+      <c r="AE62" s="67"/>
+      <c r="AF62" s="67"/>
+      <c r="AG62" s="67"/>
+      <c r="AH62" s="67"/>
+      <c r="AI62" s="67"/>
+      <c r="AJ62" s="67"/>
+      <c r="AK62" s="67"/>
+      <c r="AL62" s="67"/>
+      <c r="AM62" s="67"/>
+      <c r="AN62" s="67"/>
+      <c r="AO62" s="67"/>
+      <c r="AP62" s="67"/>
+      <c r="AQ62" s="67"/>
+      <c r="AR62" s="67"/>
+      <c r="AS62" s="67"/>
+      <c r="AT62" s="67"/>
+      <c r="AU62" s="67"/>
+      <c r="AV62" s="67"/>
+      <c r="AW62" s="67"/>
+      <c r="AX62" s="67"/>
+      <c r="AY62" s="67"/>
+      <c r="AZ62" s="67"/>
+      <c r="BA62" s="67"/>
+      <c r="BB62" s="67"/>
+      <c r="BC62" s="67"/>
+      <c r="BD62" s="67"/>
+      <c r="BE62" s="67"/>
+      <c r="BF62" s="67"/>
+      <c r="BG62" s="67"/>
+      <c r="BH62" s="67"/>
+      <c r="BI62" s="67"/>
+      <c r="BJ62" s="67"/>
+      <c r="BK62" s="67"/>
+      <c r="BL62" s="67"/>
+      <c r="BM62" s="67"/>
+      <c r="BN62" s="67"/>
+      <c r="BO62" s="67"/>
+      <c r="BP62" s="67"/>
+      <c r="BQ62" s="67"/>
     </row>
     <row r="63" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B63" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
+      <c r="B63" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
-      <c r="R63" s="26"/>
-      <c r="S63" s="26"/>
-      <c r="T63" s="26"/>
-      <c r="U63" s="26"/>
-      <c r="V63" s="26"/>
-      <c r="W63" s="26"/>
-      <c r="X63" s="26"/>
-      <c r="Y63" s="26"/>
-      <c r="Z63" s="26"/>
-      <c r="AA63" s="26"/>
-      <c r="AB63" s="27"/>
+      <c r="M63" s="80"/>
+      <c r="N63" s="81"/>
+      <c r="O63" s="81"/>
+      <c r="P63" s="81"/>
+      <c r="Q63" s="81"/>
+      <c r="R63" s="81"/>
+      <c r="S63" s="81"/>
+      <c r="T63" s="81"/>
+      <c r="U63" s="81"/>
+      <c r="V63" s="81"/>
+      <c r="W63" s="81"/>
+      <c r="X63" s="81"/>
+      <c r="Y63" s="81"/>
+      <c r="Z63" s="81"/>
+      <c r="AA63" s="81"/>
+      <c r="AB63" s="82"/>
       <c r="AC63" s="6"/>
       <c r="AD63" s="6"/>
-      <c r="AE63" s="12"/>
-      <c r="AF63" s="12"/>
-      <c r="AG63" s="12"/>
-      <c r="AH63" s="12"/>
-      <c r="AI63" s="12"/>
-      <c r="AJ63" s="12"/>
-      <c r="AK63" s="12"/>
-      <c r="AL63" s="12"/>
-      <c r="AM63" s="12"/>
-      <c r="AN63" s="12"/>
-      <c r="AO63" s="12"/>
-      <c r="AP63" s="12"/>
-      <c r="AQ63" s="12"/>
-      <c r="AR63" s="12"/>
-      <c r="AS63" s="12"/>
-      <c r="AT63" s="12"/>
-      <c r="AU63" s="12"/>
-      <c r="AV63" s="12"/>
-      <c r="AW63" s="12"/>
-      <c r="AX63" s="12"/>
-      <c r="AY63" s="12"/>
-      <c r="AZ63" s="12"/>
-      <c r="BA63" s="12"/>
-      <c r="BB63" s="12"/>
-      <c r="BC63" s="12"/>
-      <c r="BD63" s="12"/>
-      <c r="BE63" s="12"/>
-      <c r="BF63" s="12"/>
-      <c r="BG63" s="12"/>
-      <c r="BH63" s="12"/>
-      <c r="BI63" s="12"/>
-      <c r="BJ63" s="12"/>
-      <c r="BK63" s="12"/>
-      <c r="BL63" s="12"/>
-      <c r="BM63" s="12"/>
-      <c r="BN63" s="12"/>
-      <c r="BO63" s="12"/>
-      <c r="BP63" s="12"/>
-      <c r="BQ63" s="12"/>
+      <c r="AE63" s="67"/>
+      <c r="AF63" s="67"/>
+      <c r="AG63" s="67"/>
+      <c r="AH63" s="67"/>
+      <c r="AI63" s="67"/>
+      <c r="AJ63" s="67"/>
+      <c r="AK63" s="67"/>
+      <c r="AL63" s="67"/>
+      <c r="AM63" s="67"/>
+      <c r="AN63" s="67"/>
+      <c r="AO63" s="67"/>
+      <c r="AP63" s="67"/>
+      <c r="AQ63" s="67"/>
+      <c r="AR63" s="67"/>
+      <c r="AS63" s="67"/>
+      <c r="AT63" s="67"/>
+      <c r="AU63" s="67"/>
+      <c r="AV63" s="67"/>
+      <c r="AW63" s="67"/>
+      <c r="AX63" s="67"/>
+      <c r="AY63" s="67"/>
+      <c r="AZ63" s="67"/>
+      <c r="BA63" s="67"/>
+      <c r="BB63" s="67"/>
+      <c r="BC63" s="67"/>
+      <c r="BD63" s="67"/>
+      <c r="BE63" s="67"/>
+      <c r="BF63" s="67"/>
+      <c r="BG63" s="67"/>
+      <c r="BH63" s="67"/>
+      <c r="BI63" s="67"/>
+      <c r="BJ63" s="67"/>
+      <c r="BK63" s="67"/>
+      <c r="BL63" s="67"/>
+      <c r="BM63" s="67"/>
+      <c r="BN63" s="67"/>
+      <c r="BO63" s="67"/>
+      <c r="BP63" s="67"/>
+      <c r="BQ63" s="67"/>
     </row>
     <row r="64" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B64" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
+      <c r="B64" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="26"/>
-      <c r="Q64" s="26"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="26"/>
-      <c r="T64" s="26"/>
-      <c r="U64" s="26"/>
-      <c r="V64" s="26"/>
-      <c r="W64" s="26"/>
-      <c r="X64" s="26"/>
-      <c r="Y64" s="26"/>
-      <c r="Z64" s="26"/>
-      <c r="AA64" s="26"/>
-      <c r="AB64" s="27"/>
+      <c r="M64" s="80"/>
+      <c r="N64" s="81"/>
+      <c r="O64" s="81"/>
+      <c r="P64" s="81"/>
+      <c r="Q64" s="81"/>
+      <c r="R64" s="81"/>
+      <c r="S64" s="81"/>
+      <c r="T64" s="81"/>
+      <c r="U64" s="81"/>
+      <c r="V64" s="81"/>
+      <c r="W64" s="81"/>
+      <c r="X64" s="81"/>
+      <c r="Y64" s="81"/>
+      <c r="Z64" s="81"/>
+      <c r="AA64" s="81"/>
+      <c r="AB64" s="82"/>
       <c r="AC64" s="6"/>
       <c r="AD64" s="6"/>
-      <c r="AE64" s="12"/>
-      <c r="AF64" s="12"/>
-      <c r="AG64" s="12"/>
-      <c r="AH64" s="12"/>
-      <c r="AI64" s="12"/>
-      <c r="AJ64" s="12"/>
-      <c r="AK64" s="12"/>
-      <c r="AL64" s="12"/>
-      <c r="AM64" s="12"/>
-      <c r="AN64" s="12"/>
-      <c r="AO64" s="12"/>
-      <c r="AP64" s="12"/>
-      <c r="AQ64" s="12"/>
-      <c r="AR64" s="12"/>
-      <c r="AS64" s="12"/>
-      <c r="AT64" s="12"/>
-      <c r="AU64" s="12"/>
-      <c r="AV64" s="12"/>
-      <c r="AW64" s="12"/>
-      <c r="AX64" s="12"/>
-      <c r="AY64" s="12"/>
-      <c r="AZ64" s="12"/>
-      <c r="BA64" s="12"/>
-      <c r="BB64" s="12"/>
-      <c r="BC64" s="12"/>
-      <c r="BD64" s="12"/>
-      <c r="BE64" s="12"/>
-      <c r="BF64" s="12"/>
-      <c r="BG64" s="12"/>
-      <c r="BH64" s="12"/>
-      <c r="BI64" s="12"/>
-      <c r="BJ64" s="12"/>
-      <c r="BK64" s="12"/>
-      <c r="BL64" s="12"/>
-      <c r="BM64" s="12"/>
-      <c r="BN64" s="12"/>
-      <c r="BO64" s="12"/>
-      <c r="BP64" s="12"/>
-      <c r="BQ64" s="12"/>
+      <c r="AE64" s="67"/>
+      <c r="AF64" s="67"/>
+      <c r="AG64" s="67"/>
+      <c r="AH64" s="67"/>
+      <c r="AI64" s="67"/>
+      <c r="AJ64" s="67"/>
+      <c r="AK64" s="67"/>
+      <c r="AL64" s="67"/>
+      <c r="AM64" s="67"/>
+      <c r="AN64" s="67"/>
+      <c r="AO64" s="67"/>
+      <c r="AP64" s="67"/>
+      <c r="AQ64" s="67"/>
+      <c r="AR64" s="67"/>
+      <c r="AS64" s="67"/>
+      <c r="AT64" s="67"/>
+      <c r="AU64" s="67"/>
+      <c r="AV64" s="67"/>
+      <c r="AW64" s="67"/>
+      <c r="AX64" s="67"/>
+      <c r="AY64" s="67"/>
+      <c r="AZ64" s="67"/>
+      <c r="BA64" s="67"/>
+      <c r="BB64" s="67"/>
+      <c r="BC64" s="67"/>
+      <c r="BD64" s="67"/>
+      <c r="BE64" s="67"/>
+      <c r="BF64" s="67"/>
+      <c r="BG64" s="67"/>
+      <c r="BH64" s="67"/>
+      <c r="BI64" s="67"/>
+      <c r="BJ64" s="67"/>
+      <c r="BK64" s="67"/>
+      <c r="BL64" s="67"/>
+      <c r="BM64" s="67"/>
+      <c r="BN64" s="67"/>
+      <c r="BO64" s="67"/>
+      <c r="BP64" s="67"/>
+      <c r="BQ64" s="67"/>
     </row>
     <row r="65" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B65" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
+      <c r="B65" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="26"/>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="26"/>
-      <c r="T65" s="26"/>
-      <c r="U65" s="26"/>
-      <c r="V65" s="26"/>
-      <c r="W65" s="26"/>
-      <c r="X65" s="26"/>
-      <c r="Y65" s="26"/>
-      <c r="Z65" s="26"/>
-      <c r="AA65" s="26"/>
-      <c r="AB65" s="27"/>
+      <c r="M65" s="80"/>
+      <c r="N65" s="81"/>
+      <c r="O65" s="81"/>
+      <c r="P65" s="81"/>
+      <c r="Q65" s="81"/>
+      <c r="R65" s="81"/>
+      <c r="S65" s="81"/>
+      <c r="T65" s="81"/>
+      <c r="U65" s="81"/>
+      <c r="V65" s="81"/>
+      <c r="W65" s="81"/>
+      <c r="X65" s="81"/>
+      <c r="Y65" s="81"/>
+      <c r="Z65" s="81"/>
+      <c r="AA65" s="81"/>
+      <c r="AB65" s="82"/>
       <c r="AC65" s="6"/>
       <c r="AD65" s="6"/>
-      <c r="AE65" s="12"/>
-      <c r="AF65" s="12"/>
-      <c r="AG65" s="12"/>
-      <c r="AH65" s="12"/>
-      <c r="AI65" s="12"/>
-      <c r="AJ65" s="12"/>
-      <c r="AK65" s="12"/>
-      <c r="AL65" s="12"/>
-      <c r="AM65" s="12"/>
-      <c r="AN65" s="12"/>
-      <c r="AO65" s="12"/>
-      <c r="AP65" s="12"/>
-      <c r="AQ65" s="12"/>
-      <c r="AR65" s="12"/>
-      <c r="AS65" s="12"/>
-      <c r="AT65" s="12"/>
-      <c r="AU65" s="12"/>
-      <c r="AV65" s="12"/>
-      <c r="AW65" s="12"/>
-      <c r="AX65" s="12"/>
-      <c r="AY65" s="12"/>
-      <c r="AZ65" s="12"/>
-      <c r="BA65" s="12"/>
-      <c r="BB65" s="12"/>
-      <c r="BC65" s="12"/>
-      <c r="BD65" s="12"/>
-      <c r="BE65" s="12"/>
-      <c r="BF65" s="12"/>
-      <c r="BG65" s="12"/>
-      <c r="BH65" s="12"/>
-      <c r="BI65" s="12"/>
-      <c r="BJ65" s="12"/>
-      <c r="BK65" s="12"/>
-      <c r="BL65" s="12"/>
-      <c r="BM65" s="12"/>
-      <c r="BN65" s="12"/>
-      <c r="BO65" s="12"/>
-      <c r="BP65" s="12"/>
-      <c r="BQ65" s="12"/>
+      <c r="AE65" s="67"/>
+      <c r="AF65" s="67"/>
+      <c r="AG65" s="67"/>
+      <c r="AH65" s="67"/>
+      <c r="AI65" s="67"/>
+      <c r="AJ65" s="67"/>
+      <c r="AK65" s="67"/>
+      <c r="AL65" s="67"/>
+      <c r="AM65" s="67"/>
+      <c r="AN65" s="67"/>
+      <c r="AO65" s="67"/>
+      <c r="AP65" s="67"/>
+      <c r="AQ65" s="67"/>
+      <c r="AR65" s="67"/>
+      <c r="AS65" s="67"/>
+      <c r="AT65" s="67"/>
+      <c r="AU65" s="67"/>
+      <c r="AV65" s="67"/>
+      <c r="AW65" s="67"/>
+      <c r="AX65" s="67"/>
+      <c r="AY65" s="67"/>
+      <c r="AZ65" s="67"/>
+      <c r="BA65" s="67"/>
+      <c r="BB65" s="67"/>
+      <c r="BC65" s="67"/>
+      <c r="BD65" s="67"/>
+      <c r="BE65" s="67"/>
+      <c r="BF65" s="67"/>
+      <c r="BG65" s="67"/>
+      <c r="BH65" s="67"/>
+      <c r="BI65" s="67"/>
+      <c r="BJ65" s="67"/>
+      <c r="BK65" s="67"/>
+      <c r="BL65" s="67"/>
+      <c r="BM65" s="67"/>
+      <c r="BN65" s="67"/>
+      <c r="BO65" s="67"/>
+      <c r="BP65" s="67"/>
+      <c r="BQ65" s="67"/>
     </row>
     <row r="66" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B66" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
+      <c r="B66" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="26"/>
-      <c r="P66" s="26"/>
-      <c r="Q66" s="26"/>
-      <c r="R66" s="26"/>
-      <c r="S66" s="26"/>
-      <c r="T66" s="26"/>
-      <c r="U66" s="26"/>
-      <c r="V66" s="26"/>
-      <c r="W66" s="26"/>
-      <c r="X66" s="26"/>
-      <c r="Y66" s="26"/>
-      <c r="Z66" s="26"/>
-      <c r="AA66" s="26"/>
-      <c r="AB66" s="27"/>
+      <c r="M66" s="80"/>
+      <c r="N66" s="81"/>
+      <c r="O66" s="81"/>
+      <c r="P66" s="81"/>
+      <c r="Q66" s="81"/>
+      <c r="R66" s="81"/>
+      <c r="S66" s="81"/>
+      <c r="T66" s="81"/>
+      <c r="U66" s="81"/>
+      <c r="V66" s="81"/>
+      <c r="W66" s="81"/>
+      <c r="X66" s="81"/>
+      <c r="Y66" s="81"/>
+      <c r="Z66" s="81"/>
+      <c r="AA66" s="81"/>
+      <c r="AB66" s="82"/>
       <c r="AC66" s="6"/>
       <c r="AD66" s="6"/>
-      <c r="AE66" s="12"/>
-      <c r="AF66" s="12"/>
-      <c r="AG66" s="12"/>
-      <c r="AH66" s="12"/>
-      <c r="AI66" s="12"/>
-      <c r="AJ66" s="12"/>
-      <c r="AK66" s="12"/>
-      <c r="AL66" s="12"/>
-      <c r="AM66" s="12"/>
-      <c r="AN66" s="12"/>
-      <c r="AO66" s="12"/>
-      <c r="AP66" s="12"/>
-      <c r="AQ66" s="12"/>
-      <c r="AR66" s="12"/>
-      <c r="AS66" s="12"/>
-      <c r="AT66" s="12"/>
-      <c r="AU66" s="12"/>
-      <c r="AV66" s="12"/>
-      <c r="AW66" s="12"/>
-      <c r="AX66" s="12"/>
-      <c r="AY66" s="12"/>
-      <c r="AZ66" s="12"/>
-      <c r="BA66" s="12"/>
-      <c r="BB66" s="12"/>
-      <c r="BC66" s="12"/>
-      <c r="BD66" s="12"/>
-      <c r="BE66" s="12"/>
-      <c r="BF66" s="12"/>
-      <c r="BG66" s="12"/>
-      <c r="BH66" s="12"/>
-      <c r="BI66" s="12"/>
-      <c r="BJ66" s="12"/>
-      <c r="BK66" s="12"/>
-      <c r="BL66" s="12"/>
-      <c r="BM66" s="12"/>
-      <c r="BN66" s="12"/>
-      <c r="BO66" s="12"/>
-      <c r="BP66" s="12"/>
-      <c r="BQ66" s="12"/>
+      <c r="AE66" s="67"/>
+      <c r="AF66" s="67"/>
+      <c r="AG66" s="67"/>
+      <c r="AH66" s="67"/>
+      <c r="AI66" s="67"/>
+      <c r="AJ66" s="67"/>
+      <c r="AK66" s="67"/>
+      <c r="AL66" s="67"/>
+      <c r="AM66" s="67"/>
+      <c r="AN66" s="67"/>
+      <c r="AO66" s="67"/>
+      <c r="AP66" s="67"/>
+      <c r="AQ66" s="67"/>
+      <c r="AR66" s="67"/>
+      <c r="AS66" s="67"/>
+      <c r="AT66" s="67"/>
+      <c r="AU66" s="67"/>
+      <c r="AV66" s="67"/>
+      <c r="AW66" s="67"/>
+      <c r="AX66" s="67"/>
+      <c r="AY66" s="67"/>
+      <c r="AZ66" s="67"/>
+      <c r="BA66" s="67"/>
+      <c r="BB66" s="67"/>
+      <c r="BC66" s="67"/>
+      <c r="BD66" s="67"/>
+      <c r="BE66" s="67"/>
+      <c r="BF66" s="67"/>
+      <c r="BG66" s="67"/>
+      <c r="BH66" s="67"/>
+      <c r="BI66" s="67"/>
+      <c r="BJ66" s="67"/>
+      <c r="BK66" s="67"/>
+      <c r="BL66" s="67"/>
+      <c r="BM66" s="67"/>
+      <c r="BN66" s="67"/>
+      <c r="BO66" s="67"/>
+      <c r="BP66" s="67"/>
+      <c r="BQ66" s="67"/>
     </row>
     <row r="67" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B67" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
+      <c r="B67" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="60"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="26"/>
-      <c r="P67" s="26"/>
-      <c r="Q67" s="26"/>
-      <c r="R67" s="26"/>
-      <c r="S67" s="26"/>
-      <c r="T67" s="26"/>
-      <c r="U67" s="26"/>
-      <c r="V67" s="26"/>
-      <c r="W67" s="26"/>
-      <c r="X67" s="26"/>
-      <c r="Y67" s="26"/>
-      <c r="Z67" s="26"/>
-      <c r="AA67" s="26"/>
-      <c r="AB67" s="27"/>
+      <c r="M67" s="80"/>
+      <c r="N67" s="81"/>
+      <c r="O67" s="81"/>
+      <c r="P67" s="81"/>
+      <c r="Q67" s="81"/>
+      <c r="R67" s="81"/>
+      <c r="S67" s="81"/>
+      <c r="T67" s="81"/>
+      <c r="U67" s="81"/>
+      <c r="V67" s="81"/>
+      <c r="W67" s="81"/>
+      <c r="X67" s="81"/>
+      <c r="Y67" s="81"/>
+      <c r="Z67" s="81"/>
+      <c r="AA67" s="81"/>
+      <c r="AB67" s="82"/>
       <c r="AC67" s="6"/>
       <c r="AD67" s="6"/>
-      <c r="AE67" s="12"/>
-      <c r="AF67" s="12"/>
-      <c r="AG67" s="12"/>
-      <c r="AH67" s="12"/>
-      <c r="AI67" s="12"/>
-      <c r="AJ67" s="12"/>
-      <c r="AK67" s="12"/>
-      <c r="AL67" s="12"/>
-      <c r="AM67" s="12"/>
-      <c r="AN67" s="12"/>
-      <c r="AO67" s="12"/>
-      <c r="AP67" s="12"/>
-      <c r="AQ67" s="12"/>
-      <c r="AR67" s="12"/>
-      <c r="AS67" s="12"/>
-      <c r="AT67" s="12"/>
-      <c r="AU67" s="12"/>
-      <c r="AV67" s="12"/>
-      <c r="AW67" s="12"/>
-      <c r="AX67" s="12"/>
-      <c r="AY67" s="12"/>
-      <c r="AZ67" s="12"/>
-      <c r="BA67" s="12"/>
-      <c r="BB67" s="12"/>
-      <c r="BC67" s="12"/>
-      <c r="BD67" s="12"/>
-      <c r="BE67" s="12"/>
-      <c r="BF67" s="12"/>
-      <c r="BG67" s="12"/>
-      <c r="BH67" s="12"/>
-      <c r="BI67" s="12"/>
-      <c r="BJ67" s="12"/>
-      <c r="BK67" s="12"/>
-      <c r="BL67" s="12"/>
-      <c r="BM67" s="12"/>
-      <c r="BN67" s="12"/>
-      <c r="BO67" s="12"/>
-      <c r="BP67" s="12"/>
-      <c r="BQ67" s="12"/>
+      <c r="AE67" s="67"/>
+      <c r="AF67" s="67"/>
+      <c r="AG67" s="67"/>
+      <c r="AH67" s="67"/>
+      <c r="AI67" s="67"/>
+      <c r="AJ67" s="67"/>
+      <c r="AK67" s="67"/>
+      <c r="AL67" s="67"/>
+      <c r="AM67" s="67"/>
+      <c r="AN67" s="67"/>
+      <c r="AO67" s="67"/>
+      <c r="AP67" s="67"/>
+      <c r="AQ67" s="67"/>
+      <c r="AR67" s="67"/>
+      <c r="AS67" s="67"/>
+      <c r="AT67" s="67"/>
+      <c r="AU67" s="67"/>
+      <c r="AV67" s="67"/>
+      <c r="AW67" s="67"/>
+      <c r="AX67" s="67"/>
+      <c r="AY67" s="67"/>
+      <c r="AZ67" s="67"/>
+      <c r="BA67" s="67"/>
+      <c r="BB67" s="67"/>
+      <c r="BC67" s="67"/>
+      <c r="BD67" s="67"/>
+      <c r="BE67" s="67"/>
+      <c r="BF67" s="67"/>
+      <c r="BG67" s="67"/>
+      <c r="BH67" s="67"/>
+      <c r="BI67" s="67"/>
+      <c r="BJ67" s="67"/>
+      <c r="BK67" s="67"/>
+      <c r="BL67" s="67"/>
+      <c r="BM67" s="67"/>
+      <c r="BN67" s="67"/>
+      <c r="BO67" s="67"/>
+      <c r="BP67" s="67"/>
+      <c r="BQ67" s="67"/>
     </row>
     <row r="68" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="26"/>
-      <c r="Q68" s="26"/>
-      <c r="R68" s="26"/>
-      <c r="S68" s="26"/>
-      <c r="T68" s="26"/>
-      <c r="U68" s="26"/>
-      <c r="V68" s="26"/>
-      <c r="W68" s="26"/>
-      <c r="X68" s="26"/>
-      <c r="Y68" s="26"/>
-      <c r="Z68" s="26"/>
-      <c r="AA68" s="26"/>
-      <c r="AB68" s="27"/>
+      <c r="M68" s="80"/>
+      <c r="N68" s="81"/>
+      <c r="O68" s="81"/>
+      <c r="P68" s="81"/>
+      <c r="Q68" s="81"/>
+      <c r="R68" s="81"/>
+      <c r="S68" s="81"/>
+      <c r="T68" s="81"/>
+      <c r="U68" s="81"/>
+      <c r="V68" s="81"/>
+      <c r="W68" s="81"/>
+      <c r="X68" s="81"/>
+      <c r="Y68" s="81"/>
+      <c r="Z68" s="81"/>
+      <c r="AA68" s="81"/>
+      <c r="AB68" s="82"/>
       <c r="AC68" s="6"/>
       <c r="AD68" s="6"/>
-      <c r="AE68" s="12"/>
-      <c r="AF68" s="12"/>
-      <c r="AG68" s="12"/>
-      <c r="AH68" s="12"/>
-      <c r="AI68" s="12"/>
-      <c r="AJ68" s="12"/>
-      <c r="AK68" s="12"/>
-      <c r="AL68" s="12"/>
-      <c r="AM68" s="12"/>
-      <c r="AN68" s="12"/>
-      <c r="AO68" s="12"/>
-      <c r="AP68" s="12"/>
-      <c r="AQ68" s="12"/>
-      <c r="AR68" s="12"/>
-      <c r="AS68" s="12"/>
-      <c r="AT68" s="12"/>
-      <c r="AU68" s="12"/>
-      <c r="AV68" s="12"/>
-      <c r="AW68" s="12"/>
-      <c r="AX68" s="12"/>
-      <c r="AY68" s="12"/>
-      <c r="AZ68" s="12"/>
-      <c r="BA68" s="12"/>
-      <c r="BB68" s="12"/>
-      <c r="BC68" s="12"/>
-      <c r="BD68" s="12"/>
-      <c r="BE68" s="12"/>
-      <c r="BF68" s="12"/>
-      <c r="BG68" s="12"/>
-      <c r="BH68" s="12"/>
-      <c r="BI68" s="12"/>
-      <c r="BJ68" s="12"/>
-      <c r="BK68" s="12"/>
-      <c r="BL68" s="12"/>
-      <c r="BM68" s="12"/>
-      <c r="BN68" s="12"/>
-      <c r="BO68" s="12"/>
-      <c r="BP68" s="12"/>
-      <c r="BQ68" s="12"/>
+      <c r="AE68" s="67"/>
+      <c r="AF68" s="67"/>
+      <c r="AG68" s="67"/>
+      <c r="AH68" s="67"/>
+      <c r="AI68" s="67"/>
+      <c r="AJ68" s="67"/>
+      <c r="AK68" s="67"/>
+      <c r="AL68" s="67"/>
+      <c r="AM68" s="67"/>
+      <c r="AN68" s="67"/>
+      <c r="AO68" s="67"/>
+      <c r="AP68" s="67"/>
+      <c r="AQ68" s="67"/>
+      <c r="AR68" s="67"/>
+      <c r="AS68" s="67"/>
+      <c r="AT68" s="67"/>
+      <c r="AU68" s="67"/>
+      <c r="AV68" s="67"/>
+      <c r="AW68" s="67"/>
+      <c r="AX68" s="67"/>
+      <c r="AY68" s="67"/>
+      <c r="AZ68" s="67"/>
+      <c r="BA68" s="67"/>
+      <c r="BB68" s="67"/>
+      <c r="BC68" s="67"/>
+      <c r="BD68" s="67"/>
+      <c r="BE68" s="67"/>
+      <c r="BF68" s="67"/>
+      <c r="BG68" s="67"/>
+      <c r="BH68" s="67"/>
+      <c r="BI68" s="67"/>
+      <c r="BJ68" s="67"/>
+      <c r="BK68" s="67"/>
+      <c r="BL68" s="67"/>
+      <c r="BM68" s="67"/>
+      <c r="BN68" s="67"/>
+      <c r="BO68" s="67"/>
+      <c r="BP68" s="67"/>
+      <c r="BQ68" s="67"/>
     </row>
     <row r="69" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="26"/>
-      <c r="S69" s="26"/>
-      <c r="T69" s="26"/>
-      <c r="U69" s="26"/>
-      <c r="V69" s="26"/>
-      <c r="W69" s="26"/>
-      <c r="X69" s="26"/>
-      <c r="Y69" s="26"/>
-      <c r="Z69" s="26"/>
-      <c r="AA69" s="26"/>
-      <c r="AB69" s="27"/>
+      <c r="M69" s="80"/>
+      <c r="N69" s="81"/>
+      <c r="O69" s="81"/>
+      <c r="P69" s="81"/>
+      <c r="Q69" s="81"/>
+      <c r="R69" s="81"/>
+      <c r="S69" s="81"/>
+      <c r="T69" s="81"/>
+      <c r="U69" s="81"/>
+      <c r="V69" s="81"/>
+      <c r="W69" s="81"/>
+      <c r="X69" s="81"/>
+      <c r="Y69" s="81"/>
+      <c r="Z69" s="81"/>
+      <c r="AA69" s="81"/>
+      <c r="AB69" s="82"/>
       <c r="AC69" s="6"/>
       <c r="AD69" s="6"/>
-      <c r="AE69" s="12"/>
-      <c r="AF69" s="12"/>
-      <c r="AG69" s="12"/>
-      <c r="AH69" s="12"/>
-      <c r="AI69" s="12"/>
-      <c r="AJ69" s="12"/>
-      <c r="AK69" s="12"/>
-      <c r="AL69" s="12"/>
-      <c r="AM69" s="12"/>
-      <c r="AN69" s="12"/>
-      <c r="AO69" s="12"/>
-      <c r="AP69" s="12"/>
-      <c r="AQ69" s="12"/>
-      <c r="AR69" s="12"/>
-      <c r="AS69" s="12"/>
-      <c r="AT69" s="12"/>
-      <c r="AU69" s="12"/>
-      <c r="AV69" s="12"/>
-      <c r="AW69" s="12"/>
-      <c r="AX69" s="12"/>
-      <c r="AY69" s="12"/>
-      <c r="AZ69" s="12"/>
-      <c r="BA69" s="12"/>
-      <c r="BB69" s="12"/>
-      <c r="BC69" s="12"/>
-      <c r="BD69" s="12"/>
-      <c r="BE69" s="12"/>
-      <c r="BF69" s="12"/>
-      <c r="BG69" s="12"/>
-      <c r="BH69" s="12"/>
-      <c r="BI69" s="12"/>
-      <c r="BJ69" s="12"/>
-      <c r="BK69" s="12"/>
-      <c r="BL69" s="12"/>
-      <c r="BM69" s="12"/>
-      <c r="BN69" s="12"/>
-      <c r="BO69" s="12"/>
-      <c r="BP69" s="12"/>
-      <c r="BQ69" s="12"/>
+      <c r="AE69" s="67"/>
+      <c r="AF69" s="67"/>
+      <c r="AG69" s="67"/>
+      <c r="AH69" s="67"/>
+      <c r="AI69" s="67"/>
+      <c r="AJ69" s="67"/>
+      <c r="AK69" s="67"/>
+      <c r="AL69" s="67"/>
+      <c r="AM69" s="67"/>
+      <c r="AN69" s="67"/>
+      <c r="AO69" s="67"/>
+      <c r="AP69" s="67"/>
+      <c r="AQ69" s="67"/>
+      <c r="AR69" s="67"/>
+      <c r="AS69" s="67"/>
+      <c r="AT69" s="67"/>
+      <c r="AU69" s="67"/>
+      <c r="AV69" s="67"/>
+      <c r="AW69" s="67"/>
+      <c r="AX69" s="67"/>
+      <c r="AY69" s="67"/>
+      <c r="AZ69" s="67"/>
+      <c r="BA69" s="67"/>
+      <c r="BB69" s="67"/>
+      <c r="BC69" s="67"/>
+      <c r="BD69" s="67"/>
+      <c r="BE69" s="67"/>
+      <c r="BF69" s="67"/>
+      <c r="BG69" s="67"/>
+      <c r="BH69" s="67"/>
+      <c r="BI69" s="67"/>
+      <c r="BJ69" s="67"/>
+      <c r="BK69" s="67"/>
+      <c r="BL69" s="67"/>
+      <c r="BM69" s="67"/>
+      <c r="BN69" s="67"/>
+      <c r="BO69" s="67"/>
+      <c r="BP69" s="67"/>
+      <c r="BQ69" s="67"/>
     </row>
     <row r="70" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="26"/>
-      <c r="P70" s="26"/>
-      <c r="Q70" s="26"/>
-      <c r="R70" s="26"/>
-      <c r="S70" s="26"/>
-      <c r="T70" s="26"/>
-      <c r="U70" s="26"/>
-      <c r="V70" s="26"/>
-      <c r="W70" s="26"/>
-      <c r="X70" s="26"/>
-      <c r="Y70" s="26"/>
-      <c r="Z70" s="26"/>
-      <c r="AA70" s="26"/>
-      <c r="AB70" s="27"/>
+      <c r="M70" s="80"/>
+      <c r="N70" s="81"/>
+      <c r="O70" s="81"/>
+      <c r="P70" s="81"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="81"/>
+      <c r="S70" s="81"/>
+      <c r="T70" s="81"/>
+      <c r="U70" s="81"/>
+      <c r="V70" s="81"/>
+      <c r="W70" s="81"/>
+      <c r="X70" s="81"/>
+      <c r="Y70" s="81"/>
+      <c r="Z70" s="81"/>
+      <c r="AA70" s="81"/>
+      <c r="AB70" s="82"/>
       <c r="AC70" s="6"/>
       <c r="AD70" s="6"/>
-      <c r="AE70" s="12"/>
-      <c r="AF70" s="12"/>
-      <c r="AG70" s="12"/>
-      <c r="AH70" s="12"/>
-      <c r="AI70" s="12"/>
-      <c r="AJ70" s="12"/>
-      <c r="AK70" s="12"/>
-      <c r="AL70" s="12"/>
-      <c r="AM70" s="12"/>
-      <c r="AN70" s="12"/>
-      <c r="AO70" s="12"/>
-      <c r="AP70" s="12"/>
-      <c r="AQ70" s="12"/>
-      <c r="AR70" s="12"/>
-      <c r="AS70" s="12"/>
-      <c r="AT70" s="12"/>
-      <c r="AU70" s="12"/>
-      <c r="AV70" s="12"/>
-      <c r="AW70" s="12"/>
-      <c r="AX70" s="12"/>
-      <c r="AY70" s="12"/>
-      <c r="AZ70" s="12"/>
-      <c r="BA70" s="12"/>
-      <c r="BB70" s="12"/>
-      <c r="BC70" s="12"/>
-      <c r="BD70" s="12"/>
-      <c r="BE70" s="12"/>
-      <c r="BF70" s="12"/>
-      <c r="BG70" s="12"/>
-      <c r="BH70" s="12"/>
-      <c r="BI70" s="12"/>
-      <c r="BJ70" s="12"/>
-      <c r="BK70" s="12"/>
-      <c r="BL70" s="12"/>
-      <c r="BM70" s="12"/>
-      <c r="BN70" s="12"/>
-      <c r="BO70" s="12"/>
-      <c r="BP70" s="12"/>
-      <c r="BQ70" s="12"/>
+      <c r="AE70" s="67"/>
+      <c r="AF70" s="67"/>
+      <c r="AG70" s="67"/>
+      <c r="AH70" s="67"/>
+      <c r="AI70" s="67"/>
+      <c r="AJ70" s="67"/>
+      <c r="AK70" s="67"/>
+      <c r="AL70" s="67"/>
+      <c r="AM70" s="67"/>
+      <c r="AN70" s="67"/>
+      <c r="AO70" s="67"/>
+      <c r="AP70" s="67"/>
+      <c r="AQ70" s="67"/>
+      <c r="AR70" s="67"/>
+      <c r="AS70" s="67"/>
+      <c r="AT70" s="67"/>
+      <c r="AU70" s="67"/>
+      <c r="AV70" s="67"/>
+      <c r="AW70" s="67"/>
+      <c r="AX70" s="67"/>
+      <c r="AY70" s="67"/>
+      <c r="AZ70" s="67"/>
+      <c r="BA70" s="67"/>
+      <c r="BB70" s="67"/>
+      <c r="BC70" s="67"/>
+      <c r="BD70" s="67"/>
+      <c r="BE70" s="67"/>
+      <c r="BF70" s="67"/>
+      <c r="BG70" s="67"/>
+      <c r="BH70" s="67"/>
+      <c r="BI70" s="67"/>
+      <c r="BJ70" s="67"/>
+      <c r="BK70" s="67"/>
+      <c r="BL70" s="67"/>
+      <c r="BM70" s="67"/>
+      <c r="BN70" s="67"/>
+      <c r="BO70" s="67"/>
+      <c r="BP70" s="67"/>
+      <c r="BQ70" s="67"/>
     </row>
     <row r="71" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="26"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="26"/>
-      <c r="R71" s="26"/>
-      <c r="S71" s="26"/>
-      <c r="T71" s="26"/>
-      <c r="U71" s="26"/>
-      <c r="V71" s="26"/>
-      <c r="W71" s="26"/>
-      <c r="X71" s="26"/>
-      <c r="Y71" s="26"/>
-      <c r="Z71" s="26"/>
-      <c r="AA71" s="26"/>
-      <c r="AB71" s="27"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="M71" s="80"/>
+      <c r="N71" s="81"/>
+      <c r="O71" s="81"/>
+      <c r="P71" s="81"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="81"/>
+      <c r="S71" s="81"/>
+      <c r="T71" s="81"/>
+      <c r="U71" s="81"/>
+      <c r="V71" s="81"/>
+      <c r="W71" s="81"/>
+      <c r="X71" s="81"/>
+      <c r="Y71" s="81"/>
+      <c r="Z71" s="81"/>
+      <c r="AA71" s="81"/>
+      <c r="AB71" s="82"/>
       <c r="AC71" s="6"/>
       <c r="AD71" s="6"/>
-      <c r="AE71" s="12"/>
-      <c r="AF71" s="12"/>
-      <c r="AG71" s="12"/>
-      <c r="AH71" s="12"/>
-      <c r="AI71" s="12"/>
-      <c r="AJ71" s="12"/>
-      <c r="AK71" s="12"/>
-      <c r="AL71" s="12"/>
-      <c r="AM71" s="12"/>
-      <c r="AN71" s="12"/>
-      <c r="AO71" s="12"/>
-      <c r="AP71" s="12"/>
-      <c r="AQ71" s="12"/>
-      <c r="AR71" s="12"/>
-      <c r="AS71" s="12"/>
-      <c r="AT71" s="12"/>
-      <c r="AU71" s="12"/>
-      <c r="AV71" s="12"/>
-      <c r="AW71" s="12"/>
-      <c r="AX71" s="12"/>
-      <c r="AY71" s="12"/>
-      <c r="AZ71" s="12"/>
-      <c r="BA71" s="12"/>
-      <c r="BB71" s="12"/>
-      <c r="BC71" s="12"/>
-      <c r="BD71" s="12"/>
-      <c r="BE71" s="12"/>
-      <c r="BF71" s="12"/>
-      <c r="BG71" s="12"/>
-      <c r="BH71" s="12"/>
-      <c r="BI71" s="12"/>
-      <c r="BJ71" s="12"/>
-      <c r="BK71" s="12"/>
-      <c r="BL71" s="12"/>
-      <c r="BM71" s="12"/>
-      <c r="BN71" s="12"/>
-      <c r="BO71" s="12"/>
-      <c r="BP71" s="12"/>
-      <c r="BQ71" s="12"/>
+      <c r="AE71" s="67"/>
+      <c r="AF71" s="67"/>
+      <c r="AG71" s="67"/>
+      <c r="AH71" s="67"/>
+      <c r="AI71" s="67"/>
+      <c r="AJ71" s="67"/>
+      <c r="AK71" s="67"/>
+      <c r="AL71" s="67"/>
+      <c r="AM71" s="67"/>
+      <c r="AN71" s="67"/>
+      <c r="AO71" s="67"/>
+      <c r="AP71" s="67"/>
+      <c r="AQ71" s="67"/>
+      <c r="AR71" s="67"/>
+      <c r="AS71" s="67"/>
+      <c r="AT71" s="67"/>
+      <c r="AU71" s="67"/>
+      <c r="AV71" s="67"/>
+      <c r="AW71" s="67"/>
+      <c r="AX71" s="67"/>
+      <c r="AY71" s="67"/>
+      <c r="AZ71" s="67"/>
+      <c r="BA71" s="67"/>
+      <c r="BB71" s="67"/>
+      <c r="BC71" s="67"/>
+      <c r="BD71" s="67"/>
+      <c r="BE71" s="67"/>
+      <c r="BF71" s="67"/>
+      <c r="BG71" s="67"/>
+      <c r="BH71" s="67"/>
+      <c r="BI71" s="67"/>
+      <c r="BJ71" s="67"/>
+      <c r="BK71" s="67"/>
+      <c r="BL71" s="67"/>
+      <c r="BM71" s="67"/>
+      <c r="BN71" s="67"/>
+      <c r="BO71" s="67"/>
+      <c r="BP71" s="67"/>
+      <c r="BQ71" s="67"/>
     </row>
     <row r="72" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="29"/>
-      <c r="S72" s="29"/>
-      <c r="T72" s="29"/>
-      <c r="U72" s="29"/>
-      <c r="V72" s="29"/>
-      <c r="W72" s="29"/>
-      <c r="X72" s="29"/>
-      <c r="Y72" s="29"/>
-      <c r="Z72" s="29"/>
-      <c r="AA72" s="29"/>
-      <c r="AB72" s="30"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="M72" s="83"/>
+      <c r="N72" s="84"/>
+      <c r="O72" s="84"/>
+      <c r="P72" s="84"/>
+      <c r="Q72" s="84"/>
+      <c r="R72" s="84"/>
+      <c r="S72" s="84"/>
+      <c r="T72" s="84"/>
+      <c r="U72" s="84"/>
+      <c r="V72" s="84"/>
+      <c r="W72" s="84"/>
+      <c r="X72" s="84"/>
+      <c r="Y72" s="84"/>
+      <c r="Z72" s="84"/>
+      <c r="AA72" s="84"/>
+      <c r="AB72" s="85"/>
       <c r="AC72" s="6"/>
       <c r="AD72" s="6"/>
-      <c r="AE72" s="12"/>
-      <c r="AF72" s="12"/>
-      <c r="AG72" s="12"/>
-      <c r="AH72" s="12"/>
-      <c r="AI72" s="12"/>
-      <c r="AJ72" s="12"/>
-      <c r="AK72" s="12"/>
-      <c r="AL72" s="12"/>
-      <c r="AM72" s="12"/>
-      <c r="AN72" s="12"/>
-      <c r="AO72" s="12"/>
-      <c r="AP72" s="12"/>
-      <c r="AQ72" s="12"/>
-      <c r="AR72" s="12"/>
-      <c r="AS72" s="12"/>
-      <c r="AT72" s="12"/>
-      <c r="AU72" s="12"/>
-      <c r="AV72" s="12"/>
-      <c r="AW72" s="12"/>
-      <c r="AX72" s="12"/>
-      <c r="AY72" s="12"/>
-      <c r="AZ72" s="12"/>
-      <c r="BA72" s="12"/>
-      <c r="BB72" s="12"/>
-      <c r="BC72" s="12"/>
-      <c r="BD72" s="12"/>
-      <c r="BE72" s="12"/>
-      <c r="BF72" s="12"/>
-      <c r="BG72" s="12"/>
-      <c r="BH72" s="12"/>
-      <c r="BI72" s="12"/>
-      <c r="BJ72" s="12"/>
-      <c r="BK72" s="12"/>
-      <c r="BL72" s="12"/>
-      <c r="BM72" s="12"/>
-      <c r="BN72" s="12"/>
-      <c r="BO72" s="12"/>
-      <c r="BP72" s="12"/>
-      <c r="BQ72" s="12"/>
+      <c r="AE72" s="67"/>
+      <c r="AF72" s="67"/>
+      <c r="AG72" s="67"/>
+      <c r="AH72" s="67"/>
+      <c r="AI72" s="67"/>
+      <c r="AJ72" s="67"/>
+      <c r="AK72" s="67"/>
+      <c r="AL72" s="67"/>
+      <c r="AM72" s="67"/>
+      <c r="AN72" s="67"/>
+      <c r="AO72" s="67"/>
+      <c r="AP72" s="67"/>
+      <c r="AQ72" s="67"/>
+      <c r="AR72" s="67"/>
+      <c r="AS72" s="67"/>
+      <c r="AT72" s="67"/>
+      <c r="AU72" s="67"/>
+      <c r="AV72" s="67"/>
+      <c r="AW72" s="67"/>
+      <c r="AX72" s="67"/>
+      <c r="AY72" s="67"/>
+      <c r="AZ72" s="67"/>
+      <c r="BA72" s="67"/>
+      <c r="BB72" s="67"/>
+      <c r="BC72" s="67"/>
+      <c r="BD72" s="67"/>
+      <c r="BE72" s="67"/>
+      <c r="BF72" s="67"/>
+      <c r="BG72" s="67"/>
+      <c r="BH72" s="67"/>
+      <c r="BI72" s="67"/>
+      <c r="BJ72" s="67"/>
+      <c r="BK72" s="67"/>
+      <c r="BL72" s="67"/>
+      <c r="BM72" s="67"/>
+      <c r="BN72" s="67"/>
+      <c r="BO72" s="67"/>
+      <c r="BP72" s="67"/>
+      <c r="BQ72" s="67"/>
     </row>
     <row r="73" spans="2:69" x14ac:dyDescent="0.25">
       <c r="S73" s="9"/>
@@ -6916,43 +6921,29 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="76">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B1:BQ7"/>
-    <mergeCell ref="E10:W11"/>
-    <mergeCell ref="X10:AP11"/>
-    <mergeCell ref="AQ10:BQ11"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="AD15:AH15"/>
-    <mergeCell ref="AI15:AM15"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="AE57:AX72"/>
+    <mergeCell ref="B13:D16"/>
+    <mergeCell ref="M55:AB72"/>
+    <mergeCell ref="AE53:BQ54"/>
+    <mergeCell ref="AE55:BQ56"/>
+    <mergeCell ref="AY57:BQ72"/>
+    <mergeCell ref="B72:J72"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="B67:J67"/>
+    <mergeCell ref="B68:J68"/>
+    <mergeCell ref="B69:J69"/>
+    <mergeCell ref="B70:J70"/>
+    <mergeCell ref="B71:J71"/>
+    <mergeCell ref="B64:J64"/>
+    <mergeCell ref="B65:J65"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="B55:J56"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="B61:J61"/>
     <mergeCell ref="AX15:BB15"/>
     <mergeCell ref="BC15:BG15"/>
     <mergeCell ref="B8:D12"/>
@@ -6969,29 +6960,43 @@
     <mergeCell ref="BH15:BL15"/>
     <mergeCell ref="BM15:BQ15"/>
     <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="B55:J56"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="B60:J60"/>
-    <mergeCell ref="B61:J61"/>
-    <mergeCell ref="AE57:AX72"/>
-    <mergeCell ref="B13:D16"/>
-    <mergeCell ref="M55:AB72"/>
-    <mergeCell ref="AE53:BQ54"/>
-    <mergeCell ref="AE55:BQ56"/>
-    <mergeCell ref="AY57:BQ72"/>
-    <mergeCell ref="B72:J72"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="B63:J63"/>
-    <mergeCell ref="B67:J67"/>
-    <mergeCell ref="B68:J68"/>
-    <mergeCell ref="B69:J69"/>
-    <mergeCell ref="B70:J70"/>
-    <mergeCell ref="B71:J71"/>
-    <mergeCell ref="B64:J64"/>
-    <mergeCell ref="B65:J65"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B1:BQ7"/>
+    <mergeCell ref="E10:W11"/>
+    <mergeCell ref="X10:AP11"/>
+    <mergeCell ref="AQ10:BQ11"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="AD15:AH15"/>
+    <mergeCell ref="AI15:AM15"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B33:D33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
